--- a/01_Sept_Code/Result_Analysis/RESULTS_COMPILES.xlsx
+++ b/01_Sept_Code/Result_Analysis/RESULTS_COMPILES.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="16275" windowHeight="8520"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="16275" windowHeight="8520" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01_BELL" sheetId="1" r:id="rId1"/>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:P101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,10 +715,10 @@
         <v>500</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.2853470437018</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2.5706940874035999</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -765,10 +765,10 @@
         <v>600</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3.0848329048843199</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>6.1696658097686399</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -815,10 +815,10 @@
         <v>700</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>4.3701799485861201</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>8.7403598971722403</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>800</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>23.650385604113101</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>47.300771208226202</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0</v>
+        <v>0.89974293059125998</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.79948586118252</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>900</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>25.9640102827764</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>51.9280205655527</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -953,10 +953,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0</v>
+        <v>3.0848329048843199</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>6.1696658097686399</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>1000</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>36.246786632390702</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>72.493573264781503</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1003,10 +1003,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>5.5269922879177402</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>11.0539845758355</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>1100</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>39.460154241645199</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>78.920308483290498</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1053,10 +1053,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0</v>
+        <v>6.5552699228791802</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>13.110539845758399</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>1200</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>40.359897172236501</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>80.719794344473002</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0</v>
+        <v>21.465295629820101</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>42.930591259640103</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>1300</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>38.6889460154242</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>77.377892030848301</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0</v>
+        <v>25.064267352185102</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>50.128534704370203</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1165,10 +1165,10 @@
         <v>1400</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>39.717223650385598</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>79.434447300771197</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1203,10 +1203,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0</v>
+        <v>26.606683804627298</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>53.213367609254497</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>1500</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>41.645244215938298</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>83.290488431876597</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0</v>
+        <v>32.133676092545002</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>64.267352185090004</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>1600</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>41.773778920308501</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>83.547557840617003</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1303,10 +1303,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0</v>
+        <v>34.961439588688997</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>69.922879177377894</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>1700</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>43.830334190231397</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>87.660668380462695</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1353,10 +1353,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0</v>
+        <v>35.732647814910003</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>71.465295629820105</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1365,10 +1365,10 @@
         <v>1800</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>44.087403598971697</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>88.174807197943494</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1403,10 +1403,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0</v>
+        <v>35.861182519280199</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>71.722365038560397</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>1900</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>44.2159383033419</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>88.431876606683801</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1439,10 +1439,10 @@
         <v>1900</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.05655526992288</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>4.1131105398457599</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0</v>
+        <v>37.0179948586118</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>74.0359897172236</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1465,10 +1465,10 @@
         <v>2000</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>44.344473007712097</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>88.688946015424193</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1489,10 +1489,10 @@
         <v>2000</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.6992287917737801</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.3984575835475601</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0</v>
+        <v>37.275064267352199</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>74.550128534704399</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1515,10 +1515,10 @@
         <v>2100</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>44.344473007712097</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>88.688946015424193</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>2100</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.8560411311054001</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.7120822622108003</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1553,10 +1553,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0</v>
+        <v>38.431876606683801</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>76.863753213367602</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>2200</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>45.372750642673502</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>90.745501285347103</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1589,10 +1589,10 @@
         <v>2200</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.72750642673522</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.4550128534704401</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1603,10 +1603,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0</v>
+        <v>41.773778920308501</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>83.547557840617003</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>2300</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>45.629820051413901</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>91.259640102827802</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1639,10 +1639,10 @@
         <v>2300</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.0128534704370198</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.025706940874</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0</v>
+        <v>42.5449871465296</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>85.0899742930591</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1665,10 +1665,10 @@
         <v>2400</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>46.272493573264804</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>92.544987146529607</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1677,10 +1677,10 @@
         <v>2400</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.02827763496144</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2.05655526992288</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1689,10 +1689,10 @@
         <v>2400</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.5552699228791802</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>13.110539845758399</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1703,10 +1703,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0</v>
+        <v>42.5449871465296</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>85.0899742930591</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1715,10 +1715,10 @@
         <v>2500</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>46.401028277635</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>92.8020565552699</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1727,10 +1727,10 @@
         <v>2500</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2.5706940874035999</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>5.1413881748071999</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>2500</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>7.5835475578406202</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>15.1670951156812</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0</v>
+        <v>44.344473007712097</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>88.688946015424193</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>2600</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>46.658097686375299</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>93.316195372750599</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>2600</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>3.2133676092545</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>6.4267352185090001</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1789,10 +1789,10 @@
         <v>2600</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>8.6118251928020602</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>17.223650385604099</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -1803,10 +1803,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0</v>
+        <v>44.344473007712097</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>88.688946015424193</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>2700</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>46.786632390745503</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>93.573264781491005</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>2700</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3.2133676092545</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>6.4267352185090001</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1839,10 +1839,10 @@
         <v>2700</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>9.2544987146529607</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>18.5089974293059</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0</v>
+        <v>44.344473007712097</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>88.688946015424193</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1865,10 +1865,10 @@
         <v>2800</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>46.786632390745503</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>93.573264781491005</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1877,10 +1877,10 @@
         <v>2800</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>3.8560411311054001</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>7.7120822622108003</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>2800</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>22.622107969151699</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>45.244215938303299</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -1903,10 +1903,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0</v>
+        <v>44.7300771208226</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>89.460154241645199</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>2900</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>47.043701799485902</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>94.087403598971704</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1927,10 +1927,10 @@
         <v>2900</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>4.24164524421594</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>8.48329048843188</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>2900</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>24.0359897172237</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>48.0719794344473</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0</v>
+        <v>44.858611825192803</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>89.717223650385606</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1965,10 +1965,10 @@
         <v>3000</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>47.429305912596398</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>94.858611825192796</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         <v>3000</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>4.6272493573264804</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>9.2544987146529607</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1989,10 +1989,10 @@
         <v>3000</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>25.578406169665801</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>51.156812339331601</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -2003,10 +2003,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0</v>
+        <v>45.115681233933202</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>90.231362467866305</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2015,10 +2015,10 @@
         <v>3100</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>47.557840616966601</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>95.115681233933202</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2027,10 +2027,10 @@
         <v>3100</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>6.1696658097686399</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>12.339331619537299</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2039,10 +2039,10 @@
         <v>3100</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>26.221079691516699</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>52.442159383033399</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -2053,10 +2053,10 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0</v>
+        <v>45.629820051413901</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>91.259640102827802</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>3200</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>47.814910025706901</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>95.629820051413901</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2077,10 +2077,10 @@
         <v>3200</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>7.0694087403598997</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>14.138817480719799</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>3200</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>27.249357326478101</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>54.498714652956302</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0</v>
+        <v>46.015424164524397</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>92.030848329048794</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2115,10 +2115,10 @@
         <v>3300</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>48.0719794344473</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>96.1439588688946</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2127,10 +2127,10 @@
         <v>3300</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>7.8406169665809804</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>15.681233933162</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2139,10 +2139,10 @@
         <v>3300</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>27.6349614395887</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>55.2699228791774</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0</v>
+        <v>46.272493573264804</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>92.544987146529607</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>3400</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>48.200514138817503</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>96.401028277635007</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>3400</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>8.48329048843188</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>16.966580976863799</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2189,10 +2189,10 @@
         <v>3400</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>27.6349614395887</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>55.2699228791774</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0</v>
+        <v>46.401028277635</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>92.8020565552699</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2215,10 +2215,10 @@
         <v>3500</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>48.329048843187699</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>96.658097686375299</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2227,10 +2227,10 @@
         <v>3500</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>9.3830334190231408</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>18.766066838046299</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>3500</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>33.4190231362468</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>66.8380462724936</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -2253,10 +2253,10 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0</v>
+        <v>46.401028277635</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>92.8020565552699</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>3600</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>48.329048843187699</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>96.658097686375299</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2277,10 +2277,10 @@
         <v>3600</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>14.395886889460201</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>28.791773778920302</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>3600</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>35.0899742930591</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>70.1799485861183</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -2303,10 +2303,10 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0</v>
+        <v>46.529562982005103</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>93.059125964010306</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2315,10 +2315,10 @@
         <v>3700</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>48.457583547557803</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>96.915167095115706</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2327,10 +2327,10 @@
         <v>3700</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>22.750642673521899</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>45.501285347043698</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2339,10 +2339,10 @@
         <v>3700</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>35.218508997429304</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>70.437017994858607</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -2353,10 +2353,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0</v>
+        <v>46.786632390745503</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>93.573264781491005</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>3800</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>48.457583547557803</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>96.915167095115706</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>3800</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>23.9074550128535</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>47.814910025706901</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2389,10 +2389,10 @@
         <v>3800</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>35.604113110539899</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>71.208226221079698</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -2403,10 +2403,10 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0</v>
+        <v>46.658097686375299</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>93.316195372750599</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>3900</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>48.457583547557803</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>96.915167095115706</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2427,10 +2427,10 @@
         <v>3900</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>25.578406169665801</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>51.156812339331601</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2439,10 +2439,10 @@
         <v>3900</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>35.989717223650402</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>71.979434447300804</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -2453,10 +2453,10 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0</v>
+        <v>46.915167095115699</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>93.830334190231397</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2465,10 +2465,10 @@
         <v>4000</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>48.586118251927999</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>97.172236503855999</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2477,10 +2477,10 @@
         <v>4000</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>25.8354755784062</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>51.670951156812301</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2489,10 +2489,10 @@
         <v>4000</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>36.118251928020598</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>72.236503856041097</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0</v>
+        <v>46.786632390745503</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>93.573264781491005</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2515,10 +2515,10 @@
         <v>4100</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>48.586118251927999</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>97.172236503855999</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>4100</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>27.120822622108001</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>54.241645244215903</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>4100</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>36.503856041131101</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>73.007712082262202</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0</v>
+        <v>47.172236503855999</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>94.344473007712097</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2565,10 +2565,10 @@
         <v>4200</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>48.586118251927999</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>97.172236503855999</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>4200</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>27.377892030848301</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>54.755784061696701</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2589,10 +2589,10 @@
         <v>4200</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>36.889460154241704</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>73.778920308483293</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -2603,49 +2603,49 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>3.3419023136246802</v>
+        <v>47.557840616966601</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>95.115681233933202</v>
       </c>
       <c r="C44">
-        <v>6.6838046272493603</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>4300</v>
       </c>
       <c r="E44">
-        <v>3.2133676092545</v>
+        <v>48.586118251927999</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>97.172236503855999</v>
       </c>
       <c r="G44">
-        <v>6.4267352185090001</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>4300</v>
       </c>
       <c r="I44">
-        <v>6.1696658097686399</v>
+        <v>27.506426735218501</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>55.012853470437001</v>
       </c>
       <c r="K44">
-        <v>12.339331619537299</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>4300</v>
       </c>
       <c r="M44">
-        <v>3.8560411311054001</v>
+        <v>37.0179948586118</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>74.0359897172236</v>
       </c>
       <c r="O44">
-        <v>7.7120822622108003</v>
+        <v>0</v>
       </c>
       <c r="P44">
         <v>4300</v>
@@ -2653,49 +2653,49 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>13.6246786632391</v>
+        <v>47.429305912596398</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>94.858611825192796</v>
       </c>
       <c r="C45">
-        <v>27.249357326478101</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>4400</v>
       </c>
       <c r="E45">
-        <v>12.9820051413882</v>
+        <v>48.714652956298202</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>97.429305912596405</v>
       </c>
       <c r="G45">
-        <v>25.9640102827764</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>4400</v>
       </c>
       <c r="I45">
-        <v>14.138817480719799</v>
+        <v>27.7634961439589</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>55.5269922879177</v>
       </c>
       <c r="K45">
-        <v>28.277634961439599</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>4400</v>
       </c>
       <c r="M45">
-        <v>13.6246786632391</v>
+        <v>37.660668380462702</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>75.321336760925504</v>
       </c>
       <c r="O45">
-        <v>27.249357326478101</v>
+        <v>0</v>
       </c>
       <c r="P45">
         <v>4400</v>
@@ -2703,49 +2703,49 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>17.866323907455001</v>
+        <v>50.642673521850902</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>95.115681233933202</v>
       </c>
       <c r="C46">
-        <v>35.732647814910003</v>
+        <v>6.1696658097686399</v>
       </c>
       <c r="D46">
         <v>4500</v>
       </c>
       <c r="E46">
-        <v>17.866323907455001</v>
+        <v>51.542416452442197</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>97.686375321336797</v>
       </c>
       <c r="G46">
-        <v>35.732647814910003</v>
+        <v>5.3984575835475601</v>
       </c>
       <c r="H46">
         <v>4500</v>
       </c>
       <c r="I46">
-        <v>16.7095115681234</v>
+        <v>37.789203084832899</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>56.041131105398499</v>
       </c>
       <c r="K46">
-        <v>33.4190231362468</v>
+        <v>19.537275064267401</v>
       </c>
       <c r="L46">
         <v>4500</v>
       </c>
       <c r="M46">
-        <v>16.7095115681234</v>
+        <v>43.958868894601501</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>75.835475578406204</v>
       </c>
       <c r="O46">
-        <v>33.4190231362468</v>
+        <v>12.0822622107969</v>
       </c>
       <c r="P46">
         <v>4500</v>
@@ -2753,49 +2753,49 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>18.3804627249357</v>
+        <v>59.897172236503899</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>95.115681233933202</v>
       </c>
       <c r="C47">
-        <v>36.7609254498715</v>
+        <v>24.678663239074599</v>
       </c>
       <c r="D47">
         <v>4600</v>
       </c>
       <c r="E47">
-        <v>18.3804627249357</v>
+        <v>60.668380462724897</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>97.686375321336797</v>
       </c>
       <c r="G47">
-        <v>36.7609254498715</v>
+        <v>23.650385604113101</v>
       </c>
       <c r="H47">
         <v>4600</v>
       </c>
       <c r="I47">
-        <v>18.3804627249357</v>
+        <v>47.943444730077097</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>67.352185089974299</v>
       </c>
       <c r="K47">
-        <v>36.7609254498715</v>
+        <v>28.534704370179998</v>
       </c>
       <c r="L47">
         <v>4600</v>
       </c>
       <c r="M47">
-        <v>18.3804627249357</v>
+        <v>52.570694087403602</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>76.606683804627295</v>
       </c>
       <c r="O47">
-        <v>36.7609254498715</v>
+        <v>28.534704370179998</v>
       </c>
       <c r="P47">
         <v>4600</v>
@@ -2803,49 +2803,49 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>19.280205655526998</v>
+        <v>64.267352185090004</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>95.372750642673495</v>
       </c>
       <c r="C48">
-        <v>38.560411311053997</v>
+        <v>33.1619537275064</v>
       </c>
       <c r="D48">
         <v>4700</v>
       </c>
       <c r="E48">
-        <v>19.280205655526998</v>
+        <v>65.424164524421599</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>97.686375321336797</v>
       </c>
       <c r="G48">
-        <v>38.560411311053997</v>
+        <v>33.1619537275064</v>
       </c>
       <c r="H48">
         <v>4700</v>
       </c>
       <c r="I48">
-        <v>18.3804627249357</v>
+        <v>51.670951156812301</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>70.1799485861183</v>
       </c>
       <c r="K48">
-        <v>36.7609254498715</v>
+        <v>33.1619537275064</v>
       </c>
       <c r="L48">
         <v>4700</v>
       </c>
       <c r="M48">
-        <v>18.3804627249357</v>
+        <v>55.655526992287903</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>78.406169665809799</v>
       </c>
       <c r="O48">
-        <v>36.7609254498715</v>
+        <v>32.904884318766101</v>
       </c>
       <c r="P48">
         <v>4700</v>
@@ -2853,49 +2853,49 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>19.794344473007701</v>
+        <v>65.038560411311096</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>95.115681233933202</v>
       </c>
       <c r="C49">
-        <v>39.588688946015402</v>
+        <v>34.961439588688997</v>
       </c>
       <c r="D49">
         <v>4800</v>
       </c>
       <c r="E49">
-        <v>20.0514138817481</v>
+        <v>66.3239074550129</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>97.686375321336797</v>
       </c>
       <c r="G49">
-        <v>40.102827763496101</v>
+        <v>34.961439588688997</v>
       </c>
       <c r="H49">
         <v>4800</v>
       </c>
       <c r="I49">
-        <v>19.280205655526998</v>
+        <v>52.699228791773798</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>70.437017994858607</v>
       </c>
       <c r="K49">
-        <v>38.560411311053997</v>
+        <v>34.961439588688997</v>
       </c>
       <c r="L49">
         <v>4800</v>
       </c>
       <c r="M49">
-        <v>19.280205655526998</v>
+        <v>56.812339331619498</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>78.663239074550106</v>
       </c>
       <c r="O49">
-        <v>38.560411311053997</v>
+        <v>34.961439588688997</v>
       </c>
       <c r="P49">
         <v>4800</v>
@@ -2903,49 +2903,49 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>20.0514138817481</v>
+        <v>65.809768637532102</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>94.858611825192796</v>
       </c>
       <c r="C50">
-        <v>40.102827763496101</v>
+        <v>36.7609254498715</v>
       </c>
       <c r="D50">
         <v>4900</v>
       </c>
       <c r="E50">
-        <v>20.0514138817481</v>
+        <v>67.223650385604103</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>97.686375321336797</v>
       </c>
       <c r="G50">
-        <v>40.102827763496101</v>
+        <v>36.7609254498715</v>
       </c>
       <c r="H50">
         <v>4900</v>
       </c>
       <c r="I50">
-        <v>19.280205655526998</v>
+        <v>53.213367609254497</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>71.465295629820105</v>
       </c>
       <c r="K50">
-        <v>38.560411311053997</v>
+        <v>34.961439588688997</v>
       </c>
       <c r="L50">
         <v>4900</v>
       </c>
       <c r="M50">
-        <v>19.794344473007701</v>
+        <v>58.097686375321302</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>80.205655526992302</v>
       </c>
       <c r="O50">
-        <v>39.588688946015402</v>
+        <v>35.989717223650402</v>
       </c>
       <c r="P50">
         <v>4900</v>
@@ -2953,49 +2953,49 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>20.0514138817481</v>
+        <v>67.095115681233906</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>95.115681233933202</v>
       </c>
       <c r="C51">
-        <v>40.102827763496101</v>
+        <v>39.074550128534703</v>
       </c>
       <c r="D51">
         <v>5000</v>
       </c>
       <c r="E51">
-        <v>20.0514138817481</v>
+        <v>68.380462724935697</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>97.686375321336797</v>
       </c>
       <c r="G51">
-        <v>40.102827763496101</v>
+        <v>39.074550128534703</v>
       </c>
       <c r="H51">
         <v>5000</v>
       </c>
       <c r="I51">
-        <v>20.0514138817481</v>
+        <v>54.498714652956302</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>72.236503856041097</v>
       </c>
       <c r="K51">
-        <v>40.102827763496101</v>
+        <v>36.7609254498715</v>
       </c>
       <c r="L51">
         <v>5000</v>
       </c>
       <c r="M51">
-        <v>20.0514138817481</v>
+        <v>59.3830334190231</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>82.005141388174806</v>
       </c>
       <c r="O51">
-        <v>40.102827763496101</v>
+        <v>36.7609254498715</v>
       </c>
       <c r="P51">
         <v>5000</v>
@@ -3003,49 +3003,49 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>20.0514138817481</v>
+        <v>67.223650385604103</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>94.858611825192796</v>
       </c>
       <c r="C52">
-        <v>40.102827763496101</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="D52">
         <v>5100</v>
       </c>
       <c r="E52">
-        <v>20.0514138817481</v>
+        <v>68.637532133676103</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>97.686375321336797</v>
       </c>
       <c r="G52">
-        <v>40.102827763496101</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="H52">
         <v>5100</v>
       </c>
       <c r="I52">
-        <v>20.0514138817481</v>
+        <v>54.627249357326498</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>72.493573264781503</v>
       </c>
       <c r="K52">
-        <v>40.102827763496101</v>
+        <v>36.7609254498715</v>
       </c>
       <c r="L52">
         <v>5100</v>
       </c>
       <c r="M52">
-        <v>20.0514138817481</v>
+        <v>61.696658097686402</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>84.318766066838094</v>
       </c>
       <c r="O52">
-        <v>40.102827763496101</v>
+        <v>39.074550128534703</v>
       </c>
       <c r="P52">
         <v>5100</v>
@@ -3053,49 +3053,49 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>20.0514138817481</v>
+        <v>67.095115681233906</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>94.601542416452503</v>
       </c>
       <c r="C53">
-        <v>40.102827763496101</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="D53">
         <v>5200</v>
       </c>
       <c r="E53">
-        <v>20.0514138817481</v>
+        <v>68.637532133676103</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>97.686375321336797</v>
       </c>
       <c r="G53">
-        <v>40.102827763496101</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="H53">
         <v>5200</v>
       </c>
       <c r="I53">
-        <v>20.0514138817481</v>
+        <v>56.298200514138799</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>73.007712082262202</v>
       </c>
       <c r="K53">
-        <v>40.102827763496101</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="L53">
         <v>5200</v>
       </c>
       <c r="M53">
-        <v>20.0514138817481</v>
+        <v>62.724935732647801</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>85.861182519280206</v>
       </c>
       <c r="O53">
-        <v>40.102827763496101</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="P53">
         <v>5200</v>
@@ -3103,49 +3103,49 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>20.0514138817481</v>
+        <v>67.480719794344495</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>95.372750642673495</v>
       </c>
       <c r="C54">
-        <v>40.102827763496101</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="D54">
         <v>5300</v>
       </c>
       <c r="E54">
-        <v>20.0514138817481</v>
+        <v>68.637532133676103</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>97.686375321336797</v>
       </c>
       <c r="G54">
-        <v>40.102827763496101</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="H54">
         <v>5300</v>
       </c>
       <c r="I54">
-        <v>20.3084832904884</v>
+        <v>56.426735218509002</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>73.264781491002594</v>
       </c>
       <c r="K54">
-        <v>40.6169665809769</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="L54">
         <v>5300</v>
       </c>
       <c r="M54">
-        <v>20.0514138817481</v>
+        <v>62.9820051413882</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>86.375321336760905</v>
       </c>
       <c r="O54">
-        <v>40.102827763496101</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="P54">
         <v>5300</v>
@@ -3153,49 +3153,49 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>21.465295629820101</v>
+        <v>67.609254498714705</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>95.629820051413901</v>
       </c>
       <c r="C55">
-        <v>42.930591259640103</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="D55">
         <v>5400</v>
       </c>
       <c r="E55">
-        <v>21.336760925449902</v>
+        <v>68.894601542416495</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>98.200514138817496</v>
       </c>
       <c r="G55">
-        <v>42.673521850899697</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="H55">
         <v>5400</v>
       </c>
       <c r="I55">
-        <v>21.465295629820101</v>
+        <v>56.683804627249401</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>73.778920308483293</v>
       </c>
       <c r="K55">
-        <v>42.930591259640103</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="L55">
         <v>5400</v>
       </c>
       <c r="M55">
-        <v>21.208226221079698</v>
+        <v>63.110539845758403</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>86.632390745501297</v>
       </c>
       <c r="O55">
-        <v>42.416452442159397</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="P55">
         <v>5400</v>
@@ -3203,49 +3203,49 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>21.9794344473008</v>
+        <v>67.609254498714705</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>95.629820051413901</v>
       </c>
       <c r="C56">
-        <v>43.958868894601501</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="D56">
         <v>5500</v>
       </c>
       <c r="E56">
-        <v>21.9794344473008</v>
+        <v>69.023136246786606</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="G56">
-        <v>43.958868894601501</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="H56">
         <v>5500</v>
       </c>
       <c r="I56">
-        <v>21.850899742930601</v>
+        <v>56.812339331619498</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>74.0359897172236</v>
       </c>
       <c r="K56">
-        <v>43.701799485861201</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="L56">
         <v>5500</v>
       </c>
       <c r="M56">
-        <v>21.850899742930601</v>
+        <v>63.2390745501285</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>86.889460154241704</v>
       </c>
       <c r="O56">
-        <v>43.701799485861201</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="P56">
         <v>5500</v>
@@ -3253,49 +3253,49 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>22.622107969151699</v>
+        <v>67.737789203084802</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>95.886889460154293</v>
       </c>
       <c r="C57">
-        <v>45.244215938303299</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="D57">
         <v>5600</v>
       </c>
       <c r="E57">
-        <v>22.750642673521899</v>
+        <v>69.023136246786606</v>
       </c>
       <c r="F57">
-        <v>0.25706940874035999</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="G57">
-        <v>45.244215938303299</v>
+        <v>39.588688946015402</v>
       </c>
       <c r="H57">
         <v>5600</v>
       </c>
       <c r="I57">
-        <v>22.493573264781499</v>
+        <v>57.969151670951199</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>75.578406169665797</v>
       </c>
       <c r="K57">
-        <v>44.987146529562999</v>
+        <v>40.359897172236501</v>
       </c>
       <c r="L57">
         <v>5600</v>
       </c>
       <c r="M57">
-        <v>22.493573264781499</v>
+        <v>64.138817480719794</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>87.917737789203102</v>
       </c>
       <c r="O57">
-        <v>44.987146529562999</v>
+        <v>40.359897172236501</v>
       </c>
       <c r="P57">
         <v>5600</v>
@@ -3303,49 +3303,49 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>24.293059125964</v>
+        <v>68.766066838046299</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>96.1439588688946</v>
       </c>
       <c r="C58">
-        <v>48.586118251927999</v>
+        <v>41.388174807197899</v>
       </c>
       <c r="D58">
         <v>5700</v>
       </c>
       <c r="E58">
-        <v>24.678663239074599</v>
+        <v>69.922879177377894</v>
       </c>
       <c r="F58">
-        <v>1.02827763496144</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="G58">
-        <v>48.329048843187699</v>
+        <v>41.388174807197899</v>
       </c>
       <c r="H58">
         <v>5700</v>
       </c>
       <c r="I58">
-        <v>25.449871465295601</v>
+        <v>58.740359897172198</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>76.863753213367602</v>
       </c>
       <c r="K58">
-        <v>50.899742930591302</v>
+        <v>40.6169665809769</v>
       </c>
       <c r="L58">
         <v>5700</v>
       </c>
       <c r="M58">
-        <v>24.807197943444699</v>
+        <v>64.9100257069409</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>88.688946015424193</v>
       </c>
       <c r="O58">
-        <v>49.614395886889497</v>
+        <v>41.131105398457599</v>
       </c>
       <c r="P58">
         <v>5700</v>
@@ -3353,49 +3353,49 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>28.0205655526992</v>
+        <v>69.151670951156802</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>96.658097686375299</v>
       </c>
       <c r="C59">
-        <v>56.041131105398499</v>
+        <v>41.645244215938298</v>
       </c>
       <c r="D59">
         <v>5800</v>
       </c>
       <c r="E59">
-        <v>28.663239074550098</v>
+        <v>70.051413881748104</v>
       </c>
       <c r="F59">
-        <v>1.79948586118252</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="G59">
-        <v>55.5269922879177</v>
+        <v>41.645244215938298</v>
       </c>
       <c r="H59">
         <v>5800</v>
       </c>
       <c r="I59">
-        <v>28.0205655526992</v>
+        <v>60.025706940874002</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>78.406169665809799</v>
       </c>
       <c r="K59">
-        <v>56.041131105398499</v>
+        <v>41.645244215938298</v>
       </c>
       <c r="L59">
         <v>5800</v>
       </c>
       <c r="M59">
-        <v>28.0205655526992</v>
+        <v>65.424164524421599</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>89.203084832904906</v>
       </c>
       <c r="O59">
-        <v>56.041131105398499</v>
+        <v>41.645244215938298</v>
       </c>
       <c r="P59">
         <v>5800</v>
@@ -3403,49 +3403,49 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>28.534704370179998</v>
+        <v>69.151670951156802</v>
       </c>
       <c r="B60">
-        <v>0.25706940874035999</v>
+        <v>96.658097686375299</v>
       </c>
       <c r="C60">
-        <v>56.812339331619498</v>
+        <v>41.645244215938298</v>
       </c>
       <c r="D60">
         <v>5900</v>
       </c>
       <c r="E60">
-        <v>29.9485861182519</v>
+        <v>70.051413881748104</v>
       </c>
       <c r="F60">
-        <v>3.0848329048843199</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="G60">
-        <v>56.812339331619498</v>
+        <v>41.645244215938298</v>
       </c>
       <c r="H60">
         <v>5900</v>
       </c>
       <c r="I60">
-        <v>28.277634961439599</v>
+        <v>61.696658097686402</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>78.663239074550106</v>
       </c>
       <c r="K60">
-        <v>56.555269922879198</v>
+        <v>44.7300771208226</v>
       </c>
       <c r="L60">
         <v>5900</v>
       </c>
       <c r="M60">
-        <v>28.277634961439599</v>
+        <v>66.966580976863796</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>89.717223650385606</v>
       </c>
       <c r="O60">
-        <v>56.555269922879198</v>
+        <v>44.2159383033419</v>
       </c>
       <c r="P60">
         <v>5900</v>
@@ -3453,49 +3453,49 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>29.177377892030801</v>
+        <v>72.236503856041097</v>
       </c>
       <c r="B61">
-        <v>1.2853470437018</v>
+        <v>97.172236503855999</v>
       </c>
       <c r="C61">
-        <v>57.069408740359897</v>
+        <v>47.300771208226202</v>
       </c>
       <c r="D61">
         <v>6000</v>
       </c>
       <c r="E61">
-        <v>30.205655526992299</v>
+        <v>72.365038560411307</v>
       </c>
       <c r="F61">
-        <v>3.0848329048843199</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="G61">
-        <v>57.326478149100303</v>
+        <v>46.272493573264804</v>
       </c>
       <c r="H61">
         <v>6000</v>
       </c>
       <c r="I61">
-        <v>28.406169665809799</v>
+        <v>66.195372750642704</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>80.462724935732595</v>
       </c>
       <c r="K61">
-        <v>56.812339331619498</v>
+        <v>51.9280205655527</v>
       </c>
       <c r="L61">
         <v>6000</v>
       </c>
       <c r="M61">
-        <v>28.534704370179998</v>
+        <v>70.822622107969195</v>
       </c>
       <c r="N61">
-        <v>0.25706940874035999</v>
+        <v>89.974293059125998</v>
       </c>
       <c r="O61">
-        <v>56.812339331619498</v>
+        <v>51.670951156812301</v>
       </c>
       <c r="P61">
         <v>6000</v>
@@ -3503,49 +3503,49 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>29.5629820051414</v>
+        <v>74.935732647814902</v>
       </c>
       <c r="B62">
-        <v>1.79948586118252</v>
+        <v>97.429305912596405</v>
       </c>
       <c r="C62">
-        <v>57.326478149100303</v>
+        <v>52.442159383033399</v>
       </c>
       <c r="D62">
         <v>6100</v>
       </c>
       <c r="E62">
-        <v>30.334190231362498</v>
+        <v>75.449871465295601</v>
       </c>
       <c r="F62">
-        <v>3.3419023136246802</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="G62">
-        <v>57.326478149100303</v>
+        <v>52.442159383033399</v>
       </c>
       <c r="H62">
         <v>6100</v>
       </c>
       <c r="I62">
-        <v>28.406169665809799</v>
+        <v>67.480719794344495</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>82.005141388174806</v>
       </c>
       <c r="K62">
-        <v>56.812339331619498</v>
+        <v>52.956298200514098</v>
       </c>
       <c r="L62">
         <v>6100</v>
       </c>
       <c r="M62">
-        <v>29.305912596401001</v>
+        <v>71.336760925449894</v>
       </c>
       <c r="N62">
-        <v>1.79948586118252</v>
+        <v>90.231362467866305</v>
       </c>
       <c r="O62">
-        <v>56.812339331619498</v>
+        <v>52.442159383033399</v>
       </c>
       <c r="P62">
         <v>6100</v>
@@ -3553,49 +3553,49 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>30.205655526992299</v>
+        <v>75.192802056555294</v>
       </c>
       <c r="B63">
-        <v>3.0848329048843199</v>
+        <v>97.429305912596405</v>
       </c>
       <c r="C63">
-        <v>57.326478149100303</v>
+        <v>52.956298200514098</v>
       </c>
       <c r="D63">
         <v>6200</v>
       </c>
       <c r="E63">
-        <v>30.591259640102798</v>
+        <v>75.706940874035993</v>
       </c>
       <c r="F63">
-        <v>3.3419023136246802</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="G63">
-        <v>57.840616966581003</v>
+        <v>52.956298200514098</v>
       </c>
       <c r="H63">
         <v>6200</v>
       </c>
       <c r="I63">
-        <v>28.534704370179998</v>
+        <v>67.866323907454998</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>82.776349614395897</v>
       </c>
       <c r="K63">
-        <v>57.069408740359897</v>
+        <v>52.956298200514098</v>
       </c>
       <c r="L63">
         <v>6200</v>
       </c>
       <c r="M63">
-        <v>29.4344473007712</v>
+        <v>71.850899742930594</v>
       </c>
       <c r="N63">
-        <v>1.79948586118252</v>
+        <v>90.745501285347103</v>
       </c>
       <c r="O63">
-        <v>57.069408740359897</v>
+        <v>52.956298200514098</v>
       </c>
       <c r="P63">
         <v>6200</v>
@@ -3603,49 +3603,49 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>30.462724935732702</v>
+        <v>75.064267352185098</v>
       </c>
       <c r="B64">
-        <v>3.0848329048843199</v>
+        <v>97.172236503855999</v>
       </c>
       <c r="C64">
-        <v>57.840616966581003</v>
+        <v>52.956298200514098</v>
       </c>
       <c r="D64">
         <v>6300</v>
       </c>
       <c r="E64">
-        <v>30.976863753213401</v>
+        <v>75.706940874035993</v>
       </c>
       <c r="F64">
-        <v>4.1131105398457599</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="G64">
-        <v>57.840616966581003</v>
+        <v>52.956298200514098</v>
       </c>
       <c r="H64">
         <v>6300</v>
       </c>
       <c r="I64">
-        <v>28.534704370179998</v>
+        <v>68.380462724935697</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>83.804627249357296</v>
       </c>
       <c r="K64">
-        <v>57.069408740359897</v>
+        <v>52.956298200514098</v>
       </c>
       <c r="L64">
         <v>6300</v>
       </c>
       <c r="M64">
-        <v>29.9485861182519</v>
+        <v>71.850899742930594</v>
       </c>
       <c r="N64">
-        <v>2.5706940874035999</v>
+        <v>90.745501285347103</v>
       </c>
       <c r="O64">
-        <v>57.326478149100303</v>
+        <v>52.956298200514098</v>
       </c>
       <c r="P64">
         <v>6300</v>
@@ -3653,49 +3653,49 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>30.591259640102798</v>
+        <v>75.064267352185098</v>
       </c>
       <c r="B65">
-        <v>3.3419023136246802</v>
+        <v>97.172236503855999</v>
       </c>
       <c r="C65">
-        <v>57.840616966581003</v>
+        <v>52.956298200514098</v>
       </c>
       <c r="D65">
         <v>6400</v>
       </c>
       <c r="E65">
-        <v>31.105398457583501</v>
+        <v>75.9640102827763</v>
       </c>
       <c r="F65">
-        <v>4.3701799485861201</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="G65">
-        <v>57.840616966581003</v>
+        <v>53.470437017994897</v>
       </c>
       <c r="H65">
         <v>6400</v>
       </c>
       <c r="I65">
-        <v>28.791773778920302</v>
+        <v>69.151670951156802</v>
       </c>
       <c r="J65">
-        <v>0.25706940874035999</v>
+        <v>85.347043701799507</v>
       </c>
       <c r="K65">
-        <v>57.326478149100303</v>
+        <v>52.956298200514098</v>
       </c>
       <c r="L65">
         <v>6400</v>
       </c>
       <c r="M65">
-        <v>30.205655526992299</v>
+        <v>71.850899742930594</v>
       </c>
       <c r="N65">
-        <v>3.0848329048843199</v>
+        <v>90.745501285347103</v>
       </c>
       <c r="O65">
-        <v>57.326478149100303</v>
+        <v>52.956298200514098</v>
       </c>
       <c r="P65">
         <v>6400</v>
@@ -3703,49 +3703,49 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>30.591259640102798</v>
+        <v>75.321336760925504</v>
       </c>
       <c r="B66">
-        <v>3.3419023136246802</v>
+        <v>97.172236503855999</v>
       </c>
       <c r="C66">
-        <v>57.840616966581003</v>
+        <v>53.470437017994897</v>
       </c>
       <c r="D66">
         <v>6500</v>
       </c>
       <c r="E66">
-        <v>31.3624678663239</v>
+        <v>75.9640102827763</v>
       </c>
       <c r="F66">
-        <v>4.8843187660668397</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="G66">
-        <v>57.840616966581003</v>
+        <v>53.470437017994897</v>
       </c>
       <c r="H66">
         <v>6500</v>
       </c>
       <c r="I66">
-        <v>28.920308483290501</v>
+        <v>69.408740359897195</v>
       </c>
       <c r="J66">
-        <v>0.51413881748071999</v>
+        <v>85.861182519280206</v>
       </c>
       <c r="K66">
-        <v>57.326478149100303</v>
+        <v>52.956298200514098</v>
       </c>
       <c r="L66">
         <v>6500</v>
       </c>
       <c r="M66">
-        <v>30.591259640102798</v>
+        <v>71.850899742930594</v>
       </c>
       <c r="N66">
-        <v>3.3419023136246802</v>
+        <v>90.745501285347103</v>
       </c>
       <c r="O66">
-        <v>57.840616966581003</v>
+        <v>52.956298200514098</v>
       </c>
       <c r="P66">
         <v>6500</v>
@@ -3753,49 +3753,49 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>30.976863753213401</v>
+        <v>75.321336760925504</v>
       </c>
       <c r="B67">
-        <v>4.1131105398457599</v>
+        <v>97.172236503855999</v>
       </c>
       <c r="C67">
-        <v>57.840616966581003</v>
+        <v>53.470437017994897</v>
       </c>
       <c r="D67">
         <v>6600</v>
       </c>
       <c r="E67">
-        <v>31.7480719794344</v>
+        <v>75.9640102827763</v>
       </c>
       <c r="F67">
-        <v>5.3984575835475601</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="G67">
-        <v>58.097686375321302</v>
+        <v>53.470437017994897</v>
       </c>
       <c r="H67">
         <v>6600</v>
       </c>
       <c r="I67">
-        <v>29.6915167095116</v>
+        <v>69.665809768637502</v>
       </c>
       <c r="J67">
-        <v>1.79948586118252</v>
+        <v>86.375321336760905</v>
       </c>
       <c r="K67">
-        <v>57.583547557840603</v>
+        <v>52.956298200514098</v>
       </c>
       <c r="L67">
         <v>6600</v>
       </c>
       <c r="M67">
-        <v>30.591259640102798</v>
+        <v>71.979434447300804</v>
       </c>
       <c r="N67">
-        <v>3.3419023136246802</v>
+        <v>91.002570694087396</v>
       </c>
       <c r="O67">
-        <v>57.840616966581003</v>
+        <v>52.956298200514098</v>
       </c>
       <c r="P67">
         <v>6600</v>
@@ -3803,49 +3803,49 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>31.233933161953701</v>
+        <v>75.449871465295601</v>
       </c>
       <c r="B68">
-        <v>4.3701799485861201</v>
+        <v>97.429305912596405</v>
       </c>
       <c r="C68">
-        <v>58.097686375321302</v>
+        <v>53.470437017994897</v>
       </c>
       <c r="D68">
         <v>6700</v>
       </c>
       <c r="E68">
-        <v>31.7480719794344</v>
+        <v>75.9640102827763</v>
       </c>
       <c r="F68">
-        <v>5.3984575835475601</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="G68">
-        <v>58.097686375321302</v>
+        <v>53.470437017994897</v>
       </c>
       <c r="H68">
         <v>6700</v>
       </c>
       <c r="I68">
-        <v>29.820051413881799</v>
+        <v>69.922879177377894</v>
       </c>
       <c r="J68">
-        <v>1.79948586118252</v>
+        <v>86.889460154241704</v>
       </c>
       <c r="K68">
-        <v>57.840616966581003</v>
+        <v>52.956298200514098</v>
       </c>
       <c r="L68">
         <v>6700</v>
       </c>
       <c r="M68">
-        <v>30.976863753213401</v>
+        <v>72.236503856041097</v>
       </c>
       <c r="N68">
-        <v>4.1131105398457599</v>
+        <v>91.002570694087396</v>
       </c>
       <c r="O68">
-        <v>57.840616966581003</v>
+        <v>53.470437017994897</v>
       </c>
       <c r="P68">
         <v>6700</v>
@@ -3853,49 +3853,49 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>31.4910025706941</v>
+        <v>75.578406169665797</v>
       </c>
       <c r="B69">
-        <v>4.8843187660668397</v>
+        <v>97.686375321336797</v>
       </c>
       <c r="C69">
-        <v>58.097686375321302</v>
+        <v>53.470437017994897</v>
       </c>
       <c r="D69">
         <v>6800</v>
       </c>
       <c r="E69">
-        <v>32.519280205655498</v>
+        <v>75.9640102827763</v>
       </c>
       <c r="F69">
-        <v>5.9125964010282797</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="G69">
-        <v>59.1259640102828</v>
+        <v>53.470437017994897</v>
       </c>
       <c r="H69">
         <v>6800</v>
       </c>
       <c r="I69">
-        <v>30.205655526992299</v>
+        <v>70.1799485861183</v>
       </c>
       <c r="J69">
-        <v>2.5706940874035999</v>
+        <v>86.889460154241704</v>
       </c>
       <c r="K69">
-        <v>57.840616966581003</v>
+        <v>53.470437017994897</v>
       </c>
       <c r="L69">
         <v>6800</v>
       </c>
       <c r="M69">
-        <v>31.105398457583501</v>
+        <v>72.365038560411307</v>
       </c>
       <c r="N69">
-        <v>4.3701799485861201</v>
+        <v>91.259640102827802</v>
       </c>
       <c r="O69">
-        <v>57.840616966581003</v>
+        <v>53.470437017994897</v>
       </c>
       <c r="P69">
         <v>6800</v>
@@ -3903,49 +3903,49 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>31.7480719794344</v>
+        <v>75.706940874035993</v>
       </c>
       <c r="B70">
-        <v>5.3984575835475601</v>
+        <v>97.686375321336797</v>
       </c>
       <c r="C70">
-        <v>58.097686375321302</v>
+        <v>53.727506426735196</v>
       </c>
       <c r="D70">
         <v>6900</v>
       </c>
       <c r="E70">
-        <v>32.519280205655498</v>
+        <v>76.478149100257099</v>
       </c>
       <c r="F70">
-        <v>5.9125964010282797</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="G70">
-        <v>59.1259640102828</v>
+        <v>54.498714652956302</v>
       </c>
       <c r="H70">
         <v>6900</v>
       </c>
       <c r="I70">
-        <v>30.462724935732702</v>
+        <v>70.822622107969195</v>
       </c>
       <c r="J70">
-        <v>3.0848329048843199</v>
+        <v>88.174807197943494</v>
       </c>
       <c r="K70">
-        <v>57.840616966581003</v>
+        <v>53.470437017994897</v>
       </c>
       <c r="L70">
         <v>6900</v>
       </c>
       <c r="M70">
-        <v>31.233933161953701</v>
+        <v>72.622107969151699</v>
       </c>
       <c r="N70">
-        <v>4.6272493573264804</v>
+        <v>91.773778920308501</v>
       </c>
       <c r="O70">
-        <v>57.840616966581003</v>
+        <v>53.470437017994897</v>
       </c>
       <c r="P70">
         <v>6900</v>
@@ -3953,49 +3953,49 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>32.262210796915198</v>
+        <v>75.706940874035993</v>
       </c>
       <c r="B71">
-        <v>5.3984575835475601</v>
+        <v>97.686375321336797</v>
       </c>
       <c r="C71">
-        <v>59.1259640102828</v>
+        <v>53.727506426735196</v>
       </c>
       <c r="D71">
         <v>7000</v>
       </c>
       <c r="E71">
-        <v>33.290488431876597</v>
+        <v>77.249357326478204</v>
       </c>
       <c r="F71">
-        <v>7.4550128534704401</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="G71">
-        <v>59.1259640102828</v>
+        <v>56.041131105398499</v>
       </c>
       <c r="H71">
         <v>7000</v>
       </c>
       <c r="I71">
-        <v>30.591259640102798</v>
+        <v>71.336760925449894</v>
       </c>
       <c r="J71">
-        <v>3.3419023136246802</v>
+        <v>89.203084832904906</v>
       </c>
       <c r="K71">
-        <v>57.840616966581003</v>
+        <v>53.470437017994897</v>
       </c>
       <c r="L71">
         <v>7000</v>
       </c>
       <c r="M71">
-        <v>31.6195372750643</v>
+        <v>72.622107969151699</v>
       </c>
       <c r="N71">
-        <v>5.3984575835475601</v>
+        <v>91.773778920308501</v>
       </c>
       <c r="O71">
-        <v>57.840616966581003</v>
+        <v>53.470437017994897</v>
       </c>
       <c r="P71">
         <v>7000</v>
@@ -4003,49 +4003,49 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>32.262210796915198</v>
+        <v>76.863753213367602</v>
       </c>
       <c r="B72">
-        <v>5.3984575835475601</v>
+        <v>97.686375321336797</v>
       </c>
       <c r="C72">
-        <v>59.1259640102828</v>
+        <v>56.041131105398499</v>
       </c>
       <c r="D72">
         <v>7100</v>
       </c>
       <c r="E72">
-        <v>34.704370179948597</v>
+        <v>77.249357326478204</v>
       </c>
       <c r="F72">
-        <v>8.48329048843188</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="G72">
-        <v>60.925449871465297</v>
+        <v>56.041131105398499</v>
       </c>
       <c r="H72">
         <v>7100</v>
       </c>
       <c r="I72">
-        <v>30.591259640102798</v>
+        <v>71.336760925449894</v>
       </c>
       <c r="J72">
-        <v>3.3419023136246802</v>
+        <v>89.203084832904906</v>
       </c>
       <c r="K72">
-        <v>57.840616966581003</v>
+        <v>53.470437017994897</v>
       </c>
       <c r="L72">
         <v>7100</v>
       </c>
       <c r="M72">
-        <v>31.233933161953701</v>
+        <v>73.007712082262202</v>
       </c>
       <c r="N72">
-        <v>4.8843187660668397</v>
+        <v>92.287917737789201</v>
       </c>
       <c r="O72">
-        <v>57.583547557840603</v>
+        <v>53.727506426735196</v>
       </c>
       <c r="P72">
         <v>7100</v>
@@ -4053,49 +4053,49 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>32.519280205655498</v>
+        <v>76.992287917737798</v>
       </c>
       <c r="B73">
-        <v>5.9125964010282797</v>
+        <v>97.943444730077104</v>
       </c>
       <c r="C73">
-        <v>59.1259640102828</v>
+        <v>56.041131105398499</v>
       </c>
       <c r="D73">
         <v>7200</v>
       </c>
       <c r="E73">
-        <v>34.961439588688997</v>
+        <v>78.534704370179995</v>
       </c>
       <c r="F73">
-        <v>8.9974293059126005</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="G73">
-        <v>60.925449871465297</v>
+        <v>58.611825192802101</v>
       </c>
       <c r="H73">
         <v>7200</v>
       </c>
       <c r="I73">
-        <v>30.976863753213401</v>
+        <v>71.465295629820105</v>
       </c>
       <c r="J73">
-        <v>4.1131105398457599</v>
+        <v>89.203084832904906</v>
       </c>
       <c r="K73">
-        <v>57.840616966581003</v>
+        <v>53.727506426735196</v>
       </c>
       <c r="L73">
         <v>7200</v>
       </c>
       <c r="M73">
-        <v>30.591259640102798</v>
+        <v>73.007712082262202</v>
       </c>
       <c r="N73">
-        <v>4.3701799485861201</v>
+        <v>92.287917737789201</v>
       </c>
       <c r="O73">
-        <v>56.812339331619498</v>
+        <v>53.727506426735196</v>
       </c>
       <c r="P73">
         <v>7200</v>
@@ -4103,49 +4103,49 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>33.4190231362468</v>
+        <v>77.120822622107994</v>
       </c>
       <c r="B74">
-        <v>5.9125964010282797</v>
+        <v>98.200514138817496</v>
       </c>
       <c r="C74">
-        <v>60.925449871465297</v>
+        <v>56.041131105398499</v>
       </c>
       <c r="D74">
         <v>7300</v>
       </c>
       <c r="E74">
-        <v>35.732647814910003</v>
+        <v>78.663239074550106</v>
       </c>
       <c r="F74">
-        <v>10.539845758354801</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G74">
-        <v>60.925449871465297</v>
+        <v>58.611825192802101</v>
       </c>
       <c r="H74">
         <v>7300</v>
       </c>
       <c r="I74">
-        <v>30.976863753213401</v>
+        <v>71.722365038560397</v>
       </c>
       <c r="J74">
-        <v>4.1131105398457599</v>
+        <v>89.717223650385606</v>
       </c>
       <c r="K74">
-        <v>57.840616966581003</v>
+        <v>53.727506426735196</v>
       </c>
       <c r="L74">
         <v>7300</v>
       </c>
       <c r="M74">
-        <v>29.9485861182519</v>
+        <v>73.136246786632398</v>
       </c>
       <c r="N74">
-        <v>3.8560411311054001</v>
+        <v>92.544987146529607</v>
       </c>
       <c r="O74">
-        <v>56.041131105398499</v>
+        <v>53.727506426735196</v>
       </c>
       <c r="P74">
         <v>7300</v>
@@ -4153,49 +4153,49 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>34.061696658097702</v>
+        <v>78.406169665809799</v>
       </c>
       <c r="B75">
-        <v>7.1979434447300799</v>
+        <v>98.200514138817496</v>
       </c>
       <c r="C75">
-        <v>60.925449871465297</v>
+        <v>58.611825192802101</v>
       </c>
       <c r="D75">
         <v>7400</v>
       </c>
       <c r="E75">
-        <v>35.989717223650402</v>
+        <v>79.177377892030904</v>
       </c>
       <c r="F75">
-        <v>11.0539845758355</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G75">
-        <v>60.925449871465297</v>
+        <v>59.640102827763499</v>
       </c>
       <c r="H75">
         <v>7400</v>
       </c>
       <c r="I75">
-        <v>31.3624678663239</v>
+        <v>72.107969151671</v>
       </c>
       <c r="J75">
-        <v>4.6272493573264804</v>
+        <v>90.231362467866305</v>
       </c>
       <c r="K75">
-        <v>58.097686375321302</v>
+        <v>53.984575835475603</v>
       </c>
       <c r="L75">
         <v>7400</v>
       </c>
       <c r="M75">
-        <v>29.4344473007712</v>
+        <v>73.264781491002594</v>
       </c>
       <c r="N75">
-        <v>3.3419023136246802</v>
+        <v>92.544987146529607</v>
       </c>
       <c r="O75">
-        <v>55.5269922879177</v>
+        <v>53.984575835475603</v>
       </c>
       <c r="P75">
         <v>7400</v>
@@ -4203,49 +4203,49 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>34.447300771208198</v>
+        <v>78.406169665809799</v>
       </c>
       <c r="B76">
-        <v>7.9691516709511596</v>
+        <v>98.200514138817496</v>
       </c>
       <c r="C76">
-        <v>60.925449871465297</v>
+        <v>58.611825192802101</v>
       </c>
       <c r="D76">
         <v>7500</v>
       </c>
       <c r="E76">
-        <v>36.246786632390702</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F76">
-        <v>11.568123393316201</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G76">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H76">
         <v>7500</v>
       </c>
       <c r="I76">
-        <v>31.6195372750643</v>
+        <v>72.107969151671</v>
       </c>
       <c r="J76">
-        <v>5.1413881748071999</v>
+        <v>90.231362467866305</v>
       </c>
       <c r="K76">
-        <v>58.097686375321302</v>
+        <v>53.984575835475603</v>
       </c>
       <c r="L76">
         <v>7500</v>
       </c>
       <c r="M76">
-        <v>29.305912596401001</v>
+        <v>73.650385604113097</v>
       </c>
       <c r="N76">
-        <v>2.8277634961439602</v>
+        <v>92.544987146529607</v>
       </c>
       <c r="O76">
-        <v>55.7840616966581</v>
+        <v>54.755784061696701</v>
       </c>
       <c r="P76">
         <v>7500</v>
@@ -4253,49 +4253,49 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>34.961439588688997</v>
+        <v>78.534704370179995</v>
       </c>
       <c r="B77">
-        <v>8.9974293059126005</v>
+        <v>98.200514138817496</v>
       </c>
       <c r="C77">
-        <v>60.925449871465297</v>
+        <v>58.868894601542401</v>
       </c>
       <c r="D77">
         <v>7600</v>
       </c>
       <c r="E77">
-        <v>37.146529562982003</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F77">
-        <v>13.367609254498699</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G77">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H77">
         <v>7600</v>
       </c>
       <c r="I77">
-        <v>31.7480719794344</v>
+        <v>72.365038560411307</v>
       </c>
       <c r="J77">
-        <v>5.3984575835475601</v>
+        <v>90.745501285347103</v>
       </c>
       <c r="K77">
-        <v>58.097686375321302</v>
+        <v>53.984575835475603</v>
       </c>
       <c r="L77">
         <v>7600</v>
       </c>
       <c r="M77">
-        <v>29.305912596401001</v>
+        <v>74.550128534704399</v>
       </c>
       <c r="N77">
-        <v>3.0848329048843199</v>
+        <v>92.8020565552699</v>
       </c>
       <c r="O77">
-        <v>55.5269922879177</v>
+        <v>56.298200514138799</v>
       </c>
       <c r="P77">
         <v>7600</v>
@@ -4303,49 +4303,49 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>35.732647814910003</v>
+        <v>79.177377892030904</v>
       </c>
       <c r="B78">
-        <v>10.539845758354801</v>
+        <v>97.943444730077104</v>
       </c>
       <c r="C78">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D78">
         <v>7700</v>
       </c>
       <c r="E78">
-        <v>37.789203084832899</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F78">
-        <v>14.6529562982005</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G78">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H78">
         <v>7700</v>
       </c>
       <c r="I78">
-        <v>31.7480719794344</v>
+        <v>72.493573264781503</v>
       </c>
       <c r="J78">
-        <v>5.3984575835475601</v>
+        <v>90.745501285347103</v>
       </c>
       <c r="K78">
-        <v>58.097686375321302</v>
+        <v>54.241645244215903</v>
       </c>
       <c r="L78">
         <v>7700</v>
       </c>
       <c r="M78">
-        <v>29.5629820051414</v>
+        <v>74.550128534704399</v>
       </c>
       <c r="N78">
-        <v>4.1131105398457599</v>
+        <v>92.8020565552699</v>
       </c>
       <c r="O78">
-        <v>55.012853470437001</v>
+        <v>56.298200514138799</v>
       </c>
       <c r="P78">
         <v>7700</v>
@@ -4353,49 +4353,49 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>35.989717223650402</v>
+        <v>79.177377892030904</v>
       </c>
       <c r="B79">
-        <v>11.0539845758355</v>
+        <v>97.943444730077104</v>
       </c>
       <c r="C79">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D79">
         <v>7800</v>
       </c>
       <c r="E79">
-        <v>38.9460154241645</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F79">
-        <v>16.966580976863799</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G79">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H79">
         <v>7800</v>
       </c>
       <c r="I79">
-        <v>32.005141388174799</v>
+        <v>73.521850899742901</v>
       </c>
       <c r="J79">
-        <v>5.3984575835475601</v>
+        <v>90.745501285347103</v>
       </c>
       <c r="K79">
-        <v>58.611825192802101</v>
+        <v>56.298200514138799</v>
       </c>
       <c r="L79">
         <v>7800</v>
       </c>
       <c r="M79">
-        <v>30.205655526992299</v>
+        <v>74.550128534704399</v>
       </c>
       <c r="N79">
-        <v>5.3984575835475601</v>
+        <v>92.8020565552699</v>
       </c>
       <c r="O79">
-        <v>55.012853470437001</v>
+        <v>56.298200514138799</v>
       </c>
       <c r="P79">
         <v>7800</v>
@@ -4403,49 +4403,49 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>36.118251928020598</v>
+        <v>79.177377892030904</v>
       </c>
       <c r="B80">
-        <v>11.3110539845758</v>
+        <v>97.943444730077104</v>
       </c>
       <c r="C80">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D80">
         <v>7900</v>
       </c>
       <c r="E80">
-        <v>39.203084832904899</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F80">
-        <v>17.480719794344498</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G80">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H80">
         <v>7900</v>
       </c>
       <c r="I80">
-        <v>32.262210796915198</v>
+        <v>73.521850899742901</v>
       </c>
       <c r="J80">
-        <v>5.3984575835475601</v>
+        <v>90.745501285347103</v>
       </c>
       <c r="K80">
-        <v>59.1259640102828</v>
+        <v>56.298200514138799</v>
       </c>
       <c r="L80">
         <v>7900</v>
       </c>
       <c r="M80">
-        <v>31.6195372750643</v>
+        <v>75.9640102827763</v>
       </c>
       <c r="N80">
-        <v>6.4267352185090001</v>
+        <v>93.316195372750599</v>
       </c>
       <c r="O80">
-        <v>56.812339331619498</v>
+        <v>58.611825192802101</v>
       </c>
       <c r="P80">
         <v>7900</v>
@@ -4453,49 +4453,49 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>36.503856041131101</v>
+        <v>79.305912596401001</v>
       </c>
       <c r="B81">
-        <v>12.0822622107969</v>
+        <v>98.200514138817496</v>
       </c>
       <c r="C81">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D81">
         <v>8000</v>
       </c>
       <c r="E81">
-        <v>40.745501285346997</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F81">
-        <v>20.5655526992288</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G81">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H81">
         <v>8000</v>
       </c>
       <c r="I81">
-        <v>32.519280205655498</v>
+        <v>73.650385604113097</v>
       </c>
       <c r="J81">
-        <v>5.9125964010282797</v>
+        <v>91.002570694087396</v>
       </c>
       <c r="K81">
-        <v>59.1259640102828</v>
+        <v>56.298200514138799</v>
       </c>
       <c r="L81">
         <v>8000</v>
       </c>
       <c r="M81">
-        <v>31.105398457583501</v>
+        <v>75.9640102827763</v>
       </c>
       <c r="N81">
-        <v>5.9125964010282797</v>
+        <v>93.316195372750599</v>
       </c>
       <c r="O81">
-        <v>56.298200514138799</v>
+        <v>58.611825192802101</v>
       </c>
       <c r="P81">
         <v>8000</v>
@@ -4503,49 +4503,49 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>37.403598971722403</v>
+        <v>79.305912596401001</v>
       </c>
       <c r="B82">
-        <v>13.8817480719794</v>
+        <v>98.200514138817496</v>
       </c>
       <c r="C82">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D82">
         <v>8100</v>
       </c>
       <c r="E82">
-        <v>41.002570694087403</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F82">
-        <v>21.079691516709499</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G82">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H82">
         <v>8100</v>
       </c>
       <c r="I82">
-        <v>32.647814910025701</v>
+        <v>73.650385604113097</v>
       </c>
       <c r="J82">
-        <v>6.1696658097686399</v>
+        <v>91.002570694087396</v>
       </c>
       <c r="K82">
-        <v>59.1259640102828</v>
+        <v>56.298200514138799</v>
       </c>
       <c r="L82">
         <v>8100</v>
       </c>
       <c r="M82">
-        <v>31.233933161953701</v>
+        <v>75.9640102827763</v>
       </c>
       <c r="N82">
-        <v>6.1696658097686399</v>
+        <v>93.316195372750599</v>
       </c>
       <c r="O82">
-        <v>56.298200514138799</v>
+        <v>58.611825192802101</v>
       </c>
       <c r="P82">
         <v>8100</v>
@@ -4553,49 +4553,49 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>38.046272493573298</v>
+        <v>79.305912596401001</v>
       </c>
       <c r="B83">
-        <v>15.1670951156812</v>
+        <v>98.200514138817496</v>
       </c>
       <c r="C83">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D83">
         <v>8200</v>
       </c>
       <c r="E83">
-        <v>42.287917737789201</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F83">
-        <v>23.650385604113101</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G83">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H83">
         <v>8200</v>
       </c>
       <c r="I83">
-        <v>33.1619537275064</v>
+        <v>74.935732647814902</v>
       </c>
       <c r="J83">
-        <v>7.1979434447300799</v>
+        <v>91.259640102827802</v>
       </c>
       <c r="K83">
-        <v>59.1259640102828</v>
+        <v>58.611825192802101</v>
       </c>
       <c r="L83">
         <v>8200</v>
       </c>
       <c r="M83">
-        <v>31.6195372750643</v>
+        <v>76.221079691516707</v>
       </c>
       <c r="N83">
-        <v>7.1979434447300799</v>
+        <v>93.573264781491005</v>
       </c>
       <c r="O83">
-        <v>56.041131105398499</v>
+        <v>58.868894601542401</v>
       </c>
       <c r="P83">
         <v>8200</v>
@@ -4603,49 +4603,49 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>38.817480719794403</v>
+        <v>79.434447300771197</v>
       </c>
       <c r="B84">
-        <v>16.7095115681234</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="C84">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D84">
         <v>8300</v>
       </c>
       <c r="E84">
-        <v>42.8020565552699</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F84">
-        <v>24.678663239074599</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G84">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H84">
         <v>8300</v>
       </c>
       <c r="I84">
-        <v>34.704370179948597</v>
+        <v>75.064267352185098</v>
       </c>
       <c r="J84">
-        <v>8.48329048843188</v>
+        <v>91.516709511568095</v>
       </c>
       <c r="K84">
-        <v>60.925449871465297</v>
+        <v>58.611825192802101</v>
       </c>
       <c r="L84">
         <v>8300</v>
       </c>
       <c r="M84">
-        <v>31.3624678663239</v>
+        <v>76.992287917737798</v>
       </c>
       <c r="N84">
-        <v>7.7120822622108003</v>
+        <v>93.573264781491005</v>
       </c>
       <c r="O84">
-        <v>55.012853470437001</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="P84">
         <v>8300</v>
@@ -4653,49 +4653,49 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>39.203084832904899</v>
+        <v>79.434447300771197</v>
       </c>
       <c r="B85">
-        <v>17.480719794344498</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="C85">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D85">
         <v>8400</v>
       </c>
       <c r="E85">
-        <v>44.087403598971697</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F85">
-        <v>27.249357326478101</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G85">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H85">
         <v>8400</v>
       </c>
       <c r="I85">
-        <v>35.3470437017995</v>
+        <v>75.192802056555294</v>
       </c>
       <c r="J85">
-        <v>9.7686375321336794</v>
+        <v>91.773778920308501</v>
       </c>
       <c r="K85">
-        <v>60.925449871465297</v>
+        <v>58.611825192802101</v>
       </c>
       <c r="L85">
         <v>8400</v>
       </c>
       <c r="M85">
-        <v>32.262210796915198</v>
+        <v>77.120822622107994</v>
       </c>
       <c r="N85">
-        <v>9.5115681233933191</v>
+        <v>93.830334190231397</v>
       </c>
       <c r="O85">
-        <v>55.012853470437001</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="P85">
         <v>8400</v>
@@ -4703,49 +4703,49 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>40.231362467866298</v>
+        <v>79.434447300771197</v>
       </c>
       <c r="B86">
-        <v>19.537275064267401</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="C86">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D86">
         <v>8500</v>
       </c>
       <c r="E86">
-        <v>44.858611825192803</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F86">
-        <v>28.791773778920302</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G86">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H86">
         <v>8500</v>
       </c>
       <c r="I86">
-        <v>35.3470437017995</v>
+        <v>75.192802056555294</v>
       </c>
       <c r="J86">
-        <v>9.7686375321336794</v>
+        <v>91.773778920308501</v>
       </c>
       <c r="K86">
-        <v>60.925449871465297</v>
+        <v>58.611825192802101</v>
       </c>
       <c r="L86">
         <v>8500</v>
       </c>
       <c r="M86">
-        <v>33.033419023136297</v>
+        <v>77.120822622107994</v>
       </c>
       <c r="N86">
-        <v>11.0539845758355</v>
+        <v>93.830334190231397</v>
       </c>
       <c r="O86">
-        <v>55.012853470437001</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="P86">
         <v>8500</v>
@@ -4753,49 +4753,49 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>40.8740359897172</v>
+        <v>79.434447300771197</v>
       </c>
       <c r="B87">
-        <v>20.822622107969199</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="C87">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D87">
         <v>8600</v>
       </c>
       <c r="E87">
-        <v>45.115681233933202</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F87">
-        <v>29.305912596401001</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G87">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H87">
         <v>8600</v>
       </c>
       <c r="I87">
-        <v>35.604113110539899</v>
+        <v>76.221079691516707</v>
       </c>
       <c r="J87">
-        <v>10.2827763496144</v>
+        <v>92.030848329048794</v>
       </c>
       <c r="K87">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="L87">
         <v>8600</v>
       </c>
       <c r="M87">
-        <v>33.547557840617003</v>
+        <v>77.249357326478204</v>
       </c>
       <c r="N87">
-        <v>12.339331619537299</v>
+        <v>94.087403598971704</v>
       </c>
       <c r="O87">
-        <v>54.755784061696701</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="P87">
         <v>8600</v>
@@ -4803,49 +4803,49 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>41.902313624678698</v>
+        <v>79.434447300771197</v>
       </c>
       <c r="B88">
-        <v>22.879177377891999</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="C88">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D88">
         <v>8700</v>
       </c>
       <c r="E88">
-        <v>45.629820051413901</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F88">
-        <v>30.334190231362498</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G88">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H88">
         <v>8700</v>
       </c>
       <c r="I88">
-        <v>35.732647814910003</v>
+        <v>76.349614395886903</v>
       </c>
       <c r="J88">
-        <v>10.539845758354801</v>
+        <v>92.287917737789201</v>
       </c>
       <c r="K88">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="L88">
         <v>8700</v>
       </c>
       <c r="M88">
-        <v>34.190231362467898</v>
+        <v>77.249357326478204</v>
       </c>
       <c r="N88">
-        <v>13.8817480719794</v>
+        <v>94.087403598971704</v>
       </c>
       <c r="O88">
-        <v>54.498714652956302</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="P88">
         <v>8700</v>
@@ -4853,49 +4853,49 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>43.187660668380502</v>
+        <v>79.434447300771197</v>
       </c>
       <c r="B89">
-        <v>25.449871465295601</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="C89">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D89">
         <v>8800</v>
       </c>
       <c r="E89">
-        <v>46.015424164524397</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F89">
-        <v>31.1053984575836</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G89">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H89">
         <v>8800</v>
       </c>
       <c r="I89">
-        <v>35.989717223650402</v>
+        <v>76.349614395886903</v>
       </c>
       <c r="J89">
-        <v>11.0539845758355</v>
+        <v>92.287917737789201</v>
       </c>
       <c r="K89">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="L89">
         <v>8800</v>
       </c>
       <c r="M89">
-        <v>35.0899742930591</v>
+        <v>77.249357326478204</v>
       </c>
       <c r="N89">
-        <v>15.681233933162</v>
+        <v>94.087403598971704</v>
       </c>
       <c r="O89">
-        <v>54.498714652956302</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="P89">
         <v>8800</v>
@@ -4903,49 +4903,49 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>43.958868894601501</v>
+        <v>79.434447300771197</v>
       </c>
       <c r="B90">
-        <v>26.992287917737801</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="C90">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D90">
         <v>8900</v>
       </c>
       <c r="E90">
-        <v>46.529562982005103</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F90">
-        <v>32.133676092545002</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G90">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H90">
         <v>8900</v>
       </c>
       <c r="I90">
-        <v>36.246786632390702</v>
+        <v>76.478149100257099</v>
       </c>
       <c r="J90">
-        <v>11.568123393316201</v>
+        <v>92.544987146529607</v>
       </c>
       <c r="K90">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="L90">
         <v>8900</v>
       </c>
       <c r="M90">
-        <v>35.604113110539899</v>
+        <v>77.249357326478204</v>
       </c>
       <c r="N90">
-        <v>16.966580976863799</v>
+        <v>94.087403598971704</v>
       </c>
       <c r="O90">
-        <v>54.241645244215903</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="P90">
         <v>8900</v>
@@ -4953,49 +4953,49 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>44.601542416452403</v>
+        <v>79.434447300771197</v>
       </c>
       <c r="B91">
-        <v>28.277634961439599</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="C91">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D91">
         <v>9000</v>
       </c>
       <c r="E91">
-        <v>47.043701799485902</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F91">
-        <v>33.1619537275064</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G91">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H91">
         <v>9000</v>
       </c>
       <c r="I91">
-        <v>36.632390745501297</v>
+        <v>76.478149100257099</v>
       </c>
       <c r="J91">
-        <v>12.339331619537299</v>
+        <v>92.544987146529607</v>
       </c>
       <c r="K91">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="L91">
         <v>9000</v>
       </c>
       <c r="M91">
-        <v>35.475578406169703</v>
+        <v>77.249357326478204</v>
       </c>
       <c r="N91">
-        <v>17.480719794344498</v>
+        <v>94.087403598971704</v>
       </c>
       <c r="O91">
-        <v>53.470437017994897</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="P91">
         <v>9000</v>
@@ -5003,49 +5003,49 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>45.115681233933202</v>
+        <v>79.434447300771197</v>
       </c>
       <c r="B92">
-        <v>29.305912596401001</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="C92">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D92">
         <v>9100</v>
       </c>
       <c r="E92">
-        <v>47.686375321336797</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F92">
-        <v>34.447300771208198</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G92">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H92">
         <v>9100</v>
       </c>
       <c r="I92">
-        <v>37.789203084832899</v>
+        <v>76.478149100257099</v>
       </c>
       <c r="J92">
-        <v>14.6529562982005</v>
+        <v>92.544987146529607</v>
       </c>
       <c r="K92">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="L92">
         <v>9100</v>
       </c>
       <c r="M92">
-        <v>35.861182519280199</v>
+        <v>77.249357326478204</v>
       </c>
       <c r="N92">
-        <v>18.766066838046299</v>
+        <v>94.087403598971704</v>
       </c>
       <c r="O92">
-        <v>52.956298200514098</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="P92">
         <v>9100</v>
@@ -5053,49 +5053,49 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>45.629820051413901</v>
+        <v>79.434447300771197</v>
       </c>
       <c r="B93">
-        <v>30.334190231362498</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="C93">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D93">
         <v>9200</v>
       </c>
       <c r="E93">
-        <v>48.586118251927999</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F93">
-        <v>36.246786632390702</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G93">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H93">
         <v>9200</v>
       </c>
       <c r="I93">
-        <v>38.6889460154242</v>
+        <v>76.606683804627295</v>
       </c>
       <c r="J93">
-        <v>16.452442159383001</v>
+        <v>92.8020565552699</v>
       </c>
       <c r="K93">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="L93">
         <v>9200</v>
       </c>
       <c r="M93">
-        <v>35.732647814910003</v>
+        <v>77.506426735218497</v>
       </c>
       <c r="N93">
-        <v>19.537275064267401</v>
+        <v>94.601542416452503</v>
       </c>
       <c r="O93">
-        <v>51.9280205655527</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="P93">
         <v>9200</v>
@@ -5103,49 +5103,49 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>46.272493573264804</v>
+        <v>79.434447300771197</v>
       </c>
       <c r="B94">
-        <v>31.6195372750643</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="C94">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D94">
         <v>9300</v>
       </c>
       <c r="E94">
-        <v>49.357326478149098</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F94">
-        <v>37.789203084832899</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G94">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H94">
         <v>9300</v>
       </c>
       <c r="I94">
-        <v>39.074550128534703</v>
+        <v>76.606683804627295</v>
       </c>
       <c r="J94">
-        <v>17.223650385604099</v>
+        <v>92.8020565552699</v>
       </c>
       <c r="K94">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="L94">
         <v>9300</v>
       </c>
       <c r="M94">
-        <v>35.732647814910003</v>
+        <v>77.634961439588693</v>
       </c>
       <c r="N94">
-        <v>20.0514138817481</v>
+        <v>94.858611825192796</v>
       </c>
       <c r="O94">
-        <v>51.413881748072001</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="P94">
         <v>9300</v>
@@ -5153,49 +5153,49 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>46.529562982005103</v>
+        <v>79.434447300771197</v>
       </c>
       <c r="B95">
-        <v>32.133676092545002</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="C95">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D95">
         <v>9400</v>
       </c>
       <c r="E95">
-        <v>50.257069408740399</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F95">
-        <v>39.588688946015402</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G95">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H95">
         <v>9400</v>
       </c>
       <c r="I95">
-        <v>39.460154241645199</v>
+        <v>76.735218508997406</v>
       </c>
       <c r="J95">
-        <v>17.994858611825201</v>
+        <v>93.059125964010306</v>
       </c>
       <c r="K95">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="L95">
         <v>9400</v>
       </c>
       <c r="M95">
-        <v>35.732647814910003</v>
+        <v>77.634961439588693</v>
       </c>
       <c r="N95">
-        <v>20.5655526992288</v>
+        <v>94.858611825192796</v>
       </c>
       <c r="O95">
-        <v>50.899742930591302</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="P95">
         <v>9400</v>
@@ -5203,49 +5203,49 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>47.043701799485902</v>
+        <v>79.434447300771197</v>
       </c>
       <c r="B96">
-        <v>33.1619537275064</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="C96">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D96">
         <v>9500</v>
       </c>
       <c r="E96">
-        <v>51.028277634961398</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F96">
-        <v>41.131105398457599</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G96">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H96">
         <v>9500</v>
       </c>
       <c r="I96">
-        <v>40.488431876606697</v>
+        <v>76.735218508997406</v>
       </c>
       <c r="J96">
-        <v>20.0514138817481</v>
+        <v>93.059125964010306</v>
       </c>
       <c r="K96">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="L96">
         <v>9500</v>
       </c>
       <c r="M96">
-        <v>35.861182519280199</v>
+        <v>77.634961439588693</v>
       </c>
       <c r="N96">
-        <v>21.336760925449902</v>
+        <v>94.858611825192796</v>
       </c>
       <c r="O96">
-        <v>50.385604113110503</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="P96">
         <v>9500</v>
@@ -5253,49 +5253,49 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>47.429305912596398</v>
+        <v>79.434447300771197</v>
       </c>
       <c r="B97">
-        <v>33.933161953727499</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="C97">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D97">
         <v>9600</v>
       </c>
       <c r="E97">
-        <v>51.799485861182497</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F97">
-        <v>42.673521850899697</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G97">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H97">
         <v>9600</v>
       </c>
       <c r="I97">
-        <v>40.745501285346997</v>
+        <v>76.863753213367602</v>
       </c>
       <c r="J97">
-        <v>20.5655526992288</v>
+        <v>93.316195372750599</v>
       </c>
       <c r="K97">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="L97">
         <v>9600</v>
       </c>
       <c r="M97">
-        <v>35.475578406169703</v>
+        <v>77.634961439588693</v>
       </c>
       <c r="N97">
-        <v>21.336760925449902</v>
+        <v>94.858611825192796</v>
       </c>
       <c r="O97">
-        <v>49.614395886889497</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="P97">
         <v>9600</v>
@@ -5303,49 +5303,49 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>48.200514138817503</v>
+        <v>79.434447300771197</v>
       </c>
       <c r="B98">
-        <v>35.475578406169703</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="C98">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D98">
         <v>9700</v>
       </c>
       <c r="E98">
-        <v>53.213367609254497</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F98">
-        <v>45.501285347043698</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G98">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H98">
         <v>9700</v>
       </c>
       <c r="I98">
-        <v>42.159383033418997</v>
+        <v>76.863753213367602</v>
       </c>
       <c r="J98">
-        <v>23.393316195372801</v>
+        <v>93.316195372750599</v>
       </c>
       <c r="K98">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="L98">
         <v>9700</v>
       </c>
       <c r="M98">
-        <v>35.732647814910003</v>
+        <v>77.634961439588693</v>
       </c>
       <c r="N98">
-        <v>22.107969151671</v>
+        <v>94.858611825192796</v>
       </c>
       <c r="O98">
-        <v>49.357326478149098</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="P98">
         <v>9700</v>
@@ -5353,49 +5353,49 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>48.586118251927999</v>
+        <v>79.434447300771197</v>
       </c>
       <c r="B99">
-        <v>36.246786632390702</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="C99">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D99">
         <v>9800</v>
       </c>
       <c r="E99">
-        <v>54.627249357326498</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F99">
-        <v>48.329048843187699</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G99">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H99">
         <v>9800</v>
       </c>
       <c r="I99">
-        <v>42.8020565552699</v>
+        <v>76.863753213367602</v>
       </c>
       <c r="J99">
-        <v>24.678663239074599</v>
+        <v>93.316195372750599</v>
       </c>
       <c r="K99">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="L99">
         <v>9800</v>
       </c>
       <c r="M99">
-        <v>35.732647814910003</v>
+        <v>77.634961439588693</v>
       </c>
       <c r="N99">
-        <v>22.3650385604113</v>
+        <v>94.858611825192796</v>
       </c>
       <c r="O99">
-        <v>49.100257069408698</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="P99">
         <v>9800</v>
@@ -5403,49 +5403,49 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>49.742930591259601</v>
+        <v>79.434447300771197</v>
       </c>
       <c r="B100">
-        <v>38.560411311053997</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="C100">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D100">
         <v>9900</v>
       </c>
       <c r="E100">
-        <v>54.884318766066798</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F100">
-        <v>48.843187660668399</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G100">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H100">
         <v>9900</v>
       </c>
       <c r="I100">
-        <v>43.573264781490998</v>
+        <v>76.863753213367602</v>
       </c>
       <c r="J100">
-        <v>26.221079691516699</v>
+        <v>93.316195372750599</v>
       </c>
       <c r="K100">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="L100">
         <v>9900</v>
       </c>
       <c r="M100">
-        <v>35.861182519280199</v>
+        <v>77.634961439588693</v>
       </c>
       <c r="N100">
-        <v>22.879177377891999</v>
+        <v>94.858611825192796</v>
       </c>
       <c r="O100">
-        <v>48.843187660668399</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="P100">
         <v>9900</v>
@@ -5453,49 +5453,49 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>50.128534704370203</v>
+        <v>79.434447300771197</v>
       </c>
       <c r="B101">
-        <v>39.331619537275103</v>
+        <v>98.457583547557803</v>
       </c>
       <c r="C101">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="D101">
         <v>10000</v>
       </c>
       <c r="E101">
-        <v>55.012853470437001</v>
+        <v>79.562982005141393</v>
       </c>
       <c r="F101">
-        <v>49.100257069408698</v>
+        <v>98.714652956298195</v>
       </c>
       <c r="G101">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="H101">
         <v>10000</v>
       </c>
       <c r="I101">
-        <v>44.087403598971697</v>
+        <v>76.992287917737798</v>
       </c>
       <c r="J101">
-        <v>27.249357326478101</v>
+        <v>93.573264781491005</v>
       </c>
       <c r="K101">
-        <v>60.925449871465297</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="L101">
         <v>10000</v>
       </c>
       <c r="M101">
-        <v>36.246786632390702</v>
+        <v>77.892030848329</v>
       </c>
       <c r="N101">
-        <v>23.9074550128535</v>
+        <v>95.372750642673495</v>
       </c>
       <c r="O101">
-        <v>48.586118251927999</v>
+        <v>60.411311053984598</v>
       </c>
       <c r="P101">
         <v>10000</v>
@@ -20706,8 +20706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:P101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20800,10 +20800,10 @@
         <v>100</v>
       </c>
       <c r="M2">
-        <v>2.29885057471264</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4.5977011494252897</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>

--- a/01_Sept_Code/Result_Analysis/RESULTS_COMPILES.xlsx
+++ b/01_Sept_Code/Result_Analysis/RESULTS_COMPILES.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="16275" windowHeight="8520" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="16275" windowHeight="8520" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01_BELL" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:P101"/>
     </sheetView>
   </sheetViews>
@@ -5511,8 +5511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:P1"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:P101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7681,10 +7681,10 @@
         <v>4300</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.240384615384615</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.480769230769231</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -7731,10 +7731,10 @@
         <v>4400</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.72115384615384603</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1.4423076923076901</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -7769,49 +7769,49 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>7.9326923076923102</v>
+        <v>0.480769230769231</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.96153846153846201</v>
       </c>
       <c r="C46">
-        <v>15.865384615384601</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>4500</v>
       </c>
       <c r="E46">
-        <v>3.6057692307692299</v>
+        <v>0.96153846153846201</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1.92307692307692</v>
       </c>
       <c r="G46">
-        <v>7.2115384615384599</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>4500</v>
       </c>
       <c r="I46">
-        <v>5.2884615384615401</v>
+        <v>7.6923076923076898</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>10.5769230769231</v>
+        <v>15.384615384615399</v>
       </c>
       <c r="L46">
         <v>4500</v>
       </c>
       <c r="M46">
-        <v>4.5673076923076898</v>
+        <v>3.8461538461538498</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>9.1346153846153797</v>
+        <v>7.6923076923076898</v>
       </c>
       <c r="P46">
         <v>4500</v>
@@ -7819,49 +7819,49 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>7.9326923076923102</v>
+        <v>9.8557692307692299</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>4.3269230769230802</v>
       </c>
       <c r="C47">
-        <v>15.865384615384601</v>
+        <v>15.384615384615399</v>
       </c>
       <c r="D47">
         <v>4600</v>
       </c>
       <c r="E47">
-        <v>7.9326923076923102</v>
+        <v>8.4134615384615401</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1.4423076923076901</v>
       </c>
       <c r="G47">
-        <v>15.865384615384601</v>
+        <v>15.384615384615399</v>
       </c>
       <c r="H47">
         <v>4600</v>
       </c>
       <c r="I47">
-        <v>7.9326923076923102</v>
+        <v>7.6923076923076898</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>15.865384615384601</v>
+        <v>15.384615384615399</v>
       </c>
       <c r="L47">
         <v>4600</v>
       </c>
       <c r="M47">
-        <v>7.9326923076923102</v>
+        <v>7.6923076923076898</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47">
-        <v>15.865384615384601</v>
+        <v>15.384615384615399</v>
       </c>
       <c r="P47">
         <v>4600</v>
@@ -7869,22 +7869,22 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>7.9326923076923102</v>
+        <v>10.817307692307701</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="C48">
-        <v>15.865384615384601</v>
+        <v>15.384615384615399</v>
       </c>
       <c r="D48">
         <v>4700</v>
       </c>
       <c r="E48">
-        <v>7.6923076923076898</v>
+        <v>8.1730769230769198</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>0.96153846153846201</v>
       </c>
       <c r="G48">
         <v>15.384615384615399</v>
@@ -7919,22 +7919,22 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>7.9326923076923102</v>
+        <v>11.2980769230769</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>7.2115384615384599</v>
       </c>
       <c r="C49">
-        <v>15.865384615384601</v>
+        <v>15.384615384615399</v>
       </c>
       <c r="D49">
         <v>4800</v>
       </c>
       <c r="E49">
-        <v>7.6923076923076898</v>
+        <v>9.1346153846153904</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>2.8846153846153801</v>
       </c>
       <c r="G49">
         <v>15.384615384615399</v>
@@ -7969,22 +7969,22 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>7.9326923076923102</v>
+        <v>17.548076923076898</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>19.711538461538499</v>
       </c>
       <c r="C50">
-        <v>15.865384615384601</v>
+        <v>15.384615384615399</v>
       </c>
       <c r="D50">
         <v>4900</v>
       </c>
       <c r="E50">
-        <v>7.6923076923076898</v>
+        <v>9.6153846153846203</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>3.8461538461538498</v>
       </c>
       <c r="G50">
         <v>15.384615384615399</v>
@@ -8019,49 +8019,49 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>7.9326923076923102</v>
+        <v>18.269230769230798</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>21.153846153846199</v>
       </c>
       <c r="C51">
-        <v>15.865384615384601</v>
+        <v>15.384615384615399</v>
       </c>
       <c r="D51">
         <v>5000</v>
       </c>
       <c r="E51">
-        <v>7.9326923076923102</v>
+        <v>9.375</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>3.3653846153846199</v>
       </c>
       <c r="G51">
-        <v>15.865384615384601</v>
+        <v>15.384615384615399</v>
       </c>
       <c r="H51">
         <v>5000</v>
       </c>
       <c r="I51">
-        <v>7.9326923076923102</v>
+        <v>7.6923076923076898</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>15.865384615384601</v>
+        <v>15.384615384615399</v>
       </c>
       <c r="L51">
         <v>5000</v>
       </c>
       <c r="M51">
-        <v>7.9326923076923102</v>
+        <v>7.6923076923076898</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>15.865384615384601</v>
+        <v>15.384615384615399</v>
       </c>
       <c r="P51">
         <v>5000</v>
@@ -8069,22 +8069,22 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>7.9326923076923102</v>
+        <v>19.711538461538499</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>24.038461538461501</v>
       </c>
       <c r="C52">
-        <v>15.865384615384601</v>
+        <v>15.384615384615399</v>
       </c>
       <c r="D52">
         <v>5100</v>
       </c>
       <c r="E52">
-        <v>7.6923076923076898</v>
+        <v>9.8557692307692299</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>4.3269230769230802</v>
       </c>
       <c r="G52">
         <v>15.384615384615399</v>
@@ -8119,22 +8119,22 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>12.5</v>
+        <v>22.836538461538499</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>27.403846153846199</v>
       </c>
       <c r="C53">
-        <v>25</v>
+        <v>18.269230769230798</v>
       </c>
       <c r="D53">
         <v>5200</v>
       </c>
       <c r="E53">
-        <v>9.1346153846153904</v>
+        <v>12.0192307692308</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>5.7692307692307701</v>
       </c>
       <c r="G53">
         <v>18.269230769230798</v>
@@ -8143,25 +8143,25 @@
         <v>5200</v>
       </c>
       <c r="I53">
-        <v>11.2980769230769</v>
+        <v>12.259615384615399</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>22.596153846153801</v>
+        <v>24.519230769230798</v>
       </c>
       <c r="L53">
         <v>5200</v>
       </c>
       <c r="M53">
-        <v>9.375</v>
+        <v>9.1346153846153904</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="O53">
-        <v>18.75</v>
+        <v>18.269230769230798</v>
       </c>
       <c r="P53">
         <v>5200</v>
@@ -8169,49 +8169,49 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>12.5</v>
+        <v>27.644230769230798</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>30.769230769230798</v>
       </c>
       <c r="C54">
-        <v>25</v>
+        <v>24.519230769230798</v>
       </c>
       <c r="D54">
         <v>5300</v>
       </c>
       <c r="E54">
-        <v>11.538461538461499</v>
+        <v>14.903846153846199</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>5.2884615384615401</v>
       </c>
       <c r="G54">
-        <v>23.076923076923102</v>
+        <v>24.519230769230798</v>
       </c>
       <c r="H54">
         <v>5300</v>
       </c>
       <c r="I54">
-        <v>12.5</v>
+        <v>12.259615384615399</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>25</v>
+        <v>24.519230769230798</v>
       </c>
       <c r="L54">
         <v>5300</v>
       </c>
       <c r="M54">
-        <v>11.778846153846199</v>
+        <v>13.7019230769231</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>2.8846153846153801</v>
       </c>
       <c r="O54">
-        <v>23.557692307692299</v>
+        <v>24.519230769230798</v>
       </c>
       <c r="P54">
         <v>5300</v>
@@ -8219,49 +8219,49 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>12.5</v>
+        <v>28.365384615384599</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>32.211538461538503</v>
       </c>
       <c r="C55">
-        <v>25</v>
+        <v>24.519230769230798</v>
       </c>
       <c r="D55">
         <v>5400</v>
       </c>
       <c r="E55">
-        <v>13.221153846153801</v>
+        <v>15.1442307692308</v>
       </c>
       <c r="F55">
-        <v>1.4423076923076901</v>
+        <v>5.7692307692307701</v>
       </c>
       <c r="G55">
-        <v>25</v>
+        <v>24.519230769230798</v>
       </c>
       <c r="H55">
         <v>5400</v>
       </c>
       <c r="I55">
-        <v>12.5</v>
+        <v>12.259615384615399</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>25</v>
+        <v>24.519230769230798</v>
       </c>
       <c r="L55">
         <v>5400</v>
       </c>
       <c r="M55">
-        <v>12.5</v>
+        <v>15.1442307692308</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>5.7692307692307701</v>
       </c>
       <c r="O55">
-        <v>25</v>
+        <v>24.519230769230798</v>
       </c>
       <c r="P55">
         <v>5400</v>
@@ -8269,22 +8269,22 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>12.9807692307692</v>
+        <v>29.326923076923102</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>33.173076923076898</v>
       </c>
       <c r="C56">
-        <v>25.961538461538499</v>
+        <v>25.480769230769202</v>
       </c>
       <c r="D56">
         <v>5500</v>
       </c>
       <c r="E56">
-        <v>14.663461538461499</v>
+        <v>16.105769230769202</v>
       </c>
       <c r="F56">
-        <v>3.8461538461538498</v>
+        <v>6.7307692307692299</v>
       </c>
       <c r="G56">
         <v>25.480769230769202</v>
@@ -8305,10 +8305,10 @@
         <v>5500</v>
       </c>
       <c r="M56">
-        <v>12.740384615384601</v>
+        <v>16.586538461538499</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>7.6923076923076898</v>
       </c>
       <c r="O56">
         <v>25.480769230769202</v>
@@ -8319,22 +8319,22 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>12.9807692307692</v>
+        <v>29.567307692307701</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>33.653846153846203</v>
       </c>
       <c r="C57">
-        <v>25.961538461538499</v>
+        <v>25.480769230769202</v>
       </c>
       <c r="D57">
         <v>5600</v>
       </c>
       <c r="E57">
-        <v>16.586538461538499</v>
+        <v>16.105769230769202</v>
       </c>
       <c r="F57">
-        <v>7.6923076923076898</v>
+        <v>6.7307692307692299</v>
       </c>
       <c r="G57">
         <v>25.480769230769202</v>
@@ -8355,10 +8355,10 @@
         <v>5600</v>
       </c>
       <c r="M57">
-        <v>12.740384615384601</v>
+        <v>21.153846153846199</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>16.826923076923102</v>
       </c>
       <c r="O57">
         <v>25.480769230769202</v>
@@ -8369,22 +8369,22 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>13.221153846153801</v>
+        <v>30.048076923076898</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>34.615384615384599</v>
       </c>
       <c r="C58">
-        <v>26.442307692307701</v>
+        <v>25.480769230769202</v>
       </c>
       <c r="D58">
         <v>5700</v>
       </c>
       <c r="E58">
-        <v>17.788461538461501</v>
+        <v>16.105769230769202</v>
       </c>
       <c r="F58">
-        <v>10.096153846153801</v>
+        <v>6.7307692307692299</v>
       </c>
       <c r="G58">
         <v>25.480769230769202</v>
@@ -8405,10 +8405,10 @@
         <v>5700</v>
       </c>
       <c r="M58">
-        <v>12.740384615384601</v>
+        <v>23.798076923076898</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>22.115384615384599</v>
       </c>
       <c r="O58">
         <v>25.480769230769202</v>
@@ -8419,49 +8419,49 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>18.028846153846199</v>
+        <v>31.25</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>35.576923076923102</v>
       </c>
       <c r="C59">
-        <v>36.057692307692299</v>
+        <v>26.923076923076898</v>
       </c>
       <c r="D59">
         <v>5800</v>
       </c>
       <c r="E59">
-        <v>20.192307692307701</v>
+        <v>17.067307692307701</v>
       </c>
       <c r="F59">
-        <v>11.538461538461499</v>
+        <v>6.7307692307692299</v>
       </c>
       <c r="G59">
-        <v>28.846153846153801</v>
+        <v>27.403846153846199</v>
       </c>
       <c r="H59">
         <v>5800</v>
       </c>
       <c r="I59">
-        <v>14.663461538461499</v>
+        <v>15.1442307692308</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>29.326923076923102</v>
+        <v>30.288461538461501</v>
       </c>
       <c r="L59">
         <v>5800</v>
       </c>
       <c r="M59">
-        <v>17.307692307692299</v>
+        <v>25.961538461538499</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>24.038461538461501</v>
       </c>
       <c r="O59">
-        <v>34.615384615384599</v>
+        <v>27.884615384615401</v>
       </c>
       <c r="P59">
         <v>5800</v>
@@ -8469,46 +8469,46 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>21.394230769230798</v>
+        <v>37.980769230769198</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>35.576923076923102</v>
       </c>
       <c r="C60">
-        <v>42.788461538461497</v>
+        <v>40.384615384615401</v>
       </c>
       <c r="D60">
         <v>5900</v>
       </c>
       <c r="E60">
-        <v>26.682692307692299</v>
+        <v>24.759615384615401</v>
       </c>
       <c r="F60">
-        <v>11.538461538461499</v>
+        <v>9.1346153846153797</v>
       </c>
       <c r="G60">
-        <v>41.826923076923102</v>
+        <v>40.384615384615401</v>
       </c>
       <c r="H60">
         <v>5900</v>
       </c>
       <c r="I60">
-        <v>20.913461538461501</v>
+        <v>21.153846153846199</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>41.826923076923102</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="L60">
         <v>5900</v>
       </c>
       <c r="M60">
-        <v>20.913461538461501</v>
+        <v>33.173076923076898</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>24.519230769230798</v>
       </c>
       <c r="O60">
         <v>41.826923076923102</v>
@@ -8519,22 +8519,22 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>21.394230769230798</v>
+        <v>40.144230769230802</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>37.980769230769198</v>
       </c>
       <c r="C61">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D61">
         <v>6000</v>
       </c>
       <c r="E61">
-        <v>30.048076923076898</v>
+        <v>27.403846153846199</v>
       </c>
       <c r="F61">
-        <v>17.788461538461501</v>
+        <v>12.5</v>
       </c>
       <c r="G61">
         <v>42.307692307692299</v>
@@ -8555,10 +8555,10 @@
         <v>6000</v>
       </c>
       <c r="M61">
-        <v>21.153846153846199</v>
+        <v>34.375</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>26.442307692307701</v>
       </c>
       <c r="O61">
         <v>42.307692307692299</v>
@@ -8569,22 +8569,22 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>21.394230769230798</v>
+        <v>40.625</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>38.942307692307701</v>
       </c>
       <c r="C62">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D62">
         <v>6100</v>
       </c>
       <c r="E62">
-        <v>32.451923076923102</v>
+        <v>29.807692307692299</v>
       </c>
       <c r="F62">
-        <v>22.596153846153801</v>
+        <v>17.307692307692299</v>
       </c>
       <c r="G62">
         <v>42.307692307692299</v>
@@ -8605,10 +8605,10 @@
         <v>6100</v>
       </c>
       <c r="M62">
-        <v>21.153846153846199</v>
+        <v>36.538461538461497</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>30.769230769230798</v>
       </c>
       <c r="O62">
         <v>42.307692307692299</v>
@@ -8619,22 +8619,22 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>21.394230769230798</v>
+        <v>41.826923076923102</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>41.346153846153904</v>
       </c>
       <c r="C63">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D63">
         <v>6200</v>
       </c>
       <c r="E63">
-        <v>33.894230769230802</v>
+        <v>31.25</v>
       </c>
       <c r="F63">
-        <v>25.480769230769202</v>
+        <v>20.192307692307701</v>
       </c>
       <c r="G63">
         <v>42.307692307692299</v>
@@ -8655,10 +8655,10 @@
         <v>6200</v>
       </c>
       <c r="M63">
-        <v>21.153846153846199</v>
+        <v>37.019230769230802</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>31.730769230769202</v>
       </c>
       <c r="O63">
         <v>42.307692307692299</v>
@@ -8669,22 +8669,22 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>21.394230769230798</v>
+        <v>42.548076923076898</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>42.788461538461497</v>
       </c>
       <c r="C64">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D64">
         <v>6300</v>
       </c>
       <c r="E64">
-        <v>34.375</v>
+        <v>31.730769230769202</v>
       </c>
       <c r="F64">
-        <v>26.442307692307701</v>
+        <v>21.153846153846199</v>
       </c>
       <c r="G64">
         <v>42.307692307692299</v>
@@ -8705,10 +8705,10 @@
         <v>6300</v>
       </c>
       <c r="M64">
-        <v>21.153846153846199</v>
+        <v>37.740384615384599</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>33.173076923076898</v>
       </c>
       <c r="O64">
         <v>42.307692307692299</v>
@@ -8719,22 +8719,22 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>21.394230769230798</v>
+        <v>42.788461538461497</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>43.269230769230802</v>
       </c>
       <c r="C65">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D65">
         <v>6400</v>
       </c>
       <c r="E65">
-        <v>35.576923076923102</v>
+        <v>33.173076923076898</v>
       </c>
       <c r="F65">
-        <v>28.846153846153801</v>
+        <v>24.038461538461501</v>
       </c>
       <c r="G65">
         <v>42.307692307692299</v>
@@ -8755,10 +8755,10 @@
         <v>6400</v>
       </c>
       <c r="M65">
-        <v>21.153846153846199</v>
+        <v>37.980769230769198</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>33.653846153846203</v>
       </c>
       <c r="O65">
         <v>42.307692307692299</v>
@@ -8769,22 +8769,22 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>21.394230769230798</v>
+        <v>43.028846153846203</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>43.75</v>
       </c>
       <c r="C66">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D66">
         <v>6500</v>
       </c>
       <c r="E66">
-        <v>37.5</v>
+        <v>33.173076923076898</v>
       </c>
       <c r="F66">
-        <v>32.692307692307701</v>
+        <v>24.038461538461501</v>
       </c>
       <c r="G66">
         <v>42.307692307692299</v>
@@ -8805,10 +8805,10 @@
         <v>6500</v>
       </c>
       <c r="M66">
-        <v>21.153846153846199</v>
+        <v>38.461538461538503</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>34.615384615384599</v>
       </c>
       <c r="O66">
         <v>42.307692307692299</v>
@@ -8819,22 +8819,22 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>21.394230769230798</v>
+        <v>46.634615384615401</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>50.961538461538503</v>
       </c>
       <c r="C67">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D67">
         <v>6600</v>
       </c>
       <c r="E67">
-        <v>38.701923076923102</v>
+        <v>35.336538461538503</v>
       </c>
       <c r="F67">
-        <v>35.096153846153904</v>
+        <v>28.365384615384599</v>
       </c>
       <c r="G67">
         <v>42.307692307692299</v>
@@ -8855,10 +8855,10 @@
         <v>6600</v>
       </c>
       <c r="M67">
-        <v>21.153846153846199</v>
+        <v>38.942307692307701</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>35.576923076923102</v>
       </c>
       <c r="O67">
         <v>42.307692307692299</v>
@@ -8869,22 +8869,22 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>21.394230769230798</v>
+        <v>47.115384615384599</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>51.923076923076898</v>
       </c>
       <c r="C68">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D68">
         <v>6700</v>
       </c>
       <c r="E68">
-        <v>38.942307692307701</v>
+        <v>36.057692307692299</v>
       </c>
       <c r="F68">
-        <v>35.576923076923102</v>
+        <v>29.807692307692299</v>
       </c>
       <c r="G68">
         <v>42.307692307692299</v>
@@ -8905,10 +8905,10 @@
         <v>6700</v>
       </c>
       <c r="M68">
-        <v>22.596153846153801</v>
+        <v>38.942307692307701</v>
       </c>
       <c r="N68">
-        <v>2.8846153846153801</v>
+        <v>35.576923076923102</v>
       </c>
       <c r="O68">
         <v>42.307692307692299</v>
@@ -8919,22 +8919,22 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>21.394230769230798</v>
+        <v>47.355769230769198</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>52.403846153846203</v>
       </c>
       <c r="C69">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D69">
         <v>6800</v>
       </c>
       <c r="E69">
-        <v>39.423076923076898</v>
+        <v>36.538461538461497</v>
       </c>
       <c r="F69">
-        <v>36.538461538461497</v>
+        <v>30.769230769230798</v>
       </c>
       <c r="G69">
         <v>42.307692307692299</v>
@@ -8955,10 +8955,10 @@
         <v>6800</v>
       </c>
       <c r="M69">
-        <v>23.557692307692299</v>
+        <v>39.663461538461497</v>
       </c>
       <c r="N69">
-        <v>4.8076923076923102</v>
+        <v>37.019230769230802</v>
       </c>
       <c r="O69">
         <v>42.307692307692299</v>
@@ -8969,22 +8969,22 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>21.394230769230798</v>
+        <v>47.596153846153904</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>52.884615384615401</v>
       </c>
       <c r="C70">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D70">
         <v>6900</v>
       </c>
       <c r="E70">
-        <v>40.384615384615401</v>
+        <v>36.778846153846203</v>
       </c>
       <c r="F70">
-        <v>38.461538461538503</v>
+        <v>31.25</v>
       </c>
       <c r="G70">
         <v>42.307692307692299</v>
@@ -9005,10 +9005,10 @@
         <v>6900</v>
       </c>
       <c r="M70">
-        <v>23.798076923076898</v>
+        <v>40.625</v>
       </c>
       <c r="N70">
-        <v>5.2884615384615401</v>
+        <v>38.942307692307701</v>
       </c>
       <c r="O70">
         <v>42.307692307692299</v>
@@ -9019,22 +9019,22 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>21.394230769230798</v>
+        <v>48.076923076923102</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>53.846153846153904</v>
       </c>
       <c r="C71">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D71">
         <v>7000</v>
       </c>
       <c r="E71">
-        <v>41.105769230769198</v>
+        <v>37.740384615384599</v>
       </c>
       <c r="F71">
-        <v>39.903846153846203</v>
+        <v>33.173076923076898</v>
       </c>
       <c r="G71">
         <v>42.307692307692299</v>
@@ -9055,10 +9055,10 @@
         <v>7000</v>
       </c>
       <c r="M71">
-        <v>25</v>
+        <v>41.105769230769198</v>
       </c>
       <c r="N71">
-        <v>7.6923076923076898</v>
+        <v>39.903846153846203</v>
       </c>
       <c r="O71">
         <v>42.307692307692299</v>
@@ -9069,49 +9069,49 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>21.394230769230798</v>
+        <v>48.317307692307701</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>54.326923076923102</v>
       </c>
       <c r="C72">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D72">
         <v>7100</v>
       </c>
       <c r="E72">
-        <v>43.028846153846203</v>
+        <v>38.942307692307701</v>
       </c>
       <c r="F72">
-        <v>43.269230769230802</v>
+        <v>35.576923076923102</v>
       </c>
       <c r="G72">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="H72">
         <v>7100</v>
       </c>
       <c r="I72">
-        <v>21.394230769230798</v>
+        <v>21.153846153846199</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="L72">
         <v>7100</v>
       </c>
       <c r="M72">
-        <v>25.721153846153801</v>
+        <v>41.826923076923102</v>
       </c>
       <c r="N72">
-        <v>8.6538461538461497</v>
+        <v>41.346153846153904</v>
       </c>
       <c r="O72">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="P72">
         <v>7100</v>
@@ -9119,22 +9119,22 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>21.394230769230798</v>
+        <v>49.278846153846203</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>56.25</v>
       </c>
       <c r="C73">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D73">
         <v>7200</v>
       </c>
       <c r="E73">
-        <v>44.471153846153904</v>
+        <v>39.423076923076898</v>
       </c>
       <c r="F73">
-        <v>46.634615384615401</v>
+        <v>36.538461538461497</v>
       </c>
       <c r="G73">
         <v>42.307692307692299</v>
@@ -9155,10 +9155,10 @@
         <v>7200</v>
       </c>
       <c r="M73">
-        <v>26.682692307692299</v>
+        <v>42.788461538461497</v>
       </c>
       <c r="N73">
-        <v>11.057692307692299</v>
+        <v>43.269230769230802</v>
       </c>
       <c r="O73">
         <v>42.307692307692299</v>
@@ -9169,22 +9169,22 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>21.394230769230798</v>
+        <v>49.038461538461497</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>55.769230769230802</v>
       </c>
       <c r="C74">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D74">
         <v>7300</v>
       </c>
       <c r="E74">
-        <v>44.711538461538503</v>
+        <v>39.903846153846203</v>
       </c>
       <c r="F74">
-        <v>47.115384615384599</v>
+        <v>37.5</v>
       </c>
       <c r="G74">
         <v>42.307692307692299</v>
@@ -9193,10 +9193,10 @@
         <v>7300</v>
       </c>
       <c r="I74">
-        <v>22.115384615384599</v>
+        <v>22.355769230769202</v>
       </c>
       <c r="J74">
-        <v>1.92307692307692</v>
+        <v>2.4038461538461502</v>
       </c>
       <c r="K74">
         <v>42.307692307692299</v>
@@ -9205,10 +9205,10 @@
         <v>7300</v>
       </c>
       <c r="M74">
-        <v>30.048076923076898</v>
+        <v>42.788461538461497</v>
       </c>
       <c r="N74">
-        <v>17.788461538461501</v>
+        <v>43.269230769230802</v>
       </c>
       <c r="O74">
         <v>42.307692307692299</v>
@@ -9219,22 +9219,22 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>21.394230769230798</v>
+        <v>49.278846153846203</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>56.25</v>
       </c>
       <c r="C75">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D75">
         <v>7400</v>
       </c>
       <c r="E75">
-        <v>45.432692307692299</v>
+        <v>40.865384615384599</v>
       </c>
       <c r="F75">
-        <v>48.557692307692299</v>
+        <v>39.423076923076898</v>
       </c>
       <c r="G75">
         <v>42.307692307692299</v>
@@ -9255,10 +9255,10 @@
         <v>7400</v>
       </c>
       <c r="M75">
-        <v>31.971153846153801</v>
+        <v>45.192307692307701</v>
       </c>
       <c r="N75">
-        <v>21.634615384615401</v>
+        <v>48.076923076923102</v>
       </c>
       <c r="O75">
         <v>42.307692307692299</v>
@@ -9269,22 +9269,22 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>21.394230769230798</v>
+        <v>49.759615384615401</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>57.211538461538503</v>
       </c>
       <c r="C76">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D76">
         <v>7500</v>
       </c>
       <c r="E76">
-        <v>45.432692307692299</v>
+        <v>40.865384615384599</v>
       </c>
       <c r="F76">
-        <v>48.557692307692299</v>
+        <v>39.423076923076898</v>
       </c>
       <c r="G76">
         <v>42.307692307692299</v>
@@ -9293,10 +9293,10 @@
         <v>7500</v>
       </c>
       <c r="I76">
-        <v>24.519230769230798</v>
+        <v>24.759615384615401</v>
       </c>
       <c r="J76">
-        <v>6.7307692307692299</v>
+        <v>7.2115384615384599</v>
       </c>
       <c r="K76">
         <v>42.307692307692299</v>
@@ -9305,10 +9305,10 @@
         <v>7500</v>
       </c>
       <c r="M76">
-        <v>33.173076923076898</v>
+        <v>46.875</v>
       </c>
       <c r="N76">
-        <v>24.038461538461501</v>
+        <v>51.442307692307701</v>
       </c>
       <c r="O76">
         <v>42.307692307692299</v>
@@ -9319,22 +9319,22 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>22.355769230769202</v>
+        <v>50</v>
       </c>
       <c r="B77">
-        <v>1.92307692307692</v>
+        <v>57.692307692307701</v>
       </c>
       <c r="C77">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D77">
         <v>7600</v>
       </c>
       <c r="E77">
-        <v>45.913461538461497</v>
+        <v>41.346153846153904</v>
       </c>
       <c r="F77">
-        <v>49.519230769230802</v>
+        <v>40.384615384615401</v>
       </c>
       <c r="G77">
         <v>42.307692307692299</v>
@@ -9343,10 +9343,10 @@
         <v>7600</v>
       </c>
       <c r="I77">
-        <v>25.240384615384599</v>
+        <v>25.480769230769202</v>
       </c>
       <c r="J77">
-        <v>8.1730769230769198</v>
+        <v>8.6538461538461497</v>
       </c>
       <c r="K77">
         <v>42.307692307692299</v>
@@ -9355,10 +9355,10 @@
         <v>7600</v>
       </c>
       <c r="M77">
-        <v>33.653846153846203</v>
+        <v>47.115384615384599</v>
       </c>
       <c r="N77">
-        <v>25</v>
+        <v>51.923076923076898</v>
       </c>
       <c r="O77">
         <v>42.307692307692299</v>
@@ -9369,22 +9369,22 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>24.038461538461501</v>
+        <v>50.961538461538503</v>
       </c>
       <c r="B78">
-        <v>5.2884615384615401</v>
+        <v>59.615384615384599</v>
       </c>
       <c r="C78">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D78">
         <v>7700</v>
       </c>
       <c r="E78">
-        <v>46.634615384615401</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="F78">
-        <v>50.961538461538503</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="G78">
         <v>42.307692307692299</v>
@@ -9405,10 +9405,10 @@
         <v>7700</v>
       </c>
       <c r="M78">
-        <v>33.653846153846203</v>
+        <v>47.355769230769198</v>
       </c>
       <c r="N78">
-        <v>25</v>
+        <v>52.403846153846203</v>
       </c>
       <c r="O78">
         <v>42.307692307692299</v>
@@ -9419,22 +9419,22 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>24.759615384615401</v>
+        <v>51.442307692307701</v>
       </c>
       <c r="B79">
-        <v>6.7307692307692299</v>
+        <v>60.576923076923102</v>
       </c>
       <c r="C79">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D79">
         <v>7800</v>
       </c>
       <c r="E79">
-        <v>47.115384615384599</v>
+        <v>43.028846153846203</v>
       </c>
       <c r="F79">
-        <v>51.923076923076898</v>
+        <v>43.75</v>
       </c>
       <c r="G79">
         <v>42.307692307692299</v>
@@ -9443,10 +9443,10 @@
         <v>7800</v>
       </c>
       <c r="I79">
-        <v>26.682692307692299</v>
+        <v>26.442307692307701</v>
       </c>
       <c r="J79">
-        <v>11.057692307692299</v>
+        <v>10.5769230769231</v>
       </c>
       <c r="K79">
         <v>42.307692307692299</v>
@@ -9455,10 +9455,10 @@
         <v>7800</v>
       </c>
       <c r="M79">
-        <v>35.096153846153904</v>
+        <v>47.355769230769198</v>
       </c>
       <c r="N79">
-        <v>27.884615384615401</v>
+        <v>52.403846153846203</v>
       </c>
       <c r="O79">
         <v>42.307692307692299</v>
@@ -9469,22 +9469,22 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>25.721153846153801</v>
+        <v>51.442307692307701</v>
       </c>
       <c r="B80">
-        <v>8.6538461538461497</v>
+        <v>60.576923076923102</v>
       </c>
       <c r="C80">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D80">
         <v>7900</v>
       </c>
       <c r="E80">
-        <v>47.836538461538503</v>
+        <v>43.509615384615401</v>
       </c>
       <c r="F80">
-        <v>53.365384615384599</v>
+        <v>44.711538461538503</v>
       </c>
       <c r="G80">
         <v>42.307692307692299</v>
@@ -9493,10 +9493,10 @@
         <v>7900</v>
       </c>
       <c r="I80">
-        <v>28.125</v>
+        <v>29.326923076923102</v>
       </c>
       <c r="J80">
-        <v>13.942307692307701</v>
+        <v>16.346153846153801</v>
       </c>
       <c r="K80">
         <v>42.307692307692299</v>
@@ -9505,10 +9505,10 @@
         <v>7900</v>
       </c>
       <c r="M80">
-        <v>36.057692307692299</v>
+        <v>47.596153846153904</v>
       </c>
       <c r="N80">
-        <v>29.807692307692299</v>
+        <v>52.884615384615401</v>
       </c>
       <c r="O80">
         <v>42.307692307692299</v>
@@ -9519,22 +9519,22 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>26.682692307692299</v>
+        <v>51.682692307692299</v>
       </c>
       <c r="B81">
-        <v>10.5769230769231</v>
+        <v>61.057692307692299</v>
       </c>
       <c r="C81">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D81">
         <v>8000</v>
       </c>
       <c r="E81">
-        <v>48.317307692307701</v>
+        <v>44.230769230769198</v>
       </c>
       <c r="F81">
-        <v>54.326923076923102</v>
+        <v>46.153846153846203</v>
       </c>
       <c r="G81">
         <v>42.307692307692299</v>
@@ -9543,10 +9543,10 @@
         <v>8000</v>
       </c>
       <c r="I81">
-        <v>30.769230769230798</v>
+        <v>32.451923076923102</v>
       </c>
       <c r="J81">
-        <v>19.230769230769202</v>
+        <v>22.596153846153801</v>
       </c>
       <c r="K81">
         <v>42.307692307692299</v>
@@ -9555,10 +9555,10 @@
         <v>8000</v>
       </c>
       <c r="M81">
-        <v>36.538461538461497</v>
+        <v>48.076923076923102</v>
       </c>
       <c r="N81">
-        <v>30.769230769230798</v>
+        <v>53.846153846153904</v>
       </c>
       <c r="O81">
         <v>42.307692307692299</v>
@@ -9569,22 +9569,22 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>26.923076923076898</v>
+        <v>52.403846153846203</v>
       </c>
       <c r="B82">
-        <v>11.057692307692299</v>
+        <v>62.5</v>
       </c>
       <c r="C82">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D82">
         <v>8100</v>
       </c>
       <c r="E82">
-        <v>48.798076923076898</v>
+        <v>44.951923076923102</v>
       </c>
       <c r="F82">
-        <v>55.288461538461497</v>
+        <v>47.596153846153904</v>
       </c>
       <c r="G82">
         <v>42.307692307692299</v>
@@ -9593,10 +9593,10 @@
         <v>8100</v>
       </c>
       <c r="I82">
-        <v>32.692307692307701</v>
+        <v>33.413461538461497</v>
       </c>
       <c r="J82">
-        <v>23.076923076923102</v>
+        <v>24.519230769230798</v>
       </c>
       <c r="K82">
         <v>42.307692307692299</v>
@@ -9605,10 +9605,10 @@
         <v>8100</v>
       </c>
       <c r="M82">
-        <v>37.5</v>
+        <v>48.076923076923102</v>
       </c>
       <c r="N82">
-        <v>32.692307692307701</v>
+        <v>53.846153846153904</v>
       </c>
       <c r="O82">
         <v>42.307692307692299</v>
@@ -9619,22 +9619,22 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>27.403846153846199</v>
+        <v>53.125</v>
       </c>
       <c r="B83">
-        <v>12.0192307692308</v>
+        <v>63.942307692307701</v>
       </c>
       <c r="C83">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D83">
         <v>8200</v>
       </c>
       <c r="E83">
-        <v>49.038461538461497</v>
+        <v>45.192307692307701</v>
       </c>
       <c r="F83">
-        <v>55.769230769230802</v>
+        <v>48.076923076923102</v>
       </c>
       <c r="G83">
         <v>42.307692307692299</v>
@@ -9655,10 +9655,10 @@
         <v>8200</v>
       </c>
       <c r="M83">
-        <v>37.740384615384599</v>
+        <v>49.278846153846203</v>
       </c>
       <c r="N83">
-        <v>33.173076923076898</v>
+        <v>56.25</v>
       </c>
       <c r="O83">
         <v>42.307692307692299</v>
@@ -9669,22 +9669,22 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>27.884615384615401</v>
+        <v>53.125</v>
       </c>
       <c r="B84">
-        <v>12.9807692307692</v>
+        <v>63.942307692307701</v>
       </c>
       <c r="C84">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D84">
         <v>8300</v>
       </c>
       <c r="E84">
-        <v>49.278846153846203</v>
+        <v>45.673076923076898</v>
       </c>
       <c r="F84">
-        <v>56.25</v>
+        <v>49.038461538461497</v>
       </c>
       <c r="G84">
         <v>42.307692307692299</v>
@@ -9693,10 +9693,10 @@
         <v>8300</v>
       </c>
       <c r="I84">
-        <v>34.375</v>
+        <v>34.615384615384599</v>
       </c>
       <c r="J84">
-        <v>26.442307692307701</v>
+        <v>26.923076923076898</v>
       </c>
       <c r="K84">
         <v>42.307692307692299</v>
@@ -9705,10 +9705,10 @@
         <v>8300</v>
       </c>
       <c r="M84">
-        <v>38.221153846153904</v>
+        <v>49.278846153846203</v>
       </c>
       <c r="N84">
-        <v>34.134615384615401</v>
+        <v>56.25</v>
       </c>
       <c r="O84">
         <v>42.307692307692299</v>
@@ -9719,22 +9719,22 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>28.846153846153801</v>
+        <v>53.125</v>
       </c>
       <c r="B85">
-        <v>14.903846153846199</v>
+        <v>63.942307692307701</v>
       </c>
       <c r="C85">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D85">
         <v>8400</v>
       </c>
       <c r="E85">
-        <v>49.278846153846203</v>
+        <v>46.153846153846203</v>
       </c>
       <c r="F85">
-        <v>56.25</v>
+        <v>50</v>
       </c>
       <c r="G85">
         <v>42.307692307692299</v>
@@ -9743,10 +9743,10 @@
         <v>8400</v>
       </c>
       <c r="I85">
-        <v>34.615384615384599</v>
+        <v>34.855769230769198</v>
       </c>
       <c r="J85">
-        <v>26.923076923076898</v>
+        <v>27.403846153846199</v>
       </c>
       <c r="K85">
         <v>42.307692307692299</v>
@@ -9755,10 +9755,10 @@
         <v>8400</v>
       </c>
       <c r="M85">
-        <v>38.461538461538503</v>
+        <v>49.278846153846203</v>
       </c>
       <c r="N85">
-        <v>34.615384615384599</v>
+        <v>56.25</v>
       </c>
       <c r="O85">
         <v>42.307692307692299</v>
@@ -9769,49 +9769,49 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>32.451923076923102</v>
+        <v>53.365384615384599</v>
       </c>
       <c r="B86">
-        <v>22.115384615384599</v>
+        <v>64.423076923076906</v>
       </c>
       <c r="C86">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D86">
         <v>8500</v>
       </c>
       <c r="E86">
-        <v>50.480769230769198</v>
+        <v>47.836538461538503</v>
       </c>
       <c r="F86">
-        <v>58.173076923076898</v>
+        <v>53.365384615384599</v>
       </c>
       <c r="G86">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="H86">
         <v>8500</v>
       </c>
       <c r="I86">
-        <v>36.538461538461497</v>
+        <v>36.057692307692299</v>
       </c>
       <c r="J86">
-        <v>30.288461538461501</v>
+        <v>29.807692307692299</v>
       </c>
       <c r="K86">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="L86">
         <v>8500</v>
       </c>
       <c r="M86">
-        <v>39.182692307692299</v>
+        <v>49.759615384615401</v>
       </c>
       <c r="N86">
-        <v>35.576923076923102</v>
+        <v>57.211538461538503</v>
       </c>
       <c r="O86">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="P86">
         <v>8500</v>
@@ -9819,49 +9819,49 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>33.653846153846203</v>
+        <v>53.605769230769198</v>
       </c>
       <c r="B87">
-        <v>24.519230769230798</v>
+        <v>64.903846153846203</v>
       </c>
       <c r="C87">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D87">
         <v>8600</v>
       </c>
       <c r="E87">
-        <v>50.721153846153904</v>
+        <v>47.836538461538503</v>
       </c>
       <c r="F87">
-        <v>58.653846153846203</v>
+        <v>53.365384615384599</v>
       </c>
       <c r="G87">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="H87">
         <v>8600</v>
       </c>
       <c r="I87">
-        <v>37.740384615384599</v>
+        <v>37.5</v>
       </c>
       <c r="J87">
         <v>32.692307692307701</v>
       </c>
       <c r="K87">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="L87">
         <v>8600</v>
       </c>
       <c r="M87">
-        <v>39.663461538461497</v>
+        <v>50</v>
       </c>
       <c r="N87">
-        <v>36.538461538461497</v>
+        <v>57.692307692307701</v>
       </c>
       <c r="O87">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="P87">
         <v>8600</v>
@@ -9869,22 +9869,22 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>34.615384615384599</v>
+        <v>55.048076923076898</v>
       </c>
       <c r="B88">
-        <v>26.442307692307701</v>
+        <v>67.788461538461604</v>
       </c>
       <c r="C88">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D88">
         <v>8700</v>
       </c>
       <c r="E88">
-        <v>51.201923076923102</v>
+        <v>48.076923076923102</v>
       </c>
       <c r="F88">
-        <v>60.096153846153904</v>
+        <v>53.846153846153904</v>
       </c>
       <c r="G88">
         <v>42.307692307692299</v>
@@ -9905,10 +9905,10 @@
         <v>8700</v>
       </c>
       <c r="M88">
-        <v>39.423076923076898</v>
+        <v>50.961538461538503</v>
       </c>
       <c r="N88">
-        <v>36.538461538461497</v>
+        <v>59.615384615384599</v>
       </c>
       <c r="O88">
         <v>42.307692307692299</v>
@@ -9919,22 +9919,22 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>35.096153846153904</v>
+        <v>56.009615384615401</v>
       </c>
       <c r="B89">
-        <v>27.403846153846199</v>
+        <v>69.711538461538495</v>
       </c>
       <c r="C89">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D89">
         <v>8800</v>
       </c>
       <c r="E89">
-        <v>51.442307692307701</v>
+        <v>48.317307692307701</v>
       </c>
       <c r="F89">
-        <v>60.576923076923102</v>
+        <v>54.326923076923102</v>
       </c>
       <c r="G89">
         <v>42.307692307692299</v>
@@ -9943,10 +9943,10 @@
         <v>8800</v>
       </c>
       <c r="I89">
-        <v>39.182692307692299</v>
+        <v>38.942307692307701</v>
       </c>
       <c r="J89">
-        <v>36.057692307692299</v>
+        <v>35.576923076923102</v>
       </c>
       <c r="K89">
         <v>42.307692307692299</v>
@@ -9955,10 +9955,10 @@
         <v>8800</v>
       </c>
       <c r="M89">
-        <v>39.663461538461497</v>
+        <v>51.201923076923102</v>
       </c>
       <c r="N89">
-        <v>37.019230769230802</v>
+        <v>60.096153846153904</v>
       </c>
       <c r="O89">
         <v>42.307692307692299</v>
@@ -9969,22 +9969,22 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>35.336538461538503</v>
+        <v>56.009615384615401</v>
       </c>
       <c r="B90">
-        <v>27.884615384615401</v>
+        <v>69.711538461538495</v>
       </c>
       <c r="C90">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D90">
         <v>8900</v>
       </c>
       <c r="E90">
-        <v>51.442307692307701</v>
+        <v>48.317307692307701</v>
       </c>
       <c r="F90">
-        <v>60.576923076923102</v>
+        <v>54.326923076923102</v>
       </c>
       <c r="G90">
         <v>42.307692307692299</v>
@@ -9993,10 +9993,10 @@
         <v>8900</v>
       </c>
       <c r="I90">
-        <v>38.942307692307701</v>
+        <v>39.182692307692299</v>
       </c>
       <c r="J90">
-        <v>35.576923076923102</v>
+        <v>36.057692307692299</v>
       </c>
       <c r="K90">
         <v>42.307692307692299</v>
@@ -10005,10 +10005,10 @@
         <v>8900</v>
       </c>
       <c r="M90">
-        <v>39.903846153846203</v>
+        <v>51.442307692307701</v>
       </c>
       <c r="N90">
-        <v>37.5</v>
+        <v>60.576923076923102</v>
       </c>
       <c r="O90">
         <v>42.307692307692299</v>
@@ -10019,22 +10019,22 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>35.817307692307701</v>
+        <v>56.25</v>
       </c>
       <c r="B91">
-        <v>28.846153846153801</v>
+        <v>70.192307692307693</v>
       </c>
       <c r="C91">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D91">
         <v>9000</v>
       </c>
       <c r="E91">
-        <v>51.923076923076898</v>
+        <v>48.557692307692299</v>
       </c>
       <c r="F91">
-        <v>61.538461538461497</v>
+        <v>54.807692307692299</v>
       </c>
       <c r="G91">
         <v>42.307692307692299</v>
@@ -10055,10 +10055,10 @@
         <v>9000</v>
       </c>
       <c r="M91">
-        <v>41.105769230769198</v>
+        <v>51.442307692307701</v>
       </c>
       <c r="N91">
-        <v>39.903846153846203</v>
+        <v>60.576923076923102</v>
       </c>
       <c r="O91">
         <v>42.307692307692299</v>
@@ -10069,22 +10069,22 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>36.298076923076898</v>
+        <v>57.692307692307701</v>
       </c>
       <c r="B92">
-        <v>29.807692307692299</v>
+        <v>73.076923076923094</v>
       </c>
       <c r="C92">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D92">
         <v>9100</v>
       </c>
       <c r="E92">
-        <v>52.163461538461497</v>
+        <v>48.798076923076898</v>
       </c>
       <c r="F92">
-        <v>62.019230769230802</v>
+        <v>55.288461538461497</v>
       </c>
       <c r="G92">
         <v>42.307692307692299</v>
@@ -10105,10 +10105,10 @@
         <v>9100</v>
       </c>
       <c r="M92">
-        <v>41.346153846153904</v>
+        <v>52.163461538461497</v>
       </c>
       <c r="N92">
-        <v>40.384615384615401</v>
+        <v>62.019230769230802</v>
       </c>
       <c r="O92">
         <v>42.307692307692299</v>
@@ -10119,49 +10119,49 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>38.221153846153904</v>
+        <v>58.173076923076898</v>
       </c>
       <c r="B93">
-        <v>33.653846153846203</v>
+        <v>74.038461538461604</v>
       </c>
       <c r="C93">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D93">
         <v>9200</v>
       </c>
       <c r="E93">
-        <v>52.884615384615401</v>
+        <v>48.798076923076898</v>
       </c>
       <c r="F93">
-        <v>62.980769230769198</v>
+        <v>55.288461538461497</v>
       </c>
       <c r="G93">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="H93">
         <v>9200</v>
       </c>
       <c r="I93">
-        <v>40.865384615384599</v>
+        <v>40.625</v>
       </c>
       <c r="J93">
         <v>38.942307692307701</v>
       </c>
       <c r="K93">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="L93">
         <v>9200</v>
       </c>
       <c r="M93">
-        <v>41.826923076923102</v>
+        <v>52.884615384615401</v>
       </c>
       <c r="N93">
-        <v>40.865384615384599</v>
+        <v>63.461538461538503</v>
       </c>
       <c r="O93">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="P93">
         <v>9200</v>
@@ -10169,49 +10169,49 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>38.942307692307701</v>
+        <v>58.173076923076898</v>
       </c>
       <c r="B94">
-        <v>35.096153846153904</v>
+        <v>74.038461538461604</v>
       </c>
       <c r="C94">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D94">
         <v>9300</v>
       </c>
       <c r="E94">
-        <v>53.365384615384599</v>
+        <v>49.038461538461497</v>
       </c>
       <c r="F94">
-        <v>63.942307692307701</v>
+        <v>55.769230769230802</v>
       </c>
       <c r="G94">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="H94">
         <v>9300</v>
       </c>
       <c r="I94">
-        <v>43.269230769230802</v>
+        <v>43.028846153846203</v>
       </c>
       <c r="J94">
         <v>43.75</v>
       </c>
       <c r="K94">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="L94">
         <v>9300</v>
       </c>
       <c r="M94">
-        <v>42.548076923076898</v>
+        <v>53.125</v>
       </c>
       <c r="N94">
+        <v>63.942307692307701</v>
+      </c>
+      <c r="O94">
         <v>42.307692307692299</v>
-      </c>
-      <c r="O94">
-        <v>42.788461538461497</v>
       </c>
       <c r="P94">
         <v>9300</v>
@@ -10219,22 +10219,22 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>39.903846153846203</v>
+        <v>58.413461538461497</v>
       </c>
       <c r="B95">
-        <v>37.019230769230802</v>
+        <v>74.519230769230802</v>
       </c>
       <c r="C95">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D95">
         <v>9400</v>
       </c>
       <c r="E95">
-        <v>53.605769230769198</v>
+        <v>49.519230769230802</v>
       </c>
       <c r="F95">
-        <v>64.903846153846203</v>
+        <v>56.730769230769198</v>
       </c>
       <c r="G95">
         <v>42.307692307692299</v>
@@ -10255,10 +10255,10 @@
         <v>9400</v>
       </c>
       <c r="M95">
-        <v>42.548076923076898</v>
+        <v>53.125</v>
       </c>
       <c r="N95">
-        <v>42.788461538461497</v>
+        <v>63.942307692307701</v>
       </c>
       <c r="O95">
         <v>42.307692307692299</v>
@@ -10269,22 +10269,22 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>39.903846153846203</v>
+        <v>58.413461538461497</v>
       </c>
       <c r="B96">
-        <v>37.019230769230802</v>
+        <v>74.519230769230802</v>
       </c>
       <c r="C96">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D96">
         <v>9500</v>
       </c>
       <c r="E96">
-        <v>53.605769230769198</v>
+        <v>49.519230769230802</v>
       </c>
       <c r="F96">
-        <v>64.903846153846203</v>
+        <v>56.730769230769198</v>
       </c>
       <c r="G96">
         <v>42.307692307692299</v>
@@ -10305,10 +10305,10 @@
         <v>9500</v>
       </c>
       <c r="M96">
-        <v>43.990384615384599</v>
+        <v>53.365384615384599</v>
       </c>
       <c r="N96">
-        <v>45.673076923076898</v>
+        <v>64.423076923076906</v>
       </c>
       <c r="O96">
         <v>42.307692307692299</v>
@@ -10319,22 +10319,22 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>40.144230769230802</v>
+        <v>58.413461538461497</v>
       </c>
       <c r="B97">
-        <v>37.5</v>
+        <v>74.519230769230802</v>
       </c>
       <c r="C97">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D97">
         <v>9600</v>
       </c>
       <c r="E97">
-        <v>54.086538461538503</v>
+        <v>49.759615384615401</v>
       </c>
       <c r="F97">
-        <v>65.865384615384599</v>
+        <v>57.211538461538503</v>
       </c>
       <c r="G97">
         <v>42.307692307692299</v>
@@ -10355,10 +10355,10 @@
         <v>9600</v>
       </c>
       <c r="M97">
-        <v>45.432692307692299</v>
+        <v>53.365384615384599</v>
       </c>
       <c r="N97">
-        <v>48.557692307692299</v>
+        <v>64.423076923076906</v>
       </c>
       <c r="O97">
         <v>42.307692307692299</v>
@@ -10369,22 +10369,22 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>40.144230769230802</v>
+        <v>58.413461538461497</v>
       </c>
       <c r="B98">
-        <v>37.5</v>
+        <v>74.519230769230802</v>
       </c>
       <c r="C98">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D98">
         <v>9700</v>
       </c>
       <c r="E98">
-        <v>54.807692307692299</v>
+        <v>50.240384615384599</v>
       </c>
       <c r="F98">
-        <v>67.307692307692307</v>
+        <v>58.173076923076898</v>
       </c>
       <c r="G98">
         <v>42.307692307692299</v>
@@ -10393,10 +10393,10 @@
         <v>9700</v>
       </c>
       <c r="I98">
-        <v>44.951923076923102</v>
+        <v>45.192307692307701</v>
       </c>
       <c r="J98">
-        <v>47.596153846153904</v>
+        <v>48.076923076923102</v>
       </c>
       <c r="K98">
         <v>42.307692307692299</v>
@@ -10405,10 +10405,10 @@
         <v>9700</v>
       </c>
       <c r="M98">
-        <v>46.153846153846203</v>
+        <v>53.365384615384599</v>
       </c>
       <c r="N98">
-        <v>50</v>
+        <v>64.423076923076906</v>
       </c>
       <c r="O98">
         <v>42.307692307692299</v>
@@ -10419,22 +10419,22 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>41.105769230769198</v>
+        <v>58.413461538461497</v>
       </c>
       <c r="B99">
-        <v>39.423076923076898</v>
+        <v>74.519230769230802</v>
       </c>
       <c r="C99">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D99">
         <v>9800</v>
       </c>
       <c r="E99">
-        <v>55.528846153846203</v>
+        <v>50.480769230769198</v>
       </c>
       <c r="F99">
-        <v>68.75</v>
+        <v>58.653846153846203</v>
       </c>
       <c r="G99">
         <v>42.307692307692299</v>
@@ -10443,10 +10443,10 @@
         <v>9800</v>
       </c>
       <c r="I99">
-        <v>45.192307692307701</v>
+        <v>45.913461538461497</v>
       </c>
       <c r="J99">
-        <v>48.076923076923102</v>
+        <v>49.519230769230802</v>
       </c>
       <c r="K99">
         <v>42.307692307692299</v>
@@ -10455,10 +10455,10 @@
         <v>9800</v>
       </c>
       <c r="M99">
-        <v>46.394230769230802</v>
+        <v>53.605769230769198</v>
       </c>
       <c r="N99">
-        <v>50.480769230769198</v>
+        <v>64.903846153846203</v>
       </c>
       <c r="O99">
         <v>42.307692307692299</v>
@@ -10469,49 +10469,49 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>41.586538461538503</v>
+        <v>58.413461538461497</v>
       </c>
       <c r="B100">
-        <v>40.384615384615401</v>
+        <v>74.519230769230802</v>
       </c>
       <c r="C100">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D100">
         <v>9900</v>
       </c>
       <c r="E100">
-        <v>56.490384615384599</v>
+        <v>50.961538461538503</v>
       </c>
       <c r="F100">
-        <v>70.192307692307693</v>
+        <v>59.615384615384599</v>
       </c>
       <c r="G100">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="H100">
         <v>9900</v>
       </c>
       <c r="I100">
-        <v>46.394230769230802</v>
+        <v>46.153846153846203</v>
       </c>
       <c r="J100">
         <v>50</v>
       </c>
       <c r="K100">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="L100">
         <v>9900</v>
       </c>
       <c r="M100">
-        <v>48.076923076923102</v>
+        <v>54.807692307692299</v>
       </c>
       <c r="N100">
-        <v>53.365384615384599</v>
+        <v>67.307692307692307</v>
       </c>
       <c r="O100">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="P100">
         <v>9900</v>
@@ -10519,49 +10519,49 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>41.826923076923102</v>
+        <v>58.653846153846203</v>
       </c>
       <c r="B101">
-        <v>40.865384615384599</v>
+        <v>75</v>
       </c>
       <c r="C101">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="D101">
         <v>10000</v>
       </c>
       <c r="E101">
-        <v>56.730769230769198</v>
+        <v>51.201923076923102</v>
       </c>
       <c r="F101">
-        <v>70.673076923076906</v>
+        <v>60.096153846153904</v>
       </c>
       <c r="G101">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="H101">
         <v>10000</v>
       </c>
       <c r="I101">
-        <v>46.634615384615401</v>
+        <v>46.153846153846203</v>
       </c>
       <c r="J101">
-        <v>50.480769230769198</v>
+        <v>50</v>
       </c>
       <c r="K101">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="L101">
         <v>10000</v>
       </c>
       <c r="M101">
-        <v>48.317307692307701</v>
+        <v>56.009615384615401</v>
       </c>
       <c r="N101">
-        <v>53.846153846153904</v>
+        <v>69.711538461538495</v>
       </c>
       <c r="O101">
-        <v>42.788461538461497</v>
+        <v>42.307692307692299</v>
       </c>
       <c r="P101">
         <v>10000</v>
@@ -10577,7 +10577,7 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="I1:P1"/>
+      <selection activeCell="M2" sqref="M2:P101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10734,10 +10734,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.145348837209302</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.290697674418605</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10746,10 +10746,10 @@
         <v>300</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>10.4651162790698</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>20.930232558139501</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -10784,10 +10784,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0</v>
+        <v>9.0116279069767398</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>18.023255813953501</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10796,10 +10796,10 @@
         <v>400</v>
       </c>
       <c r="E5">
-        <v>0.581395348837209</v>
+        <v>24.418604651162799</v>
       </c>
       <c r="F5">
-        <v>1.16279069767442</v>
+        <v>48.837209302325597</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>400</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.68604651162791</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>13.3720930232558</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -10834,10 +10834,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.4534883720930201</v>
+        <v>19.767441860465102</v>
       </c>
       <c r="B6">
-        <v>2.9069767441860499</v>
+        <v>39.534883720930203</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -10846,10 +10846,10 @@
         <v>500</v>
       </c>
       <c r="E6">
-        <v>2.9069767441860499</v>
+        <v>30.087209302325601</v>
       </c>
       <c r="F6">
-        <v>5.81395348837209</v>
+        <v>60.174418604651201</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -10858,10 +10858,10 @@
         <v>500</v>
       </c>
       <c r="I6">
+        <v>0.43604651162790697</v>
+      </c>
+      <c r="J6">
         <v>0.87209302325581395</v>
-      </c>
-      <c r="J6">
-        <v>1.7441860465116299</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -10870,10 +10870,10 @@
         <v>500</v>
       </c>
       <c r="M6">
-        <v>1.0174418604651201</v>
+        <v>0.72674418604651203</v>
       </c>
       <c r="N6">
-        <v>2.03488372093023</v>
+        <v>1.4534883720930201</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -10884,10 +10884,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3.4883720930232598</v>
+        <v>25.290697674418599</v>
       </c>
       <c r="B7">
-        <v>6.9767441860465098</v>
+        <v>50.581395348837198</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>600</v>
       </c>
       <c r="E7">
-        <v>4.9418604651162799</v>
+        <v>36.337209302325597</v>
       </c>
       <c r="F7">
-        <v>9.8837209302325597</v>
+        <v>72.674418604651194</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -10908,10 +10908,10 @@
         <v>600</v>
       </c>
       <c r="I7">
-        <v>2.03488372093023</v>
+        <v>6.1046511627906996</v>
       </c>
       <c r="J7">
-        <v>4.0697674418604697</v>
+        <v>12.209302325581399</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>600</v>
       </c>
       <c r="M7">
-        <v>7.5581395348837201</v>
+        <v>7.2674418604651203</v>
       </c>
       <c r="N7">
-        <v>15.116279069767399</v>
+        <v>14.5348837209302</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -10934,10 +10934,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5.81395348837209</v>
+        <v>30.087209302325601</v>
       </c>
       <c r="B8">
-        <v>11.6279069767442</v>
+        <v>60.174418604651201</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -10946,10 +10946,10 @@
         <v>700</v>
       </c>
       <c r="E8">
-        <v>8.1395348837209305</v>
+        <v>37.9360465116279</v>
       </c>
       <c r="F8">
-        <v>16.2790697674419</v>
+        <v>75.8720930232558</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10958,10 +10958,10 @@
         <v>700</v>
       </c>
       <c r="I8">
-        <v>3.4883720930232598</v>
+        <v>13.0813953488372</v>
       </c>
       <c r="J8">
-        <v>6.9767441860465098</v>
+        <v>26.162790697674399</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -10970,10 +10970,10 @@
         <v>700</v>
       </c>
       <c r="M8">
-        <v>15.116279069767399</v>
+        <v>14.5348837209302</v>
       </c>
       <c r="N8">
-        <v>30.232558139534898</v>
+        <v>29.069767441860499</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -10984,10 +10984,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9.1569767441860499</v>
+        <v>35.901162790697697</v>
       </c>
       <c r="B9">
-        <v>18.3139534883721</v>
+        <v>71.802325581395394</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -10996,10 +10996,10 @@
         <v>800</v>
       </c>
       <c r="E9">
-        <v>12.645348837209299</v>
+        <v>39.534883720930203</v>
       </c>
       <c r="F9">
-        <v>25.290697674418599</v>
+        <v>79.069767441860506</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -11008,10 +11008,10 @@
         <v>800</v>
       </c>
       <c r="I9">
-        <v>5.5232558139534902</v>
+        <v>19.912790697674399</v>
       </c>
       <c r="J9">
-        <v>11.046511627907</v>
+        <v>39.825581395348799</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -11020,10 +11020,10 @@
         <v>800</v>
       </c>
       <c r="M9">
-        <v>20.7848837209302</v>
+        <v>20.639534883720899</v>
       </c>
       <c r="N9">
-        <v>41.569767441860499</v>
+        <v>41.279069767441896</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -11034,10 +11034,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>13.662790697674399</v>
+        <v>36.918604651162802</v>
       </c>
       <c r="B10">
-        <v>27.325581395348799</v>
+        <v>73.837209302325604</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -11046,10 +11046,10 @@
         <v>900</v>
       </c>
       <c r="E10">
-        <v>15.406976744186</v>
+        <v>40.988372093023301</v>
       </c>
       <c r="F10">
-        <v>30.8139534883721</v>
+        <v>81.976744186046503</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -11058,10 +11058,10 @@
         <v>900</v>
       </c>
       <c r="I10">
-        <v>6.5406976744185998</v>
+        <v>24.418604651162799</v>
       </c>
       <c r="J10">
-        <v>13.0813953488372</v>
+        <v>48.837209302325597</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -11084,10 +11084,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>15.406976744186</v>
+        <v>38.226744186046503</v>
       </c>
       <c r="B11">
-        <v>30.8139534883721</v>
+        <v>76.453488372093005</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -11096,10 +11096,10 @@
         <v>1000</v>
       </c>
       <c r="E11">
-        <v>19.767441860465102</v>
+        <v>41.715116279069797</v>
       </c>
       <c r="F11">
-        <v>39.534883720930203</v>
+        <v>83.430232558139494</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -11108,10 +11108,10 @@
         <v>1000</v>
       </c>
       <c r="I11">
-        <v>9.8837209302325597</v>
+        <v>28.343023255814</v>
       </c>
       <c r="J11">
-        <v>19.767441860465102</v>
+        <v>56.6860465116279</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -11120,10 +11120,10 @@
         <v>1000</v>
       </c>
       <c r="M11">
-        <v>27.325581395348799</v>
+        <v>26.889534883720899</v>
       </c>
       <c r="N11">
-        <v>54.651162790697697</v>
+        <v>53.779069767441896</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -11134,10 +11134,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>19.767441860465102</v>
+        <v>39.534883720930203</v>
       </c>
       <c r="B12">
-        <v>39.534883720930203</v>
+        <v>79.069767441860506</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -11146,10 +11146,10 @@
         <v>1100</v>
       </c>
       <c r="E12">
-        <v>22.819767441860499</v>
+        <v>42.441860465116299</v>
       </c>
       <c r="F12">
-        <v>45.639534883720899</v>
+        <v>84.883720930232599</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -11158,10 +11158,10 @@
         <v>1100</v>
       </c>
       <c r="I12">
-        <v>11.6279069767442</v>
+        <v>32.412790697674403</v>
       </c>
       <c r="J12">
-        <v>23.255813953488399</v>
+        <v>64.825581395348905</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -11170,10 +11170,10 @@
         <v>1100</v>
       </c>
       <c r="M12">
-        <v>32.1220930232558</v>
+        <v>31.831395348837201</v>
       </c>
       <c r="N12">
-        <v>64.244186046511601</v>
+        <v>63.662790697674403</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -11184,10 +11184,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>21.656976744186</v>
+        <v>40.843023255814003</v>
       </c>
       <c r="B13">
-        <v>43.3139534883721</v>
+        <v>81.686046511627893</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -11196,10 +11196,10 @@
         <v>1200</v>
       </c>
       <c r="E13">
-        <v>19.912790697674399</v>
+        <v>42.732558139534902</v>
       </c>
       <c r="F13">
-        <v>39.825581395348799</v>
+        <v>85.465116279069804</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -11208,10 +11208,10 @@
         <v>1200</v>
       </c>
       <c r="I13">
-        <v>15.116279069767399</v>
+        <v>35.610465116279101</v>
       </c>
       <c r="J13">
-        <v>30.232558139534898</v>
+        <v>71.220930232558203</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -11220,10 +11220,10 @@
         <v>1200</v>
       </c>
       <c r="M13">
-        <v>35.610465116279101</v>
+        <v>35.319767441860499</v>
       </c>
       <c r="N13">
-        <v>71.220930232558203</v>
+        <v>70.639534883720899</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -11234,10 +11234,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>24.709302325581401</v>
+        <v>41.569767441860499</v>
       </c>
       <c r="B14">
-        <v>49.418604651162802</v>
+        <v>83.139534883720899</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -11246,10 +11246,10 @@
         <v>1300</v>
       </c>
       <c r="E14">
-        <v>20.494186046511601</v>
+        <v>43.895348837209298</v>
       </c>
       <c r="F14">
-        <v>40.988372093023301</v>
+        <v>87.790697674418595</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -11258,10 +11258,10 @@
         <v>1300</v>
       </c>
       <c r="I14">
-        <v>18.023255813953501</v>
+        <v>36.6279069767442</v>
       </c>
       <c r="J14">
-        <v>36.046511627907002</v>
+        <v>73.255813953488399</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -11270,10 +11270,10 @@
         <v>1300</v>
       </c>
       <c r="M14">
-        <v>36.337209302325597</v>
+        <v>36.191860465116299</v>
       </c>
       <c r="N14">
-        <v>72.674418604651194</v>
+        <v>72.383720930232599</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -11284,10 +11284,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>28.197674418604699</v>
+        <v>42.005813953488399</v>
       </c>
       <c r="B15">
-        <v>56.395348837209298</v>
+        <v>84.011627906976798</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>1400</v>
       </c>
       <c r="E15">
-        <v>22.5290697674419</v>
+        <v>45.058139534883701</v>
       </c>
       <c r="F15">
-        <v>45.058139534883701</v>
+        <v>90.116279069767401</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -11308,10 +11308,10 @@
         <v>1400</v>
       </c>
       <c r="I15">
-        <v>19.912790697674399</v>
+        <v>38.081395348837198</v>
       </c>
       <c r="J15">
-        <v>39.825581395348799</v>
+        <v>76.162790697674396</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -11320,10 +11320,10 @@
         <v>1400</v>
       </c>
       <c r="M15">
-        <v>34.447674418604699</v>
+        <v>36.918604651162802</v>
       </c>
       <c r="N15">
-        <v>68.895348837209298</v>
+        <v>73.837209302325604</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -11334,10 +11334,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>29.6511627906977</v>
+        <v>42.441860465116299</v>
       </c>
       <c r="B16">
-        <v>59.302325581395401</v>
+        <v>84.883720930232599</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -11346,10 +11346,10 @@
         <v>1500</v>
       </c>
       <c r="E16">
-        <v>25.145348837209301</v>
+        <v>39.534883720930203</v>
       </c>
       <c r="F16">
-        <v>50.290697674418603</v>
+        <v>79.069767441860506</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -11358,10 +11358,10 @@
         <v>1500</v>
       </c>
       <c r="I16">
-        <v>22.383720930232599</v>
+        <v>38.517441860465098</v>
       </c>
       <c r="J16">
-        <v>44.767441860465098</v>
+        <v>77.034883720930196</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -11370,10 +11370,10 @@
         <v>1500</v>
       </c>
       <c r="M16">
-        <v>32.412790697674403</v>
+        <v>37.9360465116279</v>
       </c>
       <c r="N16">
-        <v>64.825581395348905</v>
+        <v>75.8720930232558</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -11384,10 +11384,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>31.6860465116279</v>
+        <v>43.023255813953497</v>
       </c>
       <c r="B17">
-        <v>63.3720930232558</v>
+        <v>86.046511627906995</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>1600</v>
       </c>
       <c r="E17">
-        <v>26.889534883720899</v>
+        <v>40.261627906976699</v>
       </c>
       <c r="F17">
-        <v>53.779069767441896</v>
+        <v>80.523255813953497</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -11408,10 +11408,10 @@
         <v>1600</v>
       </c>
       <c r="I17">
-        <v>25.145348837209301</v>
+        <v>40.406976744185997</v>
       </c>
       <c r="J17">
-        <v>50.290697674418603</v>
+        <v>80.813953488372107</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -11420,10 +11420,10 @@
         <v>1600</v>
       </c>
       <c r="M17">
-        <v>33.720930232558104</v>
+        <v>38.808139534883701</v>
       </c>
       <c r="N17">
-        <v>67.441860465116307</v>
+        <v>77.616279069767401</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -11434,10 +11434,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>31.104651162790699</v>
+        <v>44.040697674418603</v>
       </c>
       <c r="B18">
-        <v>62.209302325581397</v>
+        <v>88.081395348837205</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -11446,10 +11446,10 @@
         <v>1700</v>
       </c>
       <c r="E18">
-        <v>30.3779069767442</v>
+        <v>40.843023255814003</v>
       </c>
       <c r="F18">
-        <v>60.755813953488399</v>
+        <v>81.686046511627893</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -11458,10 +11458,10 @@
         <v>1700</v>
       </c>
       <c r="I18">
-        <v>26.889534883720899</v>
+        <v>37.0639534883721</v>
       </c>
       <c r="J18">
-        <v>53.779069767441896</v>
+        <v>74.1279069767442</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -11470,10 +11470,10 @@
         <v>1700</v>
       </c>
       <c r="M18">
-        <v>35.755813953488399</v>
+        <v>39.825581395348799</v>
       </c>
       <c r="N18">
-        <v>71.511627906976798</v>
+        <v>79.651162790697697</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -11484,10 +11484,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>29.6511627906977</v>
+        <v>44.767441860465098</v>
       </c>
       <c r="B19">
-        <v>59.302325581395401</v>
+        <v>89.534883720930196</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -11496,10 +11496,10 @@
         <v>1800</v>
       </c>
       <c r="E19">
-        <v>31.25</v>
+        <v>41.569767441860499</v>
       </c>
       <c r="F19">
-        <v>62.5</v>
+        <v>83.139534883720899</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -11508,10 +11508,10 @@
         <v>1800</v>
       </c>
       <c r="I19">
-        <v>29.505813953488399</v>
+        <v>36.337209302325597</v>
       </c>
       <c r="J19">
-        <v>59.011627906976798</v>
+        <v>72.674418604651194</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -11520,10 +11520,10 @@
         <v>1800</v>
       </c>
       <c r="M19">
-        <v>36.191860465116299</v>
+        <v>40.843023255814003</v>
       </c>
       <c r="N19">
-        <v>72.383720930232599</v>
+        <v>81.686046511627893</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -11534,10 +11534,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>30.668604651162799</v>
+        <v>45.058139534883701</v>
       </c>
       <c r="B20">
-        <v>61.337209302325597</v>
+        <v>90.116279069767401</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -11546,10 +11546,10 @@
         <v>1900</v>
       </c>
       <c r="E20">
-        <v>32.267441860465098</v>
+        <v>41.860465116279101</v>
       </c>
       <c r="F20">
-        <v>64.534883720930196</v>
+        <v>83.720930232558203</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -11558,10 +11558,10 @@
         <v>1900</v>
       </c>
       <c r="I20">
-        <v>31.6860465116279</v>
+        <v>36.918604651162802</v>
       </c>
       <c r="J20">
-        <v>63.3720930232558</v>
+        <v>73.837209302325604</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -11570,10 +11570,10 @@
         <v>1900</v>
       </c>
       <c r="M20">
-        <v>36.918604651162802</v>
+        <v>41.133720930232599</v>
       </c>
       <c r="N20">
-        <v>73.837209302325604</v>
+        <v>82.267441860465098</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -11584,10 +11584,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>31.831395348837201</v>
+        <v>45.784883720930203</v>
       </c>
       <c r="B21">
-        <v>63.662790697674403</v>
+        <v>91.569767441860506</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -11596,10 +11596,10 @@
         <v>2000</v>
       </c>
       <c r="E21">
-        <v>34.011627906976699</v>
+        <v>42.151162790697697</v>
       </c>
       <c r="F21">
-        <v>68.023255813953497</v>
+        <v>84.302325581395394</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -11608,10 +11608,10 @@
         <v>2000</v>
       </c>
       <c r="I21">
-        <v>32.412790697674403</v>
+        <v>37.9360465116279</v>
       </c>
       <c r="J21">
-        <v>64.825581395348905</v>
+        <v>75.8720930232558</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -11620,10 +11620,10 @@
         <v>2000</v>
       </c>
       <c r="M21">
-        <v>37.5</v>
+        <v>41.715116279069797</v>
       </c>
       <c r="N21">
-        <v>75</v>
+        <v>83.430232558139494</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -11634,10 +11634,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>32.994186046511601</v>
+        <v>41.279069767441896</v>
       </c>
       <c r="B22">
-        <v>65.988372093023202</v>
+        <v>82.558139534883693</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -11646,10 +11646,10 @@
         <v>2100</v>
       </c>
       <c r="E22">
-        <v>35.465116279069797</v>
+        <v>42.441860465116299</v>
       </c>
       <c r="F22">
-        <v>70.930232558139494</v>
+        <v>84.883720930232599</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -11658,10 +11658,10 @@
         <v>2100</v>
       </c>
       <c r="I22">
-        <v>32.994186046511601</v>
+        <v>38.517441860465098</v>
       </c>
       <c r="J22">
-        <v>65.988372093023202</v>
+        <v>77.034883720930196</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -11670,10 +11670,10 @@
         <v>2100</v>
       </c>
       <c r="M22">
-        <v>38.081395348837198</v>
+        <v>42.005813953488399</v>
       </c>
       <c r="N22">
-        <v>76.162790697674396</v>
+        <v>84.011627906976798</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -11684,10 +11684,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>34.302325581395401</v>
+        <v>41.715116279069797</v>
       </c>
       <c r="B23">
-        <v>68.604651162790702</v>
+        <v>83.430232558139494</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -11696,10 +11696,10 @@
         <v>2200</v>
       </c>
       <c r="E23">
-        <v>36.046511627907002</v>
+        <v>42.732558139534902</v>
       </c>
       <c r="F23">
-        <v>72.093023255814003</v>
+        <v>85.465116279069804</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -11708,10 +11708,10 @@
         <v>2200</v>
       </c>
       <c r="I23">
-        <v>33.866279069767401</v>
+        <v>38.808139534883701</v>
       </c>
       <c r="J23">
-        <v>67.732558139534902</v>
+        <v>77.616279069767401</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -11720,10 +11720,10 @@
         <v>2200</v>
       </c>
       <c r="M23">
-        <v>38.3720930232558</v>
+        <v>42.296511627907002</v>
       </c>
       <c r="N23">
-        <v>76.744186046511601</v>
+        <v>84.593023255814003</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -11734,10 +11734,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>35.755813953488399</v>
+        <v>41.860465116279101</v>
       </c>
       <c r="B24">
-        <v>71.511627906976798</v>
+        <v>83.720930232558203</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -11746,10 +11746,10 @@
         <v>2300</v>
       </c>
       <c r="E24">
-        <v>36.773255813953497</v>
+        <v>43.3139534883721</v>
       </c>
       <c r="F24">
-        <v>73.546511627906995</v>
+        <v>86.6279069767442</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -11758,10 +11758,10 @@
         <v>2300</v>
       </c>
       <c r="I24">
-        <v>35.174418604651201</v>
+        <v>39.970930232558104</v>
       </c>
       <c r="J24">
-        <v>70.348837209302303</v>
+        <v>79.941860465116307</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -11770,10 +11770,10 @@
         <v>2300</v>
       </c>
       <c r="M24">
-        <v>39.098837209302303</v>
+        <v>42.8779069767442</v>
       </c>
       <c r="N24">
-        <v>78.197674418604706</v>
+        <v>85.755813953488399</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -11784,10 +11784,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>36.337209302325597</v>
+        <v>42.296511627907002</v>
       </c>
       <c r="B25">
-        <v>72.674418604651194</v>
+        <v>84.593023255814003</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -11796,10 +11796,10 @@
         <v>2400</v>
       </c>
       <c r="E25">
-        <v>37.5</v>
+        <v>43.604651162790702</v>
       </c>
       <c r="F25">
-        <v>75</v>
+        <v>87.209302325581405</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -11808,10 +11808,10 @@
         <v>2400</v>
       </c>
       <c r="I25">
-        <v>36.191860465116299</v>
+        <v>40.552325581395401</v>
       </c>
       <c r="J25">
-        <v>72.383720930232599</v>
+        <v>81.104651162790702</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -11820,10 +11820,10 @@
         <v>2400</v>
       </c>
       <c r="M25">
-        <v>39.389534883720899</v>
+        <v>43.3139534883721</v>
       </c>
       <c r="N25">
-        <v>78.779069767441896</v>
+        <v>86.6279069767442</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -11834,10 +11834,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>36.918604651162802</v>
+        <v>42.441860465116299</v>
       </c>
       <c r="B26">
-        <v>73.837209302325604</v>
+        <v>84.883720930232599</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -11846,10 +11846,10 @@
         <v>2500</v>
       </c>
       <c r="E26">
-        <v>37.790697674418603</v>
+        <v>44.040697674418603</v>
       </c>
       <c r="F26">
-        <v>75.581395348837205</v>
+        <v>88.081395348837205</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -11858,10 +11858,10 @@
         <v>2500</v>
       </c>
       <c r="I26">
-        <v>36.773255813953497</v>
+        <v>40.988372093023301</v>
       </c>
       <c r="J26">
-        <v>73.546511627906995</v>
+        <v>81.976744186046503</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -11870,10 +11870,10 @@
         <v>2500</v>
       </c>
       <c r="M26">
-        <v>40.116279069767401</v>
+        <v>43.75</v>
       </c>
       <c r="N26">
-        <v>80.232558139534902</v>
+        <v>87.5</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -11884,10 +11884,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>37.5</v>
+        <v>42.732558139534902</v>
       </c>
       <c r="B27">
-        <v>75</v>
+        <v>85.465116279069804</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -11896,10 +11896,10 @@
         <v>2600</v>
       </c>
       <c r="E27">
-        <v>38.081395348837198</v>
+        <v>44.6220930232558</v>
       </c>
       <c r="F27">
-        <v>76.162790697674396</v>
+        <v>89.244186046511601</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -11908,10 +11908,10 @@
         <v>2600</v>
       </c>
       <c r="I27">
-        <v>38.226744186046503</v>
+        <v>41.279069767441896</v>
       </c>
       <c r="J27">
-        <v>76.453488372093005</v>
+        <v>82.558139534883693</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -11920,10 +11920,10 @@
         <v>2600</v>
       </c>
       <c r="M27">
-        <v>40.552325581395401</v>
+        <v>44.6220930232558</v>
       </c>
       <c r="N27">
-        <v>81.104651162790702</v>
+        <v>89.244186046511601</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -11934,10 +11934,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>37.790697674418603</v>
+        <v>43.3139534883721</v>
       </c>
       <c r="B28">
-        <v>75.581395348837205</v>
+        <v>86.6279069767442</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -11946,10 +11946,10 @@
         <v>2700</v>
       </c>
       <c r="E28">
-        <v>38.517441860465098</v>
+        <v>44.767441860465098</v>
       </c>
       <c r="F28">
-        <v>77.034883720930196</v>
+        <v>89.534883720930196</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -11958,10 +11958,10 @@
         <v>2700</v>
       </c>
       <c r="I28">
-        <v>38.808139534883701</v>
+        <v>41.715116279069797</v>
       </c>
       <c r="J28">
-        <v>77.616279069767401</v>
+        <v>83.430232558139494</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -11970,10 +11970,10 @@
         <v>2700</v>
       </c>
       <c r="M28">
-        <v>40.843023255814003</v>
+        <v>44.912790697674403</v>
       </c>
       <c r="N28">
-        <v>81.686046511627893</v>
+        <v>89.825581395348905</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -11984,10 +11984,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>38.081395348837198</v>
+        <v>43.459302325581397</v>
       </c>
       <c r="B29">
-        <v>76.162790697674396</v>
+        <v>86.918604651162795</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -11996,10 +11996,10 @@
         <v>2800</v>
       </c>
       <c r="E29">
-        <v>38.808139534883701</v>
+        <v>45.639534883720899</v>
       </c>
       <c r="F29">
-        <v>77.616279069767401</v>
+        <v>91.279069767441896</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -12008,10 +12008,10 @@
         <v>2800</v>
       </c>
       <c r="I29">
-        <v>38.517441860465098</v>
+        <v>42.005813953488399</v>
       </c>
       <c r="J29">
-        <v>77.034883720930196</v>
+        <v>84.011627906976798</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -12020,10 +12020,10 @@
         <v>2800</v>
       </c>
       <c r="M29">
-        <v>41.279069767441896</v>
+        <v>45.058139534883701</v>
       </c>
       <c r="N29">
-        <v>82.558139534883693</v>
+        <v>90.116279069767401</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -12034,10 +12034,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>38.3720930232558</v>
+        <v>44.1860465116279</v>
       </c>
       <c r="B30">
-        <v>76.744186046511601</v>
+        <v>88.3720930232558</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>2900</v>
       </c>
       <c r="E30">
-        <v>39.244186046511601</v>
+        <v>45.930232558139501</v>
       </c>
       <c r="F30">
-        <v>78.488372093023202</v>
+        <v>91.860465116279101</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -12058,10 +12058,10 @@
         <v>2900</v>
       </c>
       <c r="I30">
-        <v>38.226744186046503</v>
+        <v>42.296511627907002</v>
       </c>
       <c r="J30">
-        <v>76.453488372093005</v>
+        <v>84.593023255814003</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -12070,10 +12070,10 @@
         <v>2900</v>
       </c>
       <c r="M30">
-        <v>42.005813953488399</v>
+        <v>45.639534883720899</v>
       </c>
       <c r="N30">
-        <v>84.011627906976798</v>
+        <v>91.279069767441896</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -12084,10 +12084,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>38.662790697674403</v>
+        <v>44.6220930232558</v>
       </c>
       <c r="B31">
-        <v>77.325581395348905</v>
+        <v>89.244186046511601</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -12096,10 +12096,10 @@
         <v>3000</v>
       </c>
       <c r="E31">
-        <v>40.261627906976699</v>
+        <v>46.220930232558104</v>
       </c>
       <c r="F31">
-        <v>80.523255813953497</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -12108,10 +12108,10 @@
         <v>3000</v>
       </c>
       <c r="I31">
-        <v>38.226744186046503</v>
+        <v>42.441860465116299</v>
       </c>
       <c r="J31">
-        <v>76.453488372093005</v>
+        <v>84.883720930232599</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -12120,10 +12120,10 @@
         <v>3000</v>
       </c>
       <c r="M31">
-        <v>42.005813953488399</v>
+        <v>45.930232558139501</v>
       </c>
       <c r="N31">
-        <v>84.011627906976798</v>
+        <v>91.860465116279101</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -12134,10 +12134,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>39.244186046511601</v>
+        <v>44.767441860465098</v>
       </c>
       <c r="B32">
-        <v>78.488372093023202</v>
+        <v>89.534883720930196</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -12146,10 +12146,10 @@
         <v>3100</v>
       </c>
       <c r="E32">
-        <v>40.697674418604699</v>
+        <v>46.220930232558104</v>
       </c>
       <c r="F32">
-        <v>81.395348837209298</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -12158,10 +12158,10 @@
         <v>3100</v>
       </c>
       <c r="I32">
-        <v>38.226744186046503</v>
+        <v>42.8779069767442</v>
       </c>
       <c r="J32">
-        <v>76.453488372093005</v>
+        <v>85.755813953488399</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -12170,10 +12170,10 @@
         <v>3100</v>
       </c>
       <c r="M32">
-        <v>42.151162790697697</v>
+        <v>46.220930232558104</v>
       </c>
       <c r="N32">
-        <v>84.302325581395394</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -12184,10 +12184,10 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>39.825581395348799</v>
+        <v>44.912790697674403</v>
       </c>
       <c r="B33">
-        <v>79.651162790697697</v>
+        <v>89.825581395348905</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -12196,10 +12196,10 @@
         <v>3200</v>
       </c>
       <c r="E33">
-        <v>40.843023255814003</v>
+        <v>46.220930232558104</v>
       </c>
       <c r="F33">
-        <v>81.686046511627893</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -12208,10 +12208,10 @@
         <v>3200</v>
       </c>
       <c r="I33">
-        <v>38.517441860465098</v>
+        <v>43.3139534883721</v>
       </c>
       <c r="J33">
-        <v>77.034883720930196</v>
+        <v>86.6279069767442</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -12220,10 +12220,10 @@
         <v>3200</v>
       </c>
       <c r="M33">
-        <v>42.441860465116299</v>
+        <v>46.220930232558104</v>
       </c>
       <c r="N33">
-        <v>84.883720930232599</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -12234,10 +12234,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>40.261627906976699</v>
+        <v>45.058139534883701</v>
       </c>
       <c r="B34">
-        <v>80.523255813953497</v>
+        <v>90.116279069767401</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -12246,10 +12246,10 @@
         <v>3300</v>
       </c>
       <c r="E34">
-        <v>41.133720930232599</v>
+        <v>46.220930232558104</v>
       </c>
       <c r="F34">
-        <v>82.267441860465098</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -12258,10 +12258,10 @@
         <v>3300</v>
       </c>
       <c r="I34">
-        <v>38.808139534883701</v>
+        <v>43.75</v>
       </c>
       <c r="J34">
-        <v>77.616279069767401</v>
+        <v>87.5</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -12270,10 +12270,10 @@
         <v>3300</v>
       </c>
       <c r="M34">
-        <v>42.587209302325597</v>
+        <v>46.220930232558104</v>
       </c>
       <c r="N34">
-        <v>85.174418604651194</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -12284,10 +12284,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>40.552325581395401</v>
+        <v>45.639534883720899</v>
       </c>
       <c r="B35">
-        <v>81.104651162790702</v>
+        <v>91.279069767441896</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -12296,10 +12296,10 @@
         <v>3400</v>
       </c>
       <c r="E35">
-        <v>41.279069767441896</v>
+        <v>46.511627906976699</v>
       </c>
       <c r="F35">
-        <v>82.558139534883693</v>
+        <v>93.023255813953497</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -12308,10 +12308,10 @@
         <v>3400</v>
       </c>
       <c r="I35">
-        <v>39.534883720930203</v>
+        <v>44.6220930232558</v>
       </c>
       <c r="J35">
-        <v>79.069767441860506</v>
+        <v>89.244186046511601</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -12320,10 +12320,10 @@
         <v>3400</v>
       </c>
       <c r="M35">
-        <v>43.023255813953497</v>
+        <v>46.366279069767401</v>
       </c>
       <c r="N35">
-        <v>86.046511627906995</v>
+        <v>92.732558139534902</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -12334,10 +12334,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>40.843023255814003</v>
+        <v>45.930232558139501</v>
       </c>
       <c r="B36">
-        <v>81.686046511627893</v>
+        <v>91.860465116279101</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -12346,10 +12346,10 @@
         <v>3500</v>
       </c>
       <c r="E36">
-        <v>41.569767441860499</v>
+        <v>46.656976744185997</v>
       </c>
       <c r="F36">
-        <v>83.139534883720899</v>
+        <v>93.313953488372107</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -12358,10 +12358,10 @@
         <v>3500</v>
       </c>
       <c r="I36">
-        <v>39.970930232558104</v>
+        <v>44.767441860465098</v>
       </c>
       <c r="J36">
-        <v>79.941860465116307</v>
+        <v>89.534883720930196</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -12370,10 +12370,10 @@
         <v>3500</v>
       </c>
       <c r="M36">
-        <v>43.459302325581397</v>
+        <v>43.3139534883721</v>
       </c>
       <c r="N36">
-        <v>86.918604651162795</v>
+        <v>86.6279069767442</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -12384,10 +12384,10 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>41.133720930232599</v>
+        <v>46.075581395348799</v>
       </c>
       <c r="B37">
-        <v>82.267441860465098</v>
+        <v>92.151162790697697</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -12396,10 +12396,10 @@
         <v>3600</v>
       </c>
       <c r="E37">
-        <v>41.860465116279101</v>
+        <v>46.802325581395401</v>
       </c>
       <c r="F37">
-        <v>83.720930232558203</v>
+        <v>93.604651162790702</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -12408,10 +12408,10 @@
         <v>3600</v>
       </c>
       <c r="I37">
-        <v>40.697674418604699</v>
+        <v>44.912790697674403</v>
       </c>
       <c r="J37">
-        <v>81.395348837209298</v>
+        <v>89.825581395348905</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -12434,10 +12434,10 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>41.279069767441896</v>
+        <v>46.220930232558104</v>
       </c>
       <c r="B38">
-        <v>82.558139534883693</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -12446,10 +12446,10 @@
         <v>3700</v>
       </c>
       <c r="E38">
-        <v>42.005813953488399</v>
+        <v>46.947674418604699</v>
       </c>
       <c r="F38">
-        <v>84.011627906976798</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -12458,10 +12458,10 @@
         <v>3700</v>
       </c>
       <c r="I38">
-        <v>40.988372093023301</v>
+        <v>45.058139534883701</v>
       </c>
       <c r="J38">
-        <v>81.976744186046503</v>
+        <v>90.116279069767401</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -12470,10 +12470,10 @@
         <v>3700</v>
       </c>
       <c r="M38">
-        <v>44.1860465116279</v>
+        <v>43.604651162790702</v>
       </c>
       <c r="N38">
-        <v>88.3720930232558</v>
+        <v>87.209302325581405</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -12484,10 +12484,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>41.569767441860499</v>
+        <v>46.220930232558104</v>
       </c>
       <c r="B39">
-        <v>83.139534883720899</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -12496,10 +12496,10 @@
         <v>3800</v>
       </c>
       <c r="E39">
-        <v>42.151162790697697</v>
+        <v>46.947674418604699</v>
       </c>
       <c r="F39">
-        <v>84.302325581395394</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -12508,10 +12508,10 @@
         <v>3800</v>
       </c>
       <c r="I39">
-        <v>40.116279069767401</v>
+        <v>45.639534883720899</v>
       </c>
       <c r="J39">
-        <v>80.232558139534902</v>
+        <v>91.279069767441896</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -12520,10 +12520,10 @@
         <v>3800</v>
       </c>
       <c r="M39">
-        <v>44.1860465116279</v>
+        <v>44.040697674418603</v>
       </c>
       <c r="N39">
-        <v>88.3720930232558</v>
+        <v>88.081395348837205</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -12534,10 +12534,10 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>41.860465116279101</v>
+        <v>46.220930232558104</v>
       </c>
       <c r="B40">
-        <v>83.720930232558203</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -12546,10 +12546,10 @@
         <v>3900</v>
       </c>
       <c r="E40">
-        <v>42.151162790697697</v>
+        <v>47.093023255814003</v>
       </c>
       <c r="F40">
-        <v>84.302325581395394</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -12558,10 +12558,10 @@
         <v>3900</v>
       </c>
       <c r="I40">
-        <v>39.098837209302303</v>
+        <v>45.784883720930203</v>
       </c>
       <c r="J40">
-        <v>78.197674418604706</v>
+        <v>91.569767441860506</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -12584,10 +12584,10 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>42.005813953488399</v>
+        <v>46.511627906976699</v>
       </c>
       <c r="B41">
-        <v>84.011627906976798</v>
+        <v>93.023255813953497</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -12596,10 +12596,10 @@
         <v>4000</v>
       </c>
       <c r="E41">
-        <v>42.296511627907002</v>
+        <v>47.093023255814003</v>
       </c>
       <c r="F41">
-        <v>84.593023255814003</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -12608,10 +12608,10 @@
         <v>4000</v>
       </c>
       <c r="I41">
-        <v>39.244186046511601</v>
+        <v>45.930232558139501</v>
       </c>
       <c r="J41">
-        <v>78.488372093023202</v>
+        <v>91.860465116279101</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -12620,10 +12620,10 @@
         <v>4000</v>
       </c>
       <c r="M41">
-        <v>44.912790697674403</v>
+        <v>44.767441860465098</v>
       </c>
       <c r="N41">
-        <v>89.825581395348905</v>
+        <v>89.534883720930196</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -12634,10 +12634,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>42.151162790697697</v>
+        <v>46.511627906976699</v>
       </c>
       <c r="B42">
-        <v>84.302325581395394</v>
+        <v>93.023255813953497</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -12646,10 +12646,10 @@
         <v>4100</v>
       </c>
       <c r="E42">
-        <v>42.732558139534902</v>
+        <v>47.093023255814003</v>
       </c>
       <c r="F42">
-        <v>85.465116279069804</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -12658,10 +12658,10 @@
         <v>4100</v>
       </c>
       <c r="I42">
-        <v>40.116279069767401</v>
+        <v>46.220930232558104</v>
       </c>
       <c r="J42">
-        <v>80.232558139534902</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -12670,10 +12670,10 @@
         <v>4100</v>
       </c>
       <c r="M42">
-        <v>45.058139534883701</v>
+        <v>44.912790697674403</v>
       </c>
       <c r="N42">
-        <v>90.116279069767401</v>
+        <v>89.825581395348905</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -12684,10 +12684,10 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42.732558139534902</v>
+        <v>47.238372093023301</v>
       </c>
       <c r="B43">
-        <v>84.302325581395394</v>
+        <v>93.313953488372107</v>
       </c>
       <c r="C43">
         <v>1.16279069767442</v>
@@ -12696,10 +12696,10 @@
         <v>4200</v>
       </c>
       <c r="E43">
-        <v>43.459302325581397</v>
+        <v>47.674418604651201</v>
       </c>
       <c r="F43">
-        <v>85.755813953488399</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="G43">
         <v>1.16279069767442</v>
@@ -12708,22 +12708,22 @@
         <v>4200</v>
       </c>
       <c r="I43">
-        <v>40.843023255814003</v>
+        <v>46.511627906976699</v>
       </c>
       <c r="J43">
-        <v>80.813953488372107</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="K43">
-        <v>0.87209302325581395</v>
+        <v>0.581395348837209</v>
       </c>
       <c r="L43">
         <v>4200</v>
       </c>
       <c r="M43">
-        <v>45.639534883720899</v>
+        <v>45.494186046511601</v>
       </c>
       <c r="N43">
-        <v>90.406976744186096</v>
+        <v>90.116279069767401</v>
       </c>
       <c r="O43">
         <v>0.87209302325581395</v>
@@ -12734,22 +12734,22 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>44.1860465116279</v>
+        <v>48.401162790697697</v>
       </c>
       <c r="B44">
-        <v>84.593023255814003</v>
+        <v>93.604651162790702</v>
       </c>
       <c r="C44">
-        <v>3.7790697674418601</v>
+        <v>3.1976744186046502</v>
       </c>
       <c r="D44">
         <v>4300</v>
       </c>
       <c r="E44">
-        <v>45.058139534883701</v>
+        <v>49.273255813953497</v>
       </c>
       <c r="F44">
-        <v>86.046511627906995</v>
+        <v>94.476744186046503</v>
       </c>
       <c r="G44">
         <v>4.0697674418604697</v>
@@ -12758,22 +12758,22 @@
         <v>4300</v>
       </c>
       <c r="I44">
-        <v>42.296511627907002</v>
+        <v>47.383720930232599</v>
       </c>
       <c r="J44">
-        <v>81.395348837209298</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="K44">
-        <v>3.1976744186046502</v>
+        <v>2.32558139534884</v>
       </c>
       <c r="L44">
         <v>4300</v>
       </c>
       <c r="M44">
-        <v>46.656976744185997</v>
+        <v>46.366279069767401</v>
       </c>
       <c r="N44">
-        <v>90.697674418604706</v>
+        <v>90.116279069767401</v>
       </c>
       <c r="O44">
         <v>2.6162790697674398</v>
@@ -12784,49 +12784,49 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>46.220930232558104</v>
+        <v>50.4360465116279</v>
       </c>
       <c r="B45">
-        <v>85.174418604651194</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="C45">
-        <v>7.2674418604651203</v>
+        <v>6.9767441860465098</v>
       </c>
       <c r="D45">
         <v>4400</v>
       </c>
       <c r="E45">
-        <v>47.529069767441896</v>
+        <v>51.744186046511601</v>
       </c>
       <c r="F45">
-        <v>86.6279069767442</v>
+        <v>94.767441860465098</v>
       </c>
       <c r="G45">
-        <v>8.4302325581395401</v>
+        <v>8.7209302325581408</v>
       </c>
       <c r="H45">
         <v>4400</v>
       </c>
       <c r="I45">
-        <v>44.476744186046503</v>
+        <v>48.401162790697697</v>
       </c>
       <c r="J45">
-        <v>81.686046511627893</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="K45">
-        <v>7.2674418604651203</v>
+        <v>4.3604651162790704</v>
       </c>
       <c r="L45">
         <v>4400</v>
       </c>
       <c r="M45">
-        <v>48.546511627907002</v>
+        <v>48.837209302325597</v>
       </c>
       <c r="N45">
-        <v>91.279069767441896</v>
+        <v>91.569767441860506</v>
       </c>
       <c r="O45">
-        <v>5.81395348837209</v>
+        <v>6.1046511627906996</v>
       </c>
       <c r="P45">
         <v>4400</v>
@@ -12834,49 +12834,49 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>52.034883720930203</v>
+        <v>56.6860465116279</v>
       </c>
       <c r="B46">
-        <v>85.465116279069804</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="C46">
-        <v>18.604651162790699</v>
+        <v>19.476744186046499</v>
       </c>
       <c r="D46">
         <v>4500</v>
       </c>
       <c r="E46">
-        <v>53.488372093023301</v>
+        <v>58.430232558139501</v>
       </c>
       <c r="F46">
-        <v>86.918604651162795</v>
+        <v>95.058139534883693</v>
       </c>
       <c r="G46">
-        <v>20.058139534883701</v>
+        <v>21.802325581395301</v>
       </c>
       <c r="H46">
         <v>4500</v>
       </c>
       <c r="I46">
-        <v>48.546511627907002</v>
+        <v>52.761627906976699</v>
       </c>
       <c r="J46">
-        <v>82.267441860465098</v>
+        <v>92.732558139534902</v>
       </c>
       <c r="K46">
-        <v>14.8255813953488</v>
+        <v>12.790697674418601</v>
       </c>
       <c r="L46">
         <v>4500</v>
       </c>
       <c r="M46">
-        <v>52.034883720930203</v>
+        <v>54.360465116279101</v>
       </c>
       <c r="N46">
-        <v>91.569767441860506</v>
+        <v>91.860465116279101</v>
       </c>
       <c r="O46">
-        <v>12.5</v>
+        <v>16.860465116279101</v>
       </c>
       <c r="P46">
         <v>4500</v>
@@ -12884,49 +12884,49 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>59.593023255814003</v>
+        <v>61.191860465116299</v>
       </c>
       <c r="B47">
-        <v>85.465116279069804</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="C47">
-        <v>33.720930232558104</v>
+        <v>28.488372093023301</v>
       </c>
       <c r="D47">
         <v>4600</v>
       </c>
       <c r="E47">
-        <v>61.191860465116299</v>
+        <v>63.953488372092998</v>
       </c>
       <c r="F47">
-        <v>87.5</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="G47">
-        <v>34.883720930232599</v>
+        <v>32.558139534883701</v>
       </c>
       <c r="H47">
         <v>4600</v>
       </c>
       <c r="I47">
-        <v>55.232558139534902</v>
+        <v>57.848837209302303</v>
       </c>
       <c r="J47">
-        <v>82.558139534883693</v>
+        <v>93.023255813953497</v>
       </c>
       <c r="K47">
-        <v>27.906976744186</v>
+        <v>22.674418604651201</v>
       </c>
       <c r="L47">
         <v>4600</v>
       </c>
       <c r="M47">
-        <v>56.976744186046503</v>
+        <v>59.156976744185997</v>
       </c>
       <c r="N47">
-        <v>91.860465116279101</v>
+        <v>92.151162790697697</v>
       </c>
       <c r="O47">
-        <v>22.093023255814</v>
+        <v>26.162790697674399</v>
       </c>
       <c r="P47">
         <v>4600</v>
@@ -12934,49 +12934,49 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>67.151162790697697</v>
+        <v>68.459302325581405</v>
       </c>
       <c r="B48">
-        <v>86.337209302325604</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="C48">
-        <v>47.965116279069797</v>
+        <v>42.732558139534902</v>
       </c>
       <c r="D48">
         <v>4700</v>
       </c>
       <c r="E48">
-        <v>68.895348837209298</v>
+        <v>71.947674418604706</v>
       </c>
       <c r="F48">
-        <v>88.662790697674396</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="G48">
-        <v>49.1279069767442</v>
+        <v>48.546511627907002</v>
       </c>
       <c r="H48">
         <v>4700</v>
       </c>
       <c r="I48">
-        <v>63.517441860465098</v>
+        <v>63.953488372092998</v>
       </c>
       <c r="J48">
-        <v>82.558139534883693</v>
+        <v>93.023255813953497</v>
       </c>
       <c r="K48">
-        <v>44.476744186046503</v>
+        <v>34.883720930232599</v>
       </c>
       <c r="L48">
         <v>4700</v>
       </c>
       <c r="M48">
-        <v>63.662790697674403</v>
+        <v>66.569767441860506</v>
       </c>
       <c r="N48">
         <v>92.441860465116307</v>
       </c>
       <c r="O48">
-        <v>34.883720930232599</v>
+        <v>40.697674418604699</v>
       </c>
       <c r="P48">
         <v>4700</v>
@@ -12984,49 +12984,49 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>74.709302325581405</v>
+        <v>75.726744186046503</v>
       </c>
       <c r="B49">
-        <v>86.6279069767442</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="C49">
-        <v>62.790697674418603</v>
+        <v>57.267441860465098</v>
       </c>
       <c r="D49">
         <v>4800</v>
       </c>
       <c r="E49">
-        <v>78.488372093023301</v>
+        <v>78.343023255814003</v>
       </c>
       <c r="F49">
-        <v>88.953488372093005</v>
+        <v>95.639534883720899</v>
       </c>
       <c r="G49">
-        <v>68.023255813953497</v>
+        <v>61.046511627907002</v>
       </c>
       <c r="H49">
         <v>4800</v>
       </c>
       <c r="I49">
-        <v>66.569767441860506</v>
+        <v>68.895348837209298</v>
       </c>
       <c r="J49">
-        <v>82.848837209302303</v>
+        <v>93.604651162790702</v>
       </c>
       <c r="K49">
-        <v>50.290697674418603</v>
+        <v>44.1860465116279</v>
       </c>
       <c r="L49">
         <v>4800</v>
       </c>
       <c r="M49">
-        <v>69.186046511627893</v>
+        <v>70.639534883720899</v>
       </c>
       <c r="N49">
-        <v>93.023255813953497</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="O49">
-        <v>45.348837209302303</v>
+        <v>48.837209302325597</v>
       </c>
       <c r="P49">
         <v>4800</v>
@@ -13034,49 +13034,49 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>79.651162790697697</v>
+        <v>78.343023255814003</v>
       </c>
       <c r="B50">
-        <v>87.5</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="C50">
-        <v>71.802325581395394</v>
+        <v>62.5</v>
       </c>
       <c r="D50">
         <v>4900</v>
       </c>
       <c r="E50">
-        <v>80.523255813953497</v>
+        <v>81.540697674418595</v>
       </c>
       <c r="F50">
-        <v>89.244186046511601</v>
+        <v>95.930232558139494</v>
       </c>
       <c r="G50">
-        <v>71.802325581395394</v>
+        <v>67.151162790697697</v>
       </c>
       <c r="H50">
         <v>4900</v>
       </c>
       <c r="I50">
-        <v>73.837209302325604</v>
+        <v>73.982558139534902</v>
       </c>
       <c r="J50">
-        <v>83.430232558139494</v>
+        <v>93.604651162790702</v>
       </c>
       <c r="K50">
-        <v>64.244186046511601</v>
+        <v>54.360465116279101</v>
       </c>
       <c r="L50">
         <v>4900</v>
       </c>
       <c r="M50">
-        <v>73.546511627906995</v>
+        <v>75.290697674418595</v>
       </c>
       <c r="N50">
-        <v>91.279069767441896</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="O50">
-        <v>55.8139534883721</v>
+        <v>58.139534883720899</v>
       </c>
       <c r="P50">
         <v>4900</v>
@@ -13084,22 +13084,22 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>80.232558139534902</v>
+        <v>82.267441860465098</v>
       </c>
       <c r="B51">
-        <v>88.662790697674396</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="C51">
-        <v>71.802325581395394</v>
+        <v>70.348837209302303</v>
       </c>
       <c r="D51">
         <v>5000</v>
       </c>
       <c r="E51">
-        <v>80.523255813953497</v>
+        <v>84.011627906976699</v>
       </c>
       <c r="F51">
-        <v>89.244186046511601</v>
+        <v>96.220930232558203</v>
       </c>
       <c r="G51">
         <v>71.802325581395394</v>
@@ -13108,25 +13108,25 @@
         <v>5000</v>
       </c>
       <c r="I51">
-        <v>77.616279069767401</v>
+        <v>75.581395348837205</v>
       </c>
       <c r="J51">
-        <v>83.430232558139494</v>
+        <v>91.279069767441896</v>
       </c>
       <c r="K51">
-        <v>71.802325581395394</v>
+        <v>59.883720930232599</v>
       </c>
       <c r="L51">
         <v>5000</v>
       </c>
       <c r="M51">
-        <v>75.436046511627893</v>
+        <v>77.325581395348806</v>
       </c>
       <c r="N51">
-        <v>89.244186046511601</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="O51">
-        <v>61.6279069767442</v>
+        <v>62.209302325581397</v>
       </c>
       <c r="P51">
         <v>5000</v>
@@ -13134,10 +13134,10 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>80.3779069767442</v>
+        <v>82.994186046511601</v>
       </c>
       <c r="B52">
-        <v>88.953488372093005</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="C52">
         <v>71.802325581395394</v>
@@ -13146,10 +13146,10 @@
         <v>5100</v>
       </c>
       <c r="E52">
-        <v>79.796511627906995</v>
+        <v>82.994186046511601</v>
       </c>
       <c r="F52">
-        <v>87.790697674418595</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="G52">
         <v>71.802325581395394</v>
@@ -13158,25 +13158,25 @@
         <v>5100</v>
       </c>
       <c r="I52">
-        <v>77.906976744186096</v>
+        <v>76.453488372093005</v>
       </c>
       <c r="J52">
-        <v>84.011627906976798</v>
+        <v>90.116279069767401</v>
       </c>
       <c r="K52">
-        <v>71.802325581395394</v>
+        <v>62.790697674418603</v>
       </c>
       <c r="L52">
         <v>5100</v>
       </c>
       <c r="M52">
-        <v>79.360465116279101</v>
+        <v>81.25</v>
       </c>
       <c r="N52">
-        <v>88.662790697674396</v>
+        <v>92.732558139534902</v>
       </c>
       <c r="O52">
-        <v>70.058139534883693</v>
+        <v>69.767441860465098</v>
       </c>
       <c r="P52">
         <v>5100</v>
@@ -13184,10 +13184,10 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>80.668604651162795</v>
+        <v>83.139534883720899</v>
       </c>
       <c r="B53">
-        <v>89.534883720930196</v>
+        <v>94.476744186046503</v>
       </c>
       <c r="C53">
         <v>71.802325581395394</v>
@@ -13196,10 +13196,10 @@
         <v>5200</v>
       </c>
       <c r="E53">
-        <v>78.488372093023301</v>
+        <v>82.412790697674396</v>
       </c>
       <c r="F53">
-        <v>85.174418604651194</v>
+        <v>93.023255813953497</v>
       </c>
       <c r="G53">
         <v>71.802325581395394</v>
@@ -13208,25 +13208,25 @@
         <v>5200</v>
       </c>
       <c r="I53">
-        <v>78.052325581395394</v>
+        <v>79.215116279069804</v>
       </c>
       <c r="J53">
-        <v>84.302325581395394</v>
+        <v>90.116279069767401</v>
       </c>
       <c r="K53">
-        <v>71.802325581395394</v>
+        <v>68.313953488372107</v>
       </c>
       <c r="L53">
         <v>5200</v>
       </c>
       <c r="M53">
-        <v>79.941860465116307</v>
+        <v>82.412790697674396</v>
       </c>
       <c r="N53">
-        <v>88.3720930232558</v>
+        <v>93.023255813953497</v>
       </c>
       <c r="O53">
-        <v>71.511627906976798</v>
+        <v>71.802325581395394</v>
       </c>
       <c r="P53">
         <v>5200</v>
@@ -13234,10 +13234,10 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>80.668604651162795</v>
+        <v>83.284883720930196</v>
       </c>
       <c r="B54">
-        <v>89.534883720930196</v>
+        <v>94.767441860465098</v>
       </c>
       <c r="C54">
         <v>71.802325581395394</v>
@@ -13246,10 +13246,10 @@
         <v>5300</v>
       </c>
       <c r="E54">
-        <v>78.633720930232599</v>
+        <v>82.412790697674396</v>
       </c>
       <c r="F54">
-        <v>85.465116279069804</v>
+        <v>93.023255813953497</v>
       </c>
       <c r="G54">
         <v>71.802325581395394</v>
@@ -13258,10 +13258,10 @@
         <v>5300</v>
       </c>
       <c r="I54">
-        <v>78.197674418604706</v>
+        <v>81.540697674418595</v>
       </c>
       <c r="J54">
-        <v>84.593023255814003</v>
+        <v>91.279069767441896</v>
       </c>
       <c r="K54">
         <v>71.802325581395394</v>
@@ -13270,10 +13270,10 @@
         <v>5300</v>
       </c>
       <c r="M54">
-        <v>80.668604651162795</v>
+        <v>82.412790697674396</v>
       </c>
       <c r="N54">
-        <v>89.534883720930196</v>
+        <v>93.023255813953497</v>
       </c>
       <c r="O54">
         <v>71.802325581395394</v>
@@ -13284,10 +13284,10 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>80.813953488372107</v>
+        <v>83.284883720930196</v>
       </c>
       <c r="B55">
-        <v>89.825581395348905</v>
+        <v>94.767441860465098</v>
       </c>
       <c r="C55">
         <v>71.802325581395394</v>
@@ -13296,10 +13296,10 @@
         <v>5400</v>
       </c>
       <c r="E55">
-        <v>78.779069767441896</v>
+        <v>82.558139534883693</v>
       </c>
       <c r="F55">
-        <v>85.755813953488399</v>
+        <v>93.313953488372107</v>
       </c>
       <c r="G55">
         <v>71.802325581395394</v>
@@ -13308,10 +13308,10 @@
         <v>5400</v>
       </c>
       <c r="I55">
-        <v>78.343023255814003</v>
+        <v>81.686046511627893</v>
       </c>
       <c r="J55">
-        <v>84.883720930232599</v>
+        <v>91.569767441860506</v>
       </c>
       <c r="K55">
         <v>71.802325581395394</v>
@@ -13320,13 +13320,13 @@
         <v>5400</v>
       </c>
       <c r="M55">
-        <v>81.25</v>
+        <v>82.558139534883693</v>
       </c>
       <c r="N55">
-        <v>90.116279069767401</v>
+        <v>93.313953488372107</v>
       </c>
       <c r="O55">
-        <v>72.383720930232599</v>
+        <v>71.802325581395394</v>
       </c>
       <c r="P55">
         <v>5400</v>
@@ -13334,10 +13334,10 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>80.959302325581405</v>
+        <v>83.430232558139494</v>
       </c>
       <c r="B56">
-        <v>90.116279069767401</v>
+        <v>95.058139534883693</v>
       </c>
       <c r="C56">
         <v>71.802325581395394</v>
@@ -13346,10 +13346,10 @@
         <v>5500</v>
       </c>
       <c r="E56">
-        <v>78.779069767441896</v>
+        <v>82.703488372093005</v>
       </c>
       <c r="F56">
-        <v>85.755813953488399</v>
+        <v>93.604651162790702</v>
       </c>
       <c r="G56">
         <v>71.802325581395394</v>
@@ -13358,10 +13358,10 @@
         <v>5500</v>
       </c>
       <c r="I56">
-        <v>78.488372093023301</v>
+        <v>81.831395348837205</v>
       </c>
       <c r="J56">
-        <v>85.174418604651194</v>
+        <v>91.860465116279101</v>
       </c>
       <c r="K56">
         <v>71.802325581395394</v>
@@ -13370,10 +13370,10 @@
         <v>5500</v>
       </c>
       <c r="M56">
-        <v>80.813953488372107</v>
+        <v>82.703488372093005</v>
       </c>
       <c r="N56">
-        <v>89.825581395348905</v>
+        <v>93.604651162790702</v>
       </c>
       <c r="O56">
         <v>71.802325581395394</v>
@@ -13384,10 +13384,10 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>80.959302325581405</v>
+        <v>83.575581395348806</v>
       </c>
       <c r="B57">
-        <v>90.116279069767401</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="C57">
         <v>71.802325581395394</v>
@@ -13396,10 +13396,10 @@
         <v>5600</v>
       </c>
       <c r="E57">
-        <v>79.069767441860506</v>
+        <v>82.848837209302303</v>
       </c>
       <c r="F57">
-        <v>86.337209302325604</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="G57">
         <v>71.802325581395394</v>
@@ -13408,10 +13408,10 @@
         <v>5600</v>
       </c>
       <c r="I57">
-        <v>78.633720930232599</v>
+        <v>81.976744186046503</v>
       </c>
       <c r="J57">
-        <v>85.465116279069804</v>
+        <v>92.151162790697697</v>
       </c>
       <c r="K57">
         <v>71.802325581395394</v>
@@ -13420,10 +13420,10 @@
         <v>5600</v>
       </c>
       <c r="M57">
-        <v>80.959302325581405</v>
+        <v>82.848837209302303</v>
       </c>
       <c r="N57">
-        <v>90.116279069767401</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="O57">
         <v>71.802325581395394</v>
@@ -13434,10 +13434,10 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>80.959302325581405</v>
+        <v>83.575581395348806</v>
       </c>
       <c r="B58">
-        <v>90.116279069767401</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="C58">
         <v>71.802325581395394</v>
@@ -13446,10 +13446,10 @@
         <v>5700</v>
       </c>
       <c r="E58">
-        <v>79.215116279069804</v>
+        <v>82.848837209302303</v>
       </c>
       <c r="F58">
-        <v>86.6279069767442</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="G58">
         <v>71.802325581395394</v>
@@ -13458,10 +13458,10 @@
         <v>5700</v>
       </c>
       <c r="I58">
-        <v>78.779069767441896</v>
+        <v>81.976744186046503</v>
       </c>
       <c r="J58">
-        <v>85.755813953488399</v>
+        <v>92.151162790697697</v>
       </c>
       <c r="K58">
         <v>71.802325581395394</v>
@@ -13470,10 +13470,10 @@
         <v>5700</v>
       </c>
       <c r="M58">
-        <v>80.959302325581405</v>
+        <v>82.848837209302303</v>
       </c>
       <c r="N58">
-        <v>90.116279069767401</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="O58">
         <v>71.802325581395394</v>
@@ -13484,10 +13484,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>80.523255813953497</v>
+        <v>83.720930232558203</v>
       </c>
       <c r="B59">
-        <v>89.244186046511601</v>
+        <v>95.639534883720899</v>
       </c>
       <c r="C59">
         <v>71.802325581395394</v>
@@ -13496,10 +13496,10 @@
         <v>5800</v>
       </c>
       <c r="E59">
-        <v>79.505813953488399</v>
+        <v>82.848837209302303</v>
       </c>
       <c r="F59">
-        <v>87.209302325581405</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="G59">
         <v>71.802325581395394</v>
@@ -13508,10 +13508,10 @@
         <v>5800</v>
       </c>
       <c r="I59">
-        <v>78.779069767441896</v>
+        <v>82.1220930232558</v>
       </c>
       <c r="J59">
-        <v>85.755813953488399</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="K59">
         <v>71.802325581395394</v>
@@ -13520,13 +13520,13 @@
         <v>5800</v>
       </c>
       <c r="M59">
-        <v>81.25</v>
+        <v>82.848837209302303</v>
       </c>
       <c r="N59">
-        <v>90.406976744186096</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="O59">
-        <v>72.093023255814003</v>
+        <v>71.802325581395394</v>
       </c>
       <c r="P59">
         <v>5800</v>
@@ -13534,10 +13534,10 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>79.505813953488399</v>
+        <v>83.430232558139494</v>
       </c>
       <c r="B60">
-        <v>87.209302325581405</v>
+        <v>95.058139534883693</v>
       </c>
       <c r="C60">
         <v>71.802325581395394</v>
@@ -13546,10 +13546,10 @@
         <v>5900</v>
       </c>
       <c r="E60">
-        <v>79.505813953488399</v>
+        <v>82.848837209302303</v>
       </c>
       <c r="F60">
-        <v>87.209302325581405</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="G60">
         <v>71.802325581395394</v>
@@ -13558,10 +13558,10 @@
         <v>5900</v>
       </c>
       <c r="I60">
-        <v>78.779069767441896</v>
+        <v>82.1220930232558</v>
       </c>
       <c r="J60">
-        <v>85.755813953488399</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="K60">
         <v>71.802325581395394</v>
@@ -13570,10 +13570,10 @@
         <v>5900</v>
       </c>
       <c r="M60">
-        <v>81.25</v>
+        <v>82.848837209302303</v>
       </c>
       <c r="N60">
-        <v>90.697674418604706</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="O60">
         <v>71.802325581395394</v>
@@ -13584,46 +13584,46 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>79.505813953488399</v>
+        <v>82.848837209302303</v>
       </c>
       <c r="B61">
-        <v>86.6279069767442</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="C61">
-        <v>72.383720930232599</v>
+        <v>71.802325581395394</v>
       </c>
       <c r="D61">
         <v>6000</v>
       </c>
       <c r="E61">
-        <v>80.232558139534902</v>
+        <v>83.139534883720899</v>
       </c>
       <c r="F61">
-        <v>88.081395348837205</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="G61">
-        <v>72.383720930232599</v>
+        <v>72.093023255814003</v>
       </c>
       <c r="H61">
         <v>6000</v>
       </c>
       <c r="I61">
-        <v>79.651162790697697</v>
+        <v>82.1220930232558</v>
       </c>
       <c r="J61">
-        <v>86.918604651162795</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="K61">
-        <v>72.383720930232599</v>
+        <v>71.802325581395394</v>
       </c>
       <c r="L61">
         <v>6000</v>
       </c>
       <c r="M61">
-        <v>81.540697674418595</v>
+        <v>82.994186046511601</v>
       </c>
       <c r="N61">
-        <v>91.279069767441896</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="O61">
         <v>71.802325581395394</v>
@@ -13634,46 +13634,46 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>80.668604651162795</v>
+        <v>82.703488372093005</v>
       </c>
       <c r="B62">
-        <v>86.918604651162795</v>
+        <v>93.023255813953497</v>
       </c>
       <c r="C62">
-        <v>74.418604651162795</v>
+        <v>72.383720930232599</v>
       </c>
       <c r="D62">
         <v>6100</v>
       </c>
       <c r="E62">
-        <v>82.1220930232558</v>
+        <v>84.011627906976699</v>
       </c>
       <c r="F62">
-        <v>88.3720930232558</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="G62">
-        <v>75.8720930232558</v>
+        <v>72.674418604651194</v>
       </c>
       <c r="H62">
         <v>6100</v>
       </c>
       <c r="I62">
-        <v>79.941860465116307</v>
+        <v>82.412790697674396</v>
       </c>
       <c r="J62">
-        <v>86.918604651162795</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="K62">
-        <v>72.965116279069804</v>
+        <v>72.383720930232599</v>
       </c>
       <c r="L62">
         <v>6100</v>
       </c>
       <c r="M62">
-        <v>81.976744186046503</v>
+        <v>83.284883720930196</v>
       </c>
       <c r="N62">
-        <v>91.569767441860506</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="O62">
         <v>72.383720930232599</v>
@@ -13684,46 +13684,46 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>82.1220930232558</v>
+        <v>83.430232558139494</v>
       </c>
       <c r="B63">
-        <v>87.209302325581405</v>
+        <v>93.313953488372107</v>
       </c>
       <c r="C63">
-        <v>77.034883720930196</v>
+        <v>73.546511627906995</v>
       </c>
       <c r="D63">
         <v>6200</v>
       </c>
       <c r="E63">
-        <v>82.994186046511601</v>
+        <v>86.337209302325604</v>
       </c>
       <c r="F63">
-        <v>88.953488372093005</v>
+        <v>96.802325581395394</v>
       </c>
       <c r="G63">
-        <v>77.034883720930196</v>
+        <v>75.8720930232558</v>
       </c>
       <c r="H63">
         <v>6200</v>
       </c>
       <c r="I63">
-        <v>81.831395348837205</v>
+        <v>82.703488372093005</v>
       </c>
       <c r="J63">
-        <v>87.790697674418595</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="K63">
-        <v>75.8720930232558</v>
+        <v>72.965116279069804</v>
       </c>
       <c r="L63">
         <v>6200</v>
       </c>
       <c r="M63">
-        <v>82.267441860465098</v>
+        <v>83.575581395348806</v>
       </c>
       <c r="N63">
-        <v>91.569767441860506</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="O63">
         <v>72.965116279069804</v>
@@ -13734,49 +13734,49 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>82.994186046511601</v>
+        <v>85.174418604651194</v>
       </c>
       <c r="B64">
-        <v>87.790697674418595</v>
+        <v>93.604651162790702</v>
       </c>
       <c r="C64">
-        <v>78.197674418604706</v>
+        <v>76.744186046511601</v>
       </c>
       <c r="D64">
         <v>6300</v>
       </c>
       <c r="E64">
-        <v>83.866279069767401</v>
+        <v>89.680232558139494</v>
       </c>
       <c r="F64">
-        <v>89.244186046511601</v>
+        <v>98.255813953488399</v>
       </c>
       <c r="G64">
-        <v>78.488372093023202</v>
+        <v>81.104651162790702</v>
       </c>
       <c r="H64">
         <v>6300</v>
       </c>
       <c r="I64">
-        <v>82.558139534883693</v>
+        <v>83.720930232558203</v>
       </c>
       <c r="J64">
-        <v>88.081395348837205</v>
+        <v>92.732558139534902</v>
       </c>
       <c r="K64">
-        <v>77.034883720930196</v>
+        <v>74.709302325581405</v>
       </c>
       <c r="L64">
         <v>6300</v>
       </c>
       <c r="M64">
-        <v>83.430232558139494</v>
+        <v>84.738372093023301</v>
       </c>
       <c r="N64">
-        <v>91.860465116279101</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="O64">
-        <v>75</v>
+        <v>75.290697674418595</v>
       </c>
       <c r="P64">
         <v>6300</v>
@@ -13784,22 +13784,22 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>84.593023255814003</v>
+        <v>87.936046511627893</v>
       </c>
       <c r="B65">
-        <v>88.3720930232558</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="C65">
-        <v>80.813953488372107</v>
+        <v>81.976744186046503</v>
       </c>
       <c r="D65">
         <v>6400</v>
       </c>
       <c r="E65">
-        <v>86.482558139534902</v>
+        <v>91.569767441860506</v>
       </c>
       <c r="F65">
-        <v>89.244186046511601</v>
+        <v>99.418604651162795</v>
       </c>
       <c r="G65">
         <v>83.720930232558203</v>
@@ -13808,25 +13808,25 @@
         <v>6400</v>
       </c>
       <c r="I65">
-        <v>83.284883720930196</v>
+        <v>84.302325581395394</v>
       </c>
       <c r="J65">
-        <v>89.244186046511601</v>
+        <v>93.023255813953497</v>
       </c>
       <c r="K65">
-        <v>77.325581395348905</v>
+        <v>75.581395348837205</v>
       </c>
       <c r="L65">
         <v>6400</v>
       </c>
       <c r="M65">
-        <v>85.029069767441896</v>
+        <v>85.465116279069804</v>
       </c>
       <c r="N65">
-        <v>92.441860465116307</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="O65">
-        <v>77.616279069767401</v>
+        <v>76.744186046511601</v>
       </c>
       <c r="P65">
         <v>6400</v>
@@ -13834,49 +13834,49 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>86.773255813953497</v>
+        <v>88.662790697674396</v>
       </c>
       <c r="B66">
-        <v>88.953488372093005</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="C66">
-        <v>84.593023255814003</v>
+        <v>83.430232558139494</v>
       </c>
       <c r="D66">
         <v>6500</v>
       </c>
       <c r="E66">
+        <v>94.186046511627893</v>
+      </c>
+      <c r="F66">
+        <v>100</v>
+      </c>
+      <c r="G66">
         <v>88.3720930232558</v>
-      </c>
-      <c r="F66">
-        <v>89.534883720930196</v>
-      </c>
-      <c r="G66">
-        <v>87.209302325581405</v>
       </c>
       <c r="H66">
         <v>6500</v>
       </c>
       <c r="I66">
-        <v>84.156976744186096</v>
+        <v>84.883720930232599</v>
       </c>
       <c r="J66">
-        <v>89.244186046511601</v>
+        <v>93.023255813953497</v>
       </c>
       <c r="K66">
-        <v>79.069767441860506</v>
+        <v>76.744186046511601</v>
       </c>
       <c r="L66">
         <v>6500</v>
       </c>
       <c r="M66">
-        <v>86.773255813953497</v>
+        <v>87.790697674418595</v>
       </c>
       <c r="N66">
-        <v>92.441860465116307</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="O66">
-        <v>81.104651162790702</v>
+        <v>81.395348837209298</v>
       </c>
       <c r="P66">
         <v>6500</v>
@@ -13884,46 +13884,46 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>87.936046511627893</v>
+        <v>90.988372093023301</v>
       </c>
       <c r="B67">
-        <v>89.244186046511601</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="C67">
-        <v>86.6279069767442</v>
+        <v>88.081395348837205</v>
       </c>
       <c r="D67">
         <v>6600</v>
       </c>
       <c r="E67">
-        <v>89.098837209302303</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F67">
-        <v>89.534883720930196</v>
+        <v>100</v>
       </c>
       <c r="G67">
-        <v>88.662790697674396</v>
+        <v>90.697674418604706</v>
       </c>
       <c r="H67">
         <v>6600</v>
       </c>
       <c r="I67">
-        <v>85.755813953488399</v>
+        <v>86.918604651162795</v>
       </c>
       <c r="J67">
-        <v>89.534883720930196</v>
+        <v>93.023255813953497</v>
       </c>
       <c r="K67">
-        <v>81.976744186046503</v>
+        <v>80.813953488372107</v>
       </c>
       <c r="L67">
         <v>6600</v>
       </c>
       <c r="M67">
-        <v>87.645348837209298</v>
+        <v>88.517441860465098</v>
       </c>
       <c r="N67">
-        <v>92.441860465116307</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="O67">
         <v>82.848837209302303</v>
@@ -13934,22 +13934,22 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>89.098837209302303</v>
+        <v>92.296511627906995</v>
       </c>
       <c r="B68">
-        <v>89.244186046511601</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="C68">
-        <v>88.953488372093005</v>
+        <v>90.697674418604706</v>
       </c>
       <c r="D68">
         <v>6700</v>
       </c>
       <c r="E68">
-        <v>90.261627906976699</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F68">
-        <v>89.825581395348905</v>
+        <v>100</v>
       </c>
       <c r="G68">
         <v>90.697674418604706</v>
@@ -13958,25 +13958,25 @@
         <v>6700</v>
       </c>
       <c r="I68">
-        <v>85.901162790697697</v>
+        <v>87.645348837209298</v>
       </c>
       <c r="J68">
-        <v>89.534883720930196</v>
+        <v>93.313953488372107</v>
       </c>
       <c r="K68">
-        <v>82.267441860465098</v>
+        <v>81.976744186046503</v>
       </c>
       <c r="L68">
         <v>6700</v>
       </c>
       <c r="M68">
-        <v>89.244186046511601</v>
+        <v>89.534883720930196</v>
       </c>
       <c r="N68">
-        <v>92.441860465116307</v>
+        <v>94.476744186046503</v>
       </c>
       <c r="O68">
-        <v>86.046511627906995</v>
+        <v>84.593023255814003</v>
       </c>
       <c r="P68">
         <v>6700</v>
@@ -13984,10 +13984,10 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>90.116279069767401</v>
+        <v>92.296511627906995</v>
       </c>
       <c r="B69">
-        <v>89.534883720930196</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="C69">
         <v>90.697674418604706</v>
@@ -13996,10 +13996,10 @@
         <v>6800</v>
       </c>
       <c r="E69">
-        <v>90.261627906976699</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F69">
-        <v>89.825581395348905</v>
+        <v>100</v>
       </c>
       <c r="G69">
         <v>90.697674418604706</v>
@@ -14008,25 +14008,25 @@
         <v>6800</v>
       </c>
       <c r="I69">
-        <v>86.482558139534902</v>
+        <v>88.808139534883693</v>
       </c>
       <c r="J69">
-        <v>89.825581395348905</v>
+        <v>93.604651162790702</v>
       </c>
       <c r="K69">
-        <v>83.139534883720899</v>
+        <v>84.011627906976798</v>
       </c>
       <c r="L69">
         <v>6800</v>
       </c>
       <c r="M69">
-        <v>90.843023255814003</v>
+        <v>92.005813953488399</v>
       </c>
       <c r="N69">
-        <v>92.441860465116307</v>
+        <v>94.476744186046503</v>
       </c>
       <c r="O69">
-        <v>89.244186046511601</v>
+        <v>89.534883720930196</v>
       </c>
       <c r="P69">
         <v>6800</v>
@@ -14034,10 +14034,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>90.116279069767401</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="B70">
-        <v>89.534883720930196</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="C70">
         <v>90.697674418604706</v>
@@ -14046,10 +14046,10 @@
         <v>6900</v>
       </c>
       <c r="E70">
-        <v>90.406976744186096</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F70">
-        <v>90.116279069767401</v>
+        <v>100</v>
       </c>
       <c r="G70">
         <v>90.697674418604706</v>
@@ -14058,22 +14058,22 @@
         <v>6900</v>
       </c>
       <c r="I70">
-        <v>87.790697674418595</v>
+        <v>90.406976744186096</v>
       </c>
       <c r="J70">
-        <v>89.825581395348905</v>
+        <v>93.604651162790702</v>
       </c>
       <c r="K70">
-        <v>85.755813953488399</v>
+        <v>87.209302325581405</v>
       </c>
       <c r="L70">
         <v>6900</v>
       </c>
       <c r="M70">
-        <v>91.569767441860506</v>
+        <v>92.732558139534902</v>
       </c>
       <c r="N70">
-        <v>92.441860465116307</v>
+        <v>94.767441860465098</v>
       </c>
       <c r="O70">
         <v>90.697674418604706</v>
@@ -14084,10 +14084,10 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>90.116279069767401</v>
+        <v>93.459302325581405</v>
       </c>
       <c r="B71">
-        <v>89.534883720930196</v>
+        <v>96.220930232558203</v>
       </c>
       <c r="C71">
         <v>90.697674418604706</v>
@@ -14096,10 +14096,10 @@
         <v>7000</v>
       </c>
       <c r="E71">
-        <v>90.406976744186096</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F71">
-        <v>90.116279069767401</v>
+        <v>100</v>
       </c>
       <c r="G71">
         <v>90.697674418604706</v>
@@ -14108,22 +14108,22 @@
         <v>7000</v>
       </c>
       <c r="I71">
-        <v>89.098837209302303</v>
+        <v>92.296511627906995</v>
       </c>
       <c r="J71">
-        <v>90.116279069767401</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="K71">
-        <v>88.081395348837205</v>
+        <v>90.697674418604706</v>
       </c>
       <c r="L71">
         <v>7000</v>
       </c>
       <c r="M71">
-        <v>91.715116279069804</v>
+        <v>92.732558139534902</v>
       </c>
       <c r="N71">
-        <v>92.732558139534902</v>
+        <v>94.767441860465098</v>
       </c>
       <c r="O71">
         <v>90.697674418604706</v>
@@ -14134,10 +14134,10 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>90.261627906976699</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="B72">
-        <v>89.825581395348905</v>
+        <v>97.093023255814003</v>
       </c>
       <c r="C72">
         <v>90.697674418604706</v>
@@ -14146,10 +14146,10 @@
         <v>7100</v>
       </c>
       <c r="E72">
-        <v>90.406976744186096</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F72">
-        <v>90.116279069767401</v>
+        <v>100</v>
       </c>
       <c r="G72">
         <v>90.697674418604706</v>
@@ -14158,10 +14158,10 @@
         <v>7100</v>
       </c>
       <c r="I72">
-        <v>90.406976744186096</v>
+        <v>92.296511627906995</v>
       </c>
       <c r="J72">
-        <v>90.116279069767401</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="K72">
         <v>90.697674418604706</v>
@@ -14170,10 +14170,10 @@
         <v>7100</v>
       </c>
       <c r="M72">
-        <v>91.715116279069804</v>
+        <v>92.8779069767442</v>
       </c>
       <c r="N72">
-        <v>92.732558139534902</v>
+        <v>95.058139534883693</v>
       </c>
       <c r="O72">
         <v>90.697674418604706</v>
@@ -14184,10 +14184,10 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>90.261627906976699</v>
+        <v>94.331395348837205</v>
       </c>
       <c r="B73">
-        <v>89.825581395348905</v>
+        <v>97.965116279069804</v>
       </c>
       <c r="C73">
         <v>90.697674418604706</v>
@@ -14196,10 +14196,10 @@
         <v>7200</v>
       </c>
       <c r="E73">
-        <v>90.406976744186096</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F73">
-        <v>90.116279069767401</v>
+        <v>100</v>
       </c>
       <c r="G73">
         <v>90.697674418604706</v>
@@ -14208,10 +14208,10 @@
         <v>7200</v>
       </c>
       <c r="I73">
-        <v>90.406976744186096</v>
+        <v>92.296511627906995</v>
       </c>
       <c r="J73">
-        <v>90.116279069767401</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="K73">
         <v>90.697674418604706</v>
@@ -14220,10 +14220,10 @@
         <v>7200</v>
       </c>
       <c r="M73">
-        <v>91.715116279069804</v>
+        <v>92.8779069767442</v>
       </c>
       <c r="N73">
-        <v>92.732558139534902</v>
+        <v>95.058139534883693</v>
       </c>
       <c r="O73">
         <v>90.697674418604706</v>
@@ -14234,10 +14234,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>90.406976744186096</v>
+        <v>94.767441860465098</v>
       </c>
       <c r="B74">
-        <v>90.116279069767401</v>
+        <v>98.837209302325604</v>
       </c>
       <c r="C74">
         <v>90.697674418604706</v>
@@ -14246,10 +14246,10 @@
         <v>7300</v>
       </c>
       <c r="E74">
-        <v>90.988372093023301</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F74">
-        <v>91.279069767441896</v>
+        <v>100</v>
       </c>
       <c r="G74">
         <v>90.697674418604706</v>
@@ -14258,10 +14258,10 @@
         <v>7300</v>
       </c>
       <c r="I74">
-        <v>90.406976744186096</v>
+        <v>92.296511627906995</v>
       </c>
       <c r="J74">
-        <v>90.116279069767401</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="K74">
         <v>90.697674418604706</v>
@@ -14270,10 +14270,10 @@
         <v>7300</v>
       </c>
       <c r="M74">
-        <v>91.860465116279101</v>
+        <v>92.8779069767442</v>
       </c>
       <c r="N74">
-        <v>93.023255813953497</v>
+        <v>95.058139534883693</v>
       </c>
       <c r="O74">
         <v>90.697674418604706</v>
@@ -14284,10 +14284,10 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>90.406976744186096</v>
+        <v>95.203488372093005</v>
       </c>
       <c r="B75">
-        <v>90.116279069767401</v>
+        <v>99.709302325581405</v>
       </c>
       <c r="C75">
         <v>90.697674418604706</v>
@@ -14296,10 +14296,10 @@
         <v>7400</v>
       </c>
       <c r="E75">
-        <v>91.133720930232599</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F75">
-        <v>91.569767441860506</v>
+        <v>100</v>
       </c>
       <c r="G75">
         <v>90.697674418604706</v>
@@ -14308,10 +14308,10 @@
         <v>7400</v>
       </c>
       <c r="I75">
-        <v>90.988372093023301</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="J75">
-        <v>91.279069767441896</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="K75">
         <v>90.697674418604706</v>
@@ -14320,10 +14320,10 @@
         <v>7400</v>
       </c>
       <c r="M75">
-        <v>91.860465116279101</v>
+        <v>93.023255813953497</v>
       </c>
       <c r="N75">
-        <v>93.023255813953497</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="O75">
         <v>90.697674418604706</v>
@@ -14334,10 +14334,10 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>90.406976744186096</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B76">
-        <v>90.116279069767401</v>
+        <v>100</v>
       </c>
       <c r="C76">
         <v>90.697674418604706</v>
@@ -14346,10 +14346,10 @@
         <v>7500</v>
       </c>
       <c r="E76">
-        <v>91.133720930232599</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F76">
-        <v>91.569767441860506</v>
+        <v>100</v>
       </c>
       <c r="G76">
         <v>90.697674418604706</v>
@@ -14358,10 +14358,10 @@
         <v>7500</v>
       </c>
       <c r="I76">
-        <v>91.133720930232599</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="J76">
-        <v>91.569767441860506</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="K76">
         <v>90.697674418604706</v>
@@ -14370,13 +14370,13 @@
         <v>7500</v>
       </c>
       <c r="M76">
-        <v>92.151162790697697</v>
+        <v>93.023255813953497</v>
       </c>
       <c r="N76">
-        <v>93.313953488372107</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="O76">
-        <v>90.988372093023202</v>
+        <v>90.697674418604706</v>
       </c>
       <c r="P76">
         <v>7500</v>
@@ -14384,10 +14384,10 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>90.406976744186096</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B77">
-        <v>90.116279069767401</v>
+        <v>100</v>
       </c>
       <c r="C77">
         <v>90.697674418604706</v>
@@ -14396,10 +14396,10 @@
         <v>7600</v>
       </c>
       <c r="E77">
-        <v>91.279069767441896</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F77">
-        <v>91.860465116279101</v>
+        <v>100</v>
       </c>
       <c r="G77">
         <v>90.697674418604706</v>
@@ -14408,10 +14408,10 @@
         <v>7600</v>
       </c>
       <c r="I77">
-        <v>91.279069767441896</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="J77">
-        <v>91.860465116279101</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="K77">
         <v>90.697674418604706</v>
@@ -14420,10 +14420,10 @@
         <v>7600</v>
       </c>
       <c r="M77">
-        <v>92.005813953488399</v>
+        <v>93.168604651162795</v>
       </c>
       <c r="N77">
-        <v>93.313953488372107</v>
+        <v>95.639534883720899</v>
       </c>
       <c r="O77">
         <v>90.697674418604706</v>
@@ -14434,10 +14434,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>90.988372093023301</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B78">
-        <v>91.279069767441896</v>
+        <v>100</v>
       </c>
       <c r="C78">
         <v>90.697674418604706</v>
@@ -14446,10 +14446,10 @@
         <v>7700</v>
       </c>
       <c r="E78">
-        <v>91.279069767441896</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F78">
-        <v>91.860465116279101</v>
+        <v>100</v>
       </c>
       <c r="G78">
         <v>90.697674418604706</v>
@@ -14458,10 +14458,10 @@
         <v>7700</v>
       </c>
       <c r="I78">
-        <v>91.279069767441896</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="J78">
-        <v>91.860465116279101</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="K78">
         <v>90.697674418604706</v>
@@ -14470,10 +14470,10 @@
         <v>7700</v>
       </c>
       <c r="M78">
-        <v>92.151162790697697</v>
+        <v>93.168604651162795</v>
       </c>
       <c r="N78">
-        <v>93.604651162790702</v>
+        <v>95.639534883720899</v>
       </c>
       <c r="O78">
         <v>90.697674418604706</v>
@@ -14484,10 +14484,10 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>90.988372093023301</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B79">
-        <v>91.279069767441896</v>
+        <v>100</v>
       </c>
       <c r="C79">
         <v>90.697674418604706</v>
@@ -14496,10 +14496,10 @@
         <v>7800</v>
       </c>
       <c r="E79">
-        <v>91.424418604651194</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F79">
-        <v>92.151162790697697</v>
+        <v>100</v>
       </c>
       <c r="G79">
         <v>90.697674418604706</v>
@@ -14508,10 +14508,10 @@
         <v>7800</v>
       </c>
       <c r="I79">
-        <v>91.424418604651194</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="J79">
-        <v>92.151162790697697</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="K79">
         <v>90.697674418604706</v>
@@ -14520,13 +14520,13 @@
         <v>7800</v>
       </c>
       <c r="M79">
-        <v>92.441860465116307</v>
+        <v>92.732558139534902</v>
       </c>
       <c r="N79">
-        <v>93.895348837209298</v>
+        <v>94.767441860465098</v>
       </c>
       <c r="O79">
-        <v>90.988372093023202</v>
+        <v>90.697674418604706</v>
       </c>
       <c r="P79">
         <v>7800</v>
@@ -14534,10 +14534,10 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>91.133720930232599</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B80">
-        <v>91.569767441860506</v>
+        <v>100</v>
       </c>
       <c r="C80">
         <v>90.697674418604706</v>
@@ -14546,10 +14546,10 @@
         <v>7900</v>
       </c>
       <c r="E80">
-        <v>91.569767441860506</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F80">
-        <v>92.441860465116307</v>
+        <v>100</v>
       </c>
       <c r="G80">
         <v>90.697674418604706</v>
@@ -14558,10 +14558,10 @@
         <v>7900</v>
       </c>
       <c r="I80">
-        <v>91.424418604651194</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="J80">
-        <v>92.151162790697697</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="K80">
         <v>90.697674418604706</v>
@@ -14570,10 +14570,10 @@
         <v>7900</v>
       </c>
       <c r="M80">
-        <v>92.296511627906995</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="N80">
-        <v>93.895348837209298</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="O80">
         <v>90.697674418604706</v>
@@ -14584,10 +14584,10 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>91.279069767441896</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B81">
-        <v>91.860465116279101</v>
+        <v>100</v>
       </c>
       <c r="C81">
         <v>90.697674418604706</v>
@@ -14596,10 +14596,10 @@
         <v>8000</v>
       </c>
       <c r="E81">
-        <v>91.569767441860506</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F81">
-        <v>92.441860465116307</v>
+        <v>100</v>
       </c>
       <c r="G81">
         <v>90.697674418604706</v>
@@ -14608,10 +14608,10 @@
         <v>8000</v>
       </c>
       <c r="I81">
-        <v>91.569767441860506</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="J81">
-        <v>92.441860465116307</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="K81">
         <v>90.697674418604706</v>
@@ -14634,10 +14634,10 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>91.279069767441896</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B82">
-        <v>91.860465116279101</v>
+        <v>100</v>
       </c>
       <c r="C82">
         <v>90.697674418604706</v>
@@ -14646,10 +14646,10 @@
         <v>8100</v>
       </c>
       <c r="E82">
-        <v>91.569767441860506</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F82">
-        <v>92.441860465116307</v>
+        <v>100</v>
       </c>
       <c r="G82">
         <v>90.697674418604706</v>
@@ -14658,10 +14658,10 @@
         <v>8100</v>
       </c>
       <c r="I82">
-        <v>91.569767441860506</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="J82">
-        <v>92.441860465116307</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="K82">
         <v>90.697674418604706</v>
@@ -14684,10 +14684,10 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>91.424418604651194</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B83">
-        <v>92.151162790697697</v>
+        <v>100</v>
       </c>
       <c r="C83">
         <v>90.697674418604706</v>
@@ -14696,10 +14696,10 @@
         <v>8200</v>
       </c>
       <c r="E83">
-        <v>91.569767441860506</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F83">
-        <v>92.441860465116307</v>
+        <v>100</v>
       </c>
       <c r="G83">
         <v>90.697674418604706</v>
@@ -14708,10 +14708,10 @@
         <v>8200</v>
       </c>
       <c r="I83">
-        <v>91.569767441860506</v>
+        <v>92.441860465116307</v>
       </c>
       <c r="J83">
-        <v>92.441860465116307</v>
+        <v>94.186046511627893</v>
       </c>
       <c r="K83">
         <v>90.697674418604706</v>
@@ -14734,10 +14734,10 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>91.424418604651194</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B84">
-        <v>92.151162790697697</v>
+        <v>100</v>
       </c>
       <c r="C84">
         <v>90.697674418604706</v>
@@ -14746,10 +14746,10 @@
         <v>8300</v>
       </c>
       <c r="E84">
-        <v>91.569767441860506</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F84">
-        <v>92.441860465116307</v>
+        <v>100</v>
       </c>
       <c r="G84">
         <v>90.697674418604706</v>
@@ -14758,10 +14758,10 @@
         <v>8300</v>
       </c>
       <c r="I84">
-        <v>91.569767441860506</v>
+        <v>92.587209302325604</v>
       </c>
       <c r="J84">
-        <v>92.441860465116307</v>
+        <v>94.476744186046503</v>
       </c>
       <c r="K84">
         <v>90.697674418604706</v>
@@ -14784,10 +14784,10 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>91.569767441860506</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B85">
-        <v>92.441860465116307</v>
+        <v>100</v>
       </c>
       <c r="C85">
         <v>90.697674418604706</v>
@@ -14796,10 +14796,10 @@
         <v>8400</v>
       </c>
       <c r="E85">
-        <v>91.569767441860506</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F85">
-        <v>92.441860465116307</v>
+        <v>100</v>
       </c>
       <c r="G85">
         <v>90.697674418604706</v>
@@ -14808,10 +14808,10 @@
         <v>8400</v>
       </c>
       <c r="I85">
-        <v>91.569767441860506</v>
+        <v>92.587209302325604</v>
       </c>
       <c r="J85">
-        <v>92.441860465116307</v>
+        <v>94.476744186046503</v>
       </c>
       <c r="K85">
         <v>90.697674418604706</v>
@@ -14820,10 +14820,10 @@
         <v>8400</v>
       </c>
       <c r="M85">
-        <v>92.441860465116307</v>
+        <v>92.296511627906995</v>
       </c>
       <c r="N85">
-        <v>94.186046511627893</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="O85">
         <v>90.697674418604706</v>
@@ -14834,10 +14834,10 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>91.569767441860506</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B86">
-        <v>92.441860465116307</v>
+        <v>100</v>
       </c>
       <c r="C86">
         <v>90.697674418604706</v>
@@ -14846,10 +14846,10 @@
         <v>8500</v>
       </c>
       <c r="E86">
-        <v>91.569767441860506</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F86">
-        <v>92.441860465116307</v>
+        <v>100</v>
       </c>
       <c r="G86">
         <v>90.697674418604706</v>
@@ -14858,10 +14858,10 @@
         <v>8500</v>
       </c>
       <c r="I86">
-        <v>91.569767441860506</v>
+        <v>92.732558139534902</v>
       </c>
       <c r="J86">
-        <v>92.441860465116307</v>
+        <v>94.767441860465098</v>
       </c>
       <c r="K86">
         <v>90.697674418604706</v>
@@ -14884,10 +14884,10 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>91.569767441860506</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B87">
-        <v>92.441860465116307</v>
+        <v>100</v>
       </c>
       <c r="C87">
         <v>90.697674418604706</v>
@@ -14896,10 +14896,10 @@
         <v>8600</v>
       </c>
       <c r="E87">
-        <v>91.569767441860506</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F87">
-        <v>92.441860465116307</v>
+        <v>100</v>
       </c>
       <c r="G87">
         <v>90.697674418604706</v>
@@ -14908,10 +14908,10 @@
         <v>8600</v>
       </c>
       <c r="I87">
-        <v>91.569767441860506</v>
+        <v>92.732558139534902</v>
       </c>
       <c r="J87">
-        <v>92.441860465116307</v>
+        <v>94.767441860465098</v>
       </c>
       <c r="K87">
         <v>90.697674418604706</v>
@@ -14934,10 +14934,10 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>91.569767441860506</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B88">
-        <v>92.441860465116307</v>
+        <v>100</v>
       </c>
       <c r="C88">
         <v>90.697674418604706</v>
@@ -14946,10 +14946,10 @@
         <v>8700</v>
       </c>
       <c r="E88">
-        <v>91.715116279069804</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F88">
-        <v>92.732558139534902</v>
+        <v>100</v>
       </c>
       <c r="G88">
         <v>90.697674418604706</v>
@@ -14958,10 +14958,10 @@
         <v>8700</v>
       </c>
       <c r="I88">
-        <v>91.569767441860506</v>
+        <v>92.732558139534902</v>
       </c>
       <c r="J88">
-        <v>92.441860465116307</v>
+        <v>94.767441860465098</v>
       </c>
       <c r="K88">
         <v>90.697674418604706</v>
@@ -14970,10 +14970,10 @@
         <v>8700</v>
       </c>
       <c r="M88">
-        <v>92.441860465116307</v>
+        <v>92.8779069767442</v>
       </c>
       <c r="N88">
-        <v>94.186046511627893</v>
+        <v>95.058139534883693</v>
       </c>
       <c r="O88">
         <v>90.697674418604706</v>
@@ -14984,10 +14984,10 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>91.569767441860506</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B89">
-        <v>92.441860465116307</v>
+        <v>100</v>
       </c>
       <c r="C89">
         <v>90.697674418604706</v>
@@ -14996,10 +14996,10 @@
         <v>8800</v>
       </c>
       <c r="E89">
-        <v>91.715116279069804</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F89">
-        <v>92.732558139534902</v>
+        <v>100</v>
       </c>
       <c r="G89">
         <v>90.697674418604706</v>
@@ -15008,10 +15008,10 @@
         <v>8800</v>
       </c>
       <c r="I89">
-        <v>91.715116279069804</v>
+        <v>92.8779069767442</v>
       </c>
       <c r="J89">
-        <v>92.732558139534902</v>
+        <v>95.058139534883693</v>
       </c>
       <c r="K89">
         <v>90.697674418604706</v>
@@ -15020,10 +15020,10 @@
         <v>8800</v>
       </c>
       <c r="M89">
-        <v>93.459302325581405</v>
+        <v>93.313953488372107</v>
       </c>
       <c r="N89">
-        <v>96.220930232558203</v>
+        <v>95.930232558139494</v>
       </c>
       <c r="O89">
         <v>90.697674418604706</v>
@@ -15034,10 +15034,10 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>91.569767441860506</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B90">
-        <v>92.441860465116307</v>
+        <v>100</v>
       </c>
       <c r="C90">
         <v>90.697674418604706</v>
@@ -15046,10 +15046,10 @@
         <v>8900</v>
       </c>
       <c r="E90">
-        <v>91.715116279069804</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F90">
-        <v>92.732558139534902</v>
+        <v>100</v>
       </c>
       <c r="G90">
         <v>90.697674418604706</v>
@@ -15058,10 +15058,10 @@
         <v>8900</v>
       </c>
       <c r="I90">
-        <v>91.715116279069804</v>
+        <v>92.8779069767442</v>
       </c>
       <c r="J90">
-        <v>92.732558139534902</v>
+        <v>95.058139534883693</v>
       </c>
       <c r="K90">
         <v>90.697674418604706</v>
@@ -15070,10 +15070,10 @@
         <v>8900</v>
       </c>
       <c r="M90">
-        <v>93.459302325581405</v>
+        <v>93.604651162790702</v>
       </c>
       <c r="N90">
-        <v>96.220930232558203</v>
+        <v>96.511627906976798</v>
       </c>
       <c r="O90">
         <v>90.697674418604706</v>
@@ -15084,10 +15084,10 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>91.569767441860506</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B91">
-        <v>92.441860465116307</v>
+        <v>100</v>
       </c>
       <c r="C91">
         <v>90.697674418604706</v>
@@ -15096,10 +15096,10 @@
         <v>9000</v>
       </c>
       <c r="E91">
-        <v>91.860465116279101</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F91">
-        <v>93.023255813953497</v>
+        <v>100</v>
       </c>
       <c r="G91">
         <v>90.697674418604706</v>
@@ -15108,10 +15108,10 @@
         <v>9000</v>
       </c>
       <c r="I91">
-        <v>91.569767441860506</v>
+        <v>92.8779069767442</v>
       </c>
       <c r="J91">
-        <v>92.441860465116307</v>
+        <v>95.058139534883693</v>
       </c>
       <c r="K91">
         <v>90.697674418604706</v>
@@ -15120,10 +15120,10 @@
         <v>9000</v>
       </c>
       <c r="M91">
-        <v>93.75</v>
+        <v>93.895348837209298</v>
       </c>
       <c r="N91">
-        <v>96.802325581395394</v>
+        <v>97.093023255814003</v>
       </c>
       <c r="O91">
         <v>90.697674418604706</v>
@@ -15134,10 +15134,10 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91.569767441860506</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B92">
-        <v>92.441860465116307</v>
+        <v>100</v>
       </c>
       <c r="C92">
         <v>90.697674418604706</v>
@@ -15146,10 +15146,10 @@
         <v>9100</v>
       </c>
       <c r="E92">
-        <v>91.860465116279101</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F92">
-        <v>93.023255813953497</v>
+        <v>100</v>
       </c>
       <c r="G92">
         <v>90.697674418604706</v>
@@ -15158,10 +15158,10 @@
         <v>9100</v>
       </c>
       <c r="I92">
-        <v>91.569767441860506</v>
+        <v>93.023255813953497</v>
       </c>
       <c r="J92">
-        <v>92.441860465116307</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="K92">
         <v>90.697674418604706</v>
@@ -15170,10 +15170,10 @@
         <v>9100</v>
       </c>
       <c r="M92">
-        <v>93.895348837209298</v>
+        <v>94.040697674418595</v>
       </c>
       <c r="N92">
-        <v>97.093023255814003</v>
+        <v>97.383720930232599</v>
       </c>
       <c r="O92">
         <v>90.697674418604706</v>
@@ -15184,10 +15184,10 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>91.715116279069804</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B93">
-        <v>92.732558139534902</v>
+        <v>100</v>
       </c>
       <c r="C93">
         <v>90.697674418604706</v>
@@ -15196,10 +15196,10 @@
         <v>9200</v>
       </c>
       <c r="E93">
-        <v>91.860465116279101</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F93">
-        <v>93.023255813953497</v>
+        <v>100</v>
       </c>
       <c r="G93">
         <v>90.697674418604706</v>
@@ -15208,10 +15208,10 @@
         <v>9200</v>
       </c>
       <c r="I93">
-        <v>91.569767441860506</v>
+        <v>93.023255813953497</v>
       </c>
       <c r="J93">
-        <v>92.441860465116307</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="K93">
         <v>90.697674418604706</v>
@@ -15220,10 +15220,10 @@
         <v>9200</v>
       </c>
       <c r="M93">
-        <v>94.186046511627893</v>
+        <v>94.331395348837205</v>
       </c>
       <c r="N93">
-        <v>97.674418604651194</v>
+        <v>97.965116279069804</v>
       </c>
       <c r="O93">
         <v>90.697674418604706</v>
@@ -15234,10 +15234,10 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>91.715116279069804</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B94">
-        <v>92.732558139534902</v>
+        <v>100</v>
       </c>
       <c r="C94">
         <v>90.697674418604706</v>
@@ -15246,10 +15246,10 @@
         <v>9300</v>
       </c>
       <c r="E94">
-        <v>91.860465116279101</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F94">
-        <v>93.023255813953497</v>
+        <v>100</v>
       </c>
       <c r="G94">
         <v>90.697674418604706</v>
@@ -15258,10 +15258,10 @@
         <v>9300</v>
       </c>
       <c r="I94">
-        <v>91.569767441860506</v>
+        <v>93.023255813953497</v>
       </c>
       <c r="J94">
-        <v>92.441860465116307</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="K94">
         <v>90.697674418604706</v>
@@ -15270,13 +15270,13 @@
         <v>9300</v>
       </c>
       <c r="M94">
-        <v>95.058139534883693</v>
+        <v>94.6220930232558</v>
       </c>
       <c r="N94">
-        <v>98.837209302325604</v>
+        <v>98.546511627906995</v>
       </c>
       <c r="O94">
-        <v>91.279069767441896</v>
+        <v>90.697674418604706</v>
       </c>
       <c r="P94">
         <v>9300</v>
@@ -15284,10 +15284,10 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>91.715116279069804</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B95">
-        <v>92.732558139534902</v>
+        <v>100</v>
       </c>
       <c r="C95">
         <v>90.697674418604706</v>
@@ -15296,10 +15296,10 @@
         <v>9400</v>
       </c>
       <c r="E95">
-        <v>92.005813953488399</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F95">
-        <v>93.313953488372107</v>
+        <v>100</v>
       </c>
       <c r="G95">
         <v>90.697674418604706</v>
@@ -15308,10 +15308,10 @@
         <v>9400</v>
       </c>
       <c r="I95">
-        <v>91.569767441860506</v>
+        <v>93.168604651162795</v>
       </c>
       <c r="J95">
-        <v>92.441860465116307</v>
+        <v>95.639534883720899</v>
       </c>
       <c r="K95">
         <v>90.697674418604706</v>
@@ -15320,13 +15320,13 @@
         <v>9400</v>
       </c>
       <c r="M95">
-        <v>95.203488372093005</v>
+        <v>94.767441860465098</v>
       </c>
       <c r="N95">
-        <v>99.1279069767442</v>
+        <v>98.837209302325604</v>
       </c>
       <c r="O95">
-        <v>91.279069767441896</v>
+        <v>90.697674418604706</v>
       </c>
       <c r="P95">
         <v>9400</v>
@@ -15334,10 +15334,10 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>91.860465116279101</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B96">
-        <v>93.023255813953497</v>
+        <v>100</v>
       </c>
       <c r="C96">
         <v>90.697674418604706</v>
@@ -15346,10 +15346,10 @@
         <v>9500</v>
       </c>
       <c r="E96">
-        <v>92.005813953488399</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F96">
-        <v>93.313953488372107</v>
+        <v>100</v>
       </c>
       <c r="G96">
         <v>90.697674418604706</v>
@@ -15358,10 +15358,10 @@
         <v>9500</v>
       </c>
       <c r="I96">
-        <v>91.569767441860506</v>
+        <v>93.168604651162795</v>
       </c>
       <c r="J96">
-        <v>92.441860465116307</v>
+        <v>95.639534883720899</v>
       </c>
       <c r="K96">
         <v>90.697674418604706</v>
@@ -15384,10 +15384,10 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>91.860465116279101</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B97">
-        <v>93.023255813953497</v>
+        <v>100</v>
       </c>
       <c r="C97">
         <v>90.697674418604706</v>
@@ -15396,10 +15396,10 @@
         <v>9600</v>
       </c>
       <c r="E97">
-        <v>92.151162790697697</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F97">
-        <v>93.604651162790702</v>
+        <v>100</v>
       </c>
       <c r="G97">
         <v>90.697674418604706</v>
@@ -15408,10 +15408,10 @@
         <v>9600</v>
       </c>
       <c r="I97">
-        <v>91.424418604651194</v>
+        <v>93.168604651162795</v>
       </c>
       <c r="J97">
-        <v>92.151162790697697</v>
+        <v>95.639534883720899</v>
       </c>
       <c r="K97">
         <v>90.697674418604706</v>
@@ -15434,10 +15434,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>91.860465116279101</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B98">
-        <v>93.023255813953497</v>
+        <v>100</v>
       </c>
       <c r="C98">
         <v>90.697674418604706</v>
@@ -15446,10 +15446,10 @@
         <v>9700</v>
       </c>
       <c r="E98">
-        <v>92.151162790697697</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F98">
-        <v>93.604651162790702</v>
+        <v>100</v>
       </c>
       <c r="G98">
         <v>90.697674418604706</v>
@@ -15458,10 +15458,10 @@
         <v>9700</v>
       </c>
       <c r="I98">
-        <v>91.424418604651194</v>
+        <v>93.168604651162795</v>
       </c>
       <c r="J98">
-        <v>92.151162790697697</v>
+        <v>95.639534883720899</v>
       </c>
       <c r="K98">
         <v>90.697674418604706</v>
@@ -15484,10 +15484,10 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>91.860465116279101</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B99">
-        <v>93.023255813953497</v>
+        <v>100</v>
       </c>
       <c r="C99">
         <v>90.697674418604706</v>
@@ -15496,10 +15496,10 @@
         <v>9800</v>
       </c>
       <c r="E99">
-        <v>92.151162790697697</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F99">
-        <v>93.604651162790702</v>
+        <v>100</v>
       </c>
       <c r="G99">
         <v>90.697674418604706</v>
@@ -15508,10 +15508,10 @@
         <v>9800</v>
       </c>
       <c r="I99">
-        <v>91.424418604651194</v>
+        <v>93.313953488372107</v>
       </c>
       <c r="J99">
-        <v>92.151162790697697</v>
+        <v>95.930232558139494</v>
       </c>
       <c r="K99">
         <v>90.697674418604706</v>
@@ -15520,10 +15520,10 @@
         <v>9800</v>
       </c>
       <c r="M99">
-        <v>95.203488372093005</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="N99">
-        <v>99.709302325581405</v>
+        <v>100</v>
       </c>
       <c r="O99">
         <v>90.697674418604706</v>
@@ -15534,10 +15534,10 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>92.005813953488399</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B100">
-        <v>93.313953488372107</v>
+        <v>100</v>
       </c>
       <c r="C100">
         <v>90.697674418604706</v>
@@ -15546,10 +15546,10 @@
         <v>9900</v>
       </c>
       <c r="E100">
-        <v>92.296511627906995</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F100">
-        <v>93.895348837209298</v>
+        <v>100</v>
       </c>
       <c r="G100">
         <v>90.697674418604706</v>
@@ -15558,10 +15558,10 @@
         <v>9900</v>
       </c>
       <c r="I100">
-        <v>91.279069767441896</v>
+        <v>93.023255813953497</v>
       </c>
       <c r="J100">
-        <v>91.860465116279101</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="K100">
         <v>90.697674418604706</v>
@@ -15584,10 +15584,10 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>92.005813953488399</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="B101">
-        <v>93.313953488372107</v>
+        <v>100</v>
       </c>
       <c r="C101">
         <v>90.697674418604706</v>
@@ -15596,10 +15596,10 @@
         <v>10000</v>
       </c>
       <c r="E101">
-        <v>92.441860465116307</v>
+        <v>95.348837209302303</v>
       </c>
       <c r="F101">
-        <v>94.186046511627893</v>
+        <v>100</v>
       </c>
       <c r="G101">
         <v>90.697674418604706</v>
@@ -15608,10 +15608,10 @@
         <v>10000</v>
       </c>
       <c r="I101">
-        <v>91.424418604651194</v>
+        <v>92.8779069767442</v>
       </c>
       <c r="J101">
-        <v>92.151162790697697</v>
+        <v>95.058139534883693</v>
       </c>
       <c r="K101">
         <v>90.697674418604706</v>
@@ -20706,8 +20706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25771,8 +25771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:P101"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="R84" sqref="R84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
